--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>Nr.</t>
   </si>
@@ -46,12 +46,6 @@
     <t xml:space="preserve">Meilensteine </t>
   </si>
   <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Abschluss Initialisierungsphase ❶</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -73,33 +67,6 @@
     <t>❹</t>
   </si>
   <si>
-    <t>Abgabe Studie ❷</t>
-  </si>
-  <si>
-    <t>Abschluss Konzeptphase ❸</t>
-  </si>
-  <si>
-    <t>Abgabe Konzeptbericht ❹</t>
-  </si>
-  <si>
-    <t>Erste Funktionierende Version des Spiels ❺</t>
-  </si>
-  <si>
-    <t>Abschluss Realisierungsphase (Spiel fertig) ❼</t>
-  </si>
-  <si>
-    <t>Abgabe Realisierungsbericht ❽</t>
-  </si>
-  <si>
-    <t>Einführung (Publishing im Store) ❾</t>
-  </si>
-  <si>
-    <t>Fertigstellung der Grafiken ❻</t>
-  </si>
-  <si>
-    <t>Abgabe Einführungsbericht ❿</t>
-  </si>
-  <si>
     <t>❺</t>
   </si>
   <si>
@@ -118,10 +85,68 @@
     <t xml:space="preserve"> ❿</t>
   </si>
   <si>
-    <t>Daten Konzept (Arbeitspaket # 3)</t>
+    <t>Realisierung</t>
   </si>
   <si>
-    <t xml:space="preserve"> UI Design(Arbeitspaket # 2)</t>
+    <t xml:space="preserve">Gamelogik: Kombineren von Elementen </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Einführung
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zusatzinfos für Publishing schreiben</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklungs Doku (Realiserungsbericht) </t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Grafiken Erstellen und Einbinden</t>
+  </si>
+  <si>
+    <t>Gamelogik:  Erfolg Liste</t>
+  </si>
+  <si>
+    <t>Gamelogik: Element Liste</t>
+  </si>
+  <si>
+    <t>Gamelogik:  Energieleiste</t>
+  </si>
+  <si>
+    <t>Gamelogik: Splitten von Elementen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daten Grundstruktur </t>
+  </si>
+  <si>
+    <t>UI Grundstruktur</t>
+  </si>
+  <si>
+    <t>Game Grundstruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technologie Auswahl</t>
+  </si>
+  <si>
+    <t>Elemente und Kombinationen definieren</t>
+  </si>
+  <si>
+    <t>Daten Konzept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI Design</t>
   </si>
   <si>
     <r>
@@ -136,92 +161,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Definition Spiellogik </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Arbeitspaket # 1)</t>
+      <t>Definition Spiellogik</t>
     </r>
   </si>
   <si>
-    <t>Dauer in h</t>
+    <t xml:space="preserve">Einführungsbericht </t>
   </si>
   <si>
-    <t>Daten Grundstruktur  (Arbeitspaket # 8)</t>
+    <t>Einführungs Präsentation</t>
   </si>
   <si>
-    <t>Realisierung</t>
+    <t xml:space="preserve">❶ Abschluss Initialisierungsphase </t>
   </si>
   <si>
-    <t>Elemente und Kombinationen definieren  (Arbeitspaket # 4)</t>
+    <t xml:space="preserve">❷ Abgabe Studie </t>
   </si>
   <si>
-    <t xml:space="preserve"> Technologie Auswahl (Arbeitspaket # 5)</t>
+    <t>❸ Abschluss Konzeptphase, Grundarchitektur</t>
   </si>
   <si>
-    <t>Game Grundstruktur (Arbeitspaket # 6)</t>
+    <t xml:space="preserve">❹ Abgabe Konzeptbericht </t>
   </si>
   <si>
-    <t>UI Grundstruktur (Arbeitspaket # 7)</t>
+    <t xml:space="preserve">❺ Erste Funktionierende Version des Spiels </t>
   </si>
   <si>
-    <t>Gamelogik: Kombineren von Elementen (Arbeitspaket # 9)</t>
+    <t xml:space="preserve">❻ Fertigstellung der Grafiken </t>
   </si>
   <si>
-    <t>Gamelogik: Splitten von Elementen (Arbeitspaket # 10)</t>
+    <t xml:space="preserve">❼ Abschluss Realisierungsphase (Spiel fertig) </t>
   </si>
   <si>
-    <t>Gamelogik:  Energieleiste (Arbeitspaket # 11)</t>
+    <t xml:space="preserve">❽ Abgabe Realisierungsbericht </t>
   </si>
   <si>
-    <t>Gamelogik: Element Liste (Arbeitspaket # 12)</t>
+    <t xml:space="preserve">❾ Einführung (Publishing im Store) </t>
   </si>
   <si>
-    <t>Gamelogik:  Erfolg Liste (Arbeitspaket # 13)</t>
+    <t xml:space="preserve">❿ Abgabe Einführungsbericht </t>
   </si>
   <si>
-    <t>Grafiken Erstellen und Einbinden (Arbeitspaket # 14)</t>
-  </si>
-  <si>
-    <t>Testing  (Arbeitspaket # 15)</t>
-  </si>
-  <si>
-    <t>Entwicklungs Doku (Realiserungsbericht)  (Arbeitspaket # 16)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Einführung
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zusatzinfos für Publishing schreiben (Arbeitspaket # 17)</t>
-    </r>
-  </si>
-  <si>
-    <t>Einführungsbericht  (Arbeitspaket # 18)</t>
-  </si>
-  <si>
-    <t>Einführungs Präsentation  (Arbeitspaket # 19)</t>
+    <t>Dauer in Total h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +263,6 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,74 +546,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -727,6 +707,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,16 +726,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -757,10 +740,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,13 +752,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,58 +776,43 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
@@ -877,29 +848,7 @@
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1037,6 +986,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,75 +1281,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT69"/>
+  <dimension ref="A1:BT67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="3.1640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="3.1640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" style="5" customWidth="1"/>
-    <col min="15" max="16" width="3.1640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="3.1640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="5" customWidth="1"/>
-    <col min="19" max="20" width="3.1640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="3.1640625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" style="5" customWidth="1"/>
-    <col min="23" max="24" width="3.1640625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.1640625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" style="5" customWidth="1"/>
-    <col min="27" max="28" width="3.1640625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="3.1640625" style="8" customWidth="1"/>
-    <col min="30" max="30" width="3.1640625" style="5" customWidth="1"/>
-    <col min="31" max="32" width="3.1640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="3.1640625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="3.1640625" style="5" customWidth="1"/>
-    <col min="35" max="36" width="3.1640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="3.1640625" style="8" customWidth="1"/>
-    <col min="38" max="38" width="3.1640625" style="5" customWidth="1"/>
-    <col min="39" max="40" width="3.1640625" style="6" customWidth="1"/>
-    <col min="41" max="41" width="3.1640625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="3.1640625" style="5" customWidth="1"/>
-    <col min="43" max="44" width="3.1640625" style="6" customWidth="1"/>
-    <col min="45" max="45" width="3.1640625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="3.1640625" style="5" customWidth="1"/>
-    <col min="47" max="48" width="3.1640625" style="6" customWidth="1"/>
-    <col min="49" max="49" width="3.1640625" style="8" customWidth="1"/>
-    <col min="50" max="50" width="3.1640625" style="5" customWidth="1"/>
-    <col min="51" max="52" width="3.1640625" style="6" customWidth="1"/>
-    <col min="53" max="53" width="3.1640625" style="8" customWidth="1"/>
-    <col min="54" max="54" width="3.1640625" style="5" customWidth="1"/>
-    <col min="55" max="56" width="3.1640625" style="6" customWidth="1"/>
-    <col min="57" max="57" width="3.1640625" style="8" customWidth="1"/>
-    <col min="58" max="58" width="3.1640625" style="5" customWidth="1"/>
-    <col min="59" max="60" width="3.1640625" style="6" customWidth="1"/>
-    <col min="61" max="61" width="3.1640625" style="8" customWidth="1"/>
-    <col min="62" max="62" width="3.1640625" style="5" customWidth="1"/>
-    <col min="63" max="64" width="3.1640625" style="6" customWidth="1"/>
-    <col min="65" max="65" width="3.1640625" style="8" customWidth="1"/>
-    <col min="66" max="66" width="3.1640625" style="5" customWidth="1"/>
-    <col min="67" max="68" width="3.1640625" style="6" customWidth="1"/>
-    <col min="69" max="69" width="3.1640625" style="8" customWidth="1"/>
-    <col min="70" max="70" width="3.1640625" style="5" customWidth="1"/>
-    <col min="71" max="71" width="2.6640625" customWidth="1"/>
-    <col min="72" max="72" width="2.5" customWidth="1"/>
-    <col min="73" max="73" width="2.1640625" customWidth="1"/>
-    <col min="74" max="74" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="3.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="3.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="5" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="5" customWidth="1"/>
+    <col min="23" max="24" width="3.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.140625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" style="5" customWidth="1"/>
+    <col min="27" max="28" width="3.140625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.140625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="5" customWidth="1"/>
+    <col min="31" max="32" width="3.140625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="3.140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" style="5" customWidth="1"/>
+    <col min="35" max="36" width="3.140625" style="6" customWidth="1"/>
+    <col min="37" max="37" width="3.140625" style="8" customWidth="1"/>
+    <col min="38" max="38" width="3.140625" style="5" customWidth="1"/>
+    <col min="39" max="40" width="3.140625" style="6" customWidth="1"/>
+    <col min="41" max="41" width="3.140625" style="8" customWidth="1"/>
+    <col min="42" max="42" width="3.140625" style="5" customWidth="1"/>
+    <col min="43" max="44" width="3.140625" style="6" customWidth="1"/>
+    <col min="45" max="45" width="3.140625" style="8" customWidth="1"/>
+    <col min="46" max="46" width="3.140625" style="5" customWidth="1"/>
+    <col min="47" max="48" width="3.140625" style="6" customWidth="1"/>
+    <col min="49" max="49" width="3.140625" style="8" customWidth="1"/>
+    <col min="50" max="50" width="3.140625" style="5" customWidth="1"/>
+    <col min="51" max="52" width="3.140625" style="6" customWidth="1"/>
+    <col min="53" max="53" width="3.140625" style="8" customWidth="1"/>
+    <col min="54" max="54" width="3.140625" style="5" customWidth="1"/>
+    <col min="55" max="56" width="3.140625" style="6" customWidth="1"/>
+    <col min="57" max="57" width="3.140625" style="8" customWidth="1"/>
+    <col min="58" max="58" width="3.140625" style="5" customWidth="1"/>
+    <col min="59" max="60" width="3.140625" style="6" customWidth="1"/>
+    <col min="61" max="61" width="3.140625" style="8" customWidth="1"/>
+    <col min="62" max="62" width="3.140625" style="5" customWidth="1"/>
+    <col min="63" max="64" width="3.140625" style="6" customWidth="1"/>
+    <col min="65" max="65" width="3.140625" style="8" customWidth="1"/>
+    <col min="66" max="66" width="3.140625" style="5" customWidth="1"/>
+    <col min="67" max="68" width="3.140625" style="6" customWidth="1"/>
+    <col min="69" max="69" width="3.140625" style="8" customWidth="1"/>
+    <col min="70" max="70" width="3.140625" style="5" customWidth="1"/>
+    <col min="71" max="71" width="2.7109375" customWidth="1"/>
+    <col min="72" max="72" width="2.42578125" customWidth="1"/>
+    <col min="73" max="73" width="2.140625" customWidth="1"/>
+    <col min="74" max="74" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:72" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1406,321 +1358,321 @@
         <v>3</v>
       </c>
       <c r="E1" s="35"/>
-      <c r="F1" s="78">
+      <c r="F1" s="56">
         <v>42031</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="78">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="56">
         <v>42038</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="78">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="56">
         <v>42045</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="78">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="56">
         <v>42052</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="78">
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="56">
         <v>42059</v>
       </c>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="78">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="56">
         <v>42066</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="78">
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="56">
         <v>42073</v>
       </c>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="78">
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="56">
         <v>42080</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="78">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="56">
         <v>42087</v>
       </c>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="78">
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="56">
         <v>42115</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="78">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="56">
         <v>42122</v>
       </c>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="78">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="56">
         <v>42129</v>
       </c>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="78">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="56">
         <v>42136</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="78">
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="56">
         <v>42143</v>
       </c>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="78">
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="56">
         <v>42150</v>
       </c>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="78">
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="56">
         <v>42157</v>
       </c>
-      <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="54"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="58"/>
       <c r="BR1" s="9"/>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:72" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="36"/>
       <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="V2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Z2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AD2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AH2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AL2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AO2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AP2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AS2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AT2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AW2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="AX2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="BA2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="BB2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BE2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BD2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="BF2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BI2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BH2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="BJ2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BM2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="BN2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BQ2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="BR2" s="3"/>
       <c r="BS2" s="4"/>
       <c r="BT2" s="4"/>
     </row>
-    <row r="3" spans="1:72" s="11" customFormat="1">
+    <row r="3" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="69">
+      <c r="B3" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="64">
         <v>4</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1762,11 +1714,11 @@
       <c r="BQ3" s="12"/>
       <c r="BR3" s="10"/>
     </row>
-    <row r="4" spans="1:72" s="16" customFormat="1" ht="19" customHeight="1">
+    <row r="4" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1836,17 +1788,17 @@
       <c r="BQ4" s="15"/>
       <c r="BR4" s="13"/>
     </row>
-    <row r="5" spans="1:72" s="18" customFormat="1">
+    <row r="5" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="61">
+      <c r="B5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="62">
         <v>4</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1863,18 +1815,8 @@
       <c r="U5" s="19">
         <v>1</v>
       </c>
-      <c r="V5" s="17">
-        <v>1</v>
-      </c>
-      <c r="W5" s="18">
-        <v>1</v>
-      </c>
-      <c r="X5" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>1</v>
-      </c>
+      <c r="V5" s="17"/>
+      <c r="Y5" s="19"/>
       <c r="Z5" s="17"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="17"/>
@@ -1899,11 +1841,11 @@
       <c r="BQ5" s="19"/>
       <c r="BR5" s="17"/>
     </row>
-    <row r="6" spans="1:72" s="23" customFormat="1">
+    <row r="6" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="32" t="s">
         <v>2</v>
       </c>
@@ -1973,17 +1915,17 @@
       <c r="BQ6" s="22"/>
       <c r="BR6" s="20"/>
     </row>
-    <row r="7" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>3</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="65">
-        <v>5</v>
-      </c>
-      <c r="D7" s="66"/>
+      <c r="B7" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="66">
+        <v>4</v>
+      </c>
+      <c r="D7" s="67"/>
       <c r="E7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2001,25 +1943,10 @@
       <c r="W7" s="11">
         <v>1</v>
       </c>
-      <c r="X7" s="11">
-        <v>1</v>
-      </c>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>1</v>
-      </c>
+      <c r="Z7" s="10"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="10"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="10"/>
       <c r="AK7" s="12"/>
@@ -2041,10 +1968,10 @@
       <c r="BQ7" s="12"/>
       <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:72" s="16" customFormat="1">
+    <row r="8" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="68"/>
       <c r="E8" s="30" t="s">
         <v>2</v>
@@ -2115,17 +2042,17 @@
       <c r="BQ8" s="15"/>
       <c r="BR8" s="13"/>
     </row>
-    <row r="9" spans="1:72" s="18" customFormat="1">
+    <row r="9" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="61">
-        <v>5</v>
-      </c>
-      <c r="D9" s="59"/>
+      <c r="B9" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="62">
+        <v>6</v>
+      </c>
+      <c r="D9" s="60"/>
       <c r="E9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2138,8 +2065,15 @@
       <c r="R9" s="17"/>
       <c r="U9" s="19"/>
       <c r="V9" s="17"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="17"/>
+      <c r="X9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>1</v>
+      </c>
       <c r="AC9" s="19"/>
       <c r="AD9" s="17"/>
       <c r="AG9" s="19"/>
@@ -2163,11 +2097,11 @@
       <c r="BQ9" s="19"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:72" s="23" customFormat="1">
+    <row r="10" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2237,17 +2171,17 @@
       <c r="BQ10" s="22"/>
       <c r="BR10" s="20"/>
     </row>
-    <row r="11" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="65">
-        <v>2</v>
-      </c>
-      <c r="D11" s="66"/>
+      <c r="B11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="66">
+        <v>1</v>
+      </c>
+      <c r="D11" s="67"/>
       <c r="E11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2260,18 +2194,13 @@
       <c r="R11" s="10"/>
       <c r="U11" s="12"/>
       <c r="V11" s="10"/>
-      <c r="Y11" s="12">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="10"/>
+      <c r="AA11" s="11">
+        <v>1</v>
+      </c>
       <c r="AC11" s="12"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>1</v>
-      </c>
       <c r="AG11" s="12"/>
       <c r="AH11" s="10"/>
       <c r="AK11" s="12"/>
@@ -2293,10 +2222,10 @@
       <c r="BQ11" s="12"/>
       <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:72" s="16" customFormat="1">
+    <row r="12" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="68"/>
       <c r="E12" s="30" t="s">
         <v>2</v>
@@ -2367,17 +2296,17 @@
       <c r="BQ12" s="15"/>
       <c r="BR12" s="13"/>
     </row>
-    <row r="13" spans="1:72" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:72" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>5</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="59">
-        <v>5</v>
-      </c>
-      <c r="D13" s="59"/>
+      <c r="B13" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="60">
+        <v>4</v>
+      </c>
+      <c r="D13" s="60"/>
       <c r="E13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2392,12 +2321,15 @@
       <c r="V13" s="17"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="17"/>
-      <c r="AC13" s="19"/>
+      <c r="AB13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>1</v>
+      </c>
       <c r="AD13" s="17"/>
       <c r="AG13" s="19"/>
-      <c r="AH13" s="17">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="17"/>
       <c r="AK13" s="19"/>
       <c r="AL13" s="17"/>
       <c r="AO13" s="19"/>
@@ -2417,11 +2349,11 @@
       <c r="BQ13" s="19"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:72" s="23" customFormat="1">
+    <row r="14" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2491,17 +2423,17 @@
       <c r="BQ14" s="22"/>
       <c r="BR14" s="20"/>
     </row>
-    <row r="15" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>6</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="69">
-        <v>5</v>
-      </c>
-      <c r="D15" s="69"/>
+      <c r="B15" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="64">
+        <v>3</v>
+      </c>
+      <c r="D15" s="64"/>
       <c r="E15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +2449,12 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="10"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="10"/>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1</v>
+      </c>
       <c r="AG15" s="12"/>
       <c r="AH15" s="10"/>
       <c r="AK15" s="12"/>
@@ -2539,11 +2476,11 @@
       <c r="BQ15" s="12"/>
       <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:72" s="16" customFormat="1">
+    <row r="16" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2613,17 +2550,17 @@
       <c r="BQ16" s="15"/>
       <c r="BR16" s="13"/>
     </row>
-    <row r="17" spans="1:70" s="18" customFormat="1">
+    <row r="17" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>7</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="61">
-        <v>3</v>
-      </c>
-      <c r="D17" s="59"/>
+      <c r="B17" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="62">
+        <v>4</v>
+      </c>
+      <c r="D17" s="60"/>
       <c r="E17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2577,12 @@
       <c r="Z17" s="17"/>
       <c r="AC17" s="19"/>
       <c r="AD17" s="17"/>
-      <c r="AG17" s="19"/>
+      <c r="AF17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="19">
+        <v>1</v>
+      </c>
       <c r="AH17" s="17"/>
       <c r="AK17" s="19"/>
       <c r="AL17" s="17"/>
@@ -2661,11 +2603,11 @@
       <c r="BQ17" s="19"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" s="23" customFormat="1">
+    <row r="18" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2735,17 +2677,17 @@
       <c r="BQ18" s="22"/>
       <c r="BR18" s="20"/>
     </row>
-    <row r="19" spans="1:70" s="11" customFormat="1">
+    <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="69">
-        <v>7</v>
-      </c>
-      <c r="D19" s="69"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="64">
+        <v>8</v>
+      </c>
+      <c r="D19" s="64"/>
       <c r="E19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2763,8 +2705,18 @@
       <c r="AC19" s="12"/>
       <c r="AD19" s="10"/>
       <c r="AG19" s="12"/>
-      <c r="AH19" s="10"/>
-      <c r="AK19" s="12"/>
+      <c r="AH19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>1</v>
+      </c>
       <c r="AL19" s="10"/>
       <c r="AO19" s="12"/>
       <c r="AP19" s="10"/>
@@ -2783,13 +2735,13 @@
       <c r="BQ19" s="12"/>
       <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="1:70" s="16" customFormat="1" ht="28">
+    <row r="20" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+        <v>22</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2859,17 +2811,17 @@
       <c r="BQ20" s="15"/>
       <c r="BR20" s="13"/>
     </row>
-    <row r="21" spans="1:70" s="18" customFormat="1">
+    <row r="21" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>7</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="61">
-        <v>5</v>
-      </c>
-      <c r="D21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="62">
+        <v>4</v>
+      </c>
+      <c r="D21" s="60"/>
       <c r="E21" s="31" t="s">
         <v>1</v>
       </c>
@@ -2889,7 +2841,12 @@
       <c r="AG21" s="19"/>
       <c r="AH21" s="17"/>
       <c r="AK21" s="19"/>
-      <c r="AL21" s="17"/>
+      <c r="AL21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="18">
+        <v>1</v>
+      </c>
       <c r="AO21" s="19"/>
       <c r="AP21" s="17"/>
       <c r="AS21" s="19"/>
@@ -2907,11 +2864,11 @@
       <c r="BQ21" s="19"/>
       <c r="BR21" s="17"/>
     </row>
-    <row r="22" spans="1:70" s="23" customFormat="1">
+    <row r="22" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="32" t="s">
         <v>2</v>
       </c>
@@ -2981,17 +2938,17 @@
       <c r="BQ22" s="22"/>
       <c r="BR22" s="20"/>
     </row>
-    <row r="23" spans="1:70" s="11" customFormat="1">
+    <row r="23" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>8</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="69">
-        <v>5</v>
-      </c>
-      <c r="D23" s="69"/>
+      <c r="B23" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="64">
+        <v>4</v>
+      </c>
+      <c r="D23" s="64"/>
       <c r="E23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3012,7 +2969,12 @@
       <c r="AH23" s="10"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="10"/>
-      <c r="AO23" s="12"/>
+      <c r="AN23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>1</v>
+      </c>
       <c r="AP23" s="10"/>
       <c r="AS23" s="12"/>
       <c r="AT23" s="10"/>
@@ -3029,11 +2991,11 @@
       <c r="BQ23" s="12"/>
       <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="1:70" s="16" customFormat="1">
+    <row r="24" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3103,17 +3065,17 @@
       <c r="BQ24" s="15"/>
       <c r="BR24" s="13"/>
     </row>
-    <row r="25" spans="1:70" s="18" customFormat="1">
+    <row r="25" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>7</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="61">
+      <c r="B25" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="62">
         <v>4</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3097,12 @@
       <c r="AK25" s="19"/>
       <c r="AL25" s="17"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="17"/>
+      <c r="AP25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="18">
+        <v>1</v>
+      </c>
       <c r="AS25" s="19"/>
       <c r="AT25" s="17"/>
       <c r="AW25" s="19"/>
@@ -3151,11 +3118,11 @@
       <c r="BQ25" s="19"/>
       <c r="BR25" s="17"/>
     </row>
-    <row r="26" spans="1:70" s="23" customFormat="1">
+    <row r="26" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3225,17 +3192,17 @@
       <c r="BQ26" s="22"/>
       <c r="BR26" s="20"/>
     </row>
-    <row r="27" spans="1:70" s="11" customFormat="1">
+    <row r="27" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>8</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="69">
-        <v>3</v>
-      </c>
-      <c r="D27" s="69"/>
+      <c r="B27" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="64">
+        <v>4</v>
+      </c>
+      <c r="D27" s="64"/>
       <c r="E27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3258,7 +3225,12 @@
       <c r="AL27" s="10"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="10"/>
-      <c r="AS27" s="12"/>
+      <c r="AR27" s="11">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>1</v>
+      </c>
       <c r="AT27" s="10"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="10"/>
@@ -3273,11 +3245,11 @@
       <c r="BQ27" s="12"/>
       <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="1:70" s="16" customFormat="1">
+    <row r="28" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3347,17 +3319,17 @@
       <c r="BQ28" s="15"/>
       <c r="BR28" s="13"/>
     </row>
-    <row r="29" spans="1:70" s="18" customFormat="1">
+    <row r="29" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>9</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="59">
+      <c r="B29" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="60">
         <v>12</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3375,12 +3347,42 @@
       <c r="AC29" s="19"/>
       <c r="AD29" s="17"/>
       <c r="AG29" s="19"/>
-      <c r="AH29" s="17"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="17"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="17"/>
-      <c r="AS29" s="19"/>
+      <c r="AH29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="19">
+        <v>1</v>
+      </c>
       <c r="AT29" s="17"/>
       <c r="AW29" s="19"/>
       <c r="AX29" s="17"/>
@@ -3395,11 +3397,11 @@
       <c r="BQ29" s="19"/>
       <c r="BR29" s="17"/>
     </row>
-    <row r="30" spans="1:70" s="23" customFormat="1">
+    <row r="30" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3469,17 +3471,17 @@
       <c r="BQ30" s="22"/>
       <c r="BR30" s="20"/>
     </row>
-    <row r="31" spans="1:70" s="11" customFormat="1">
+    <row r="31" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>10</v>
       </c>
-      <c r="B31" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="69">
+      <c r="B31" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="64">
         <v>8</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3503,8 +3505,18 @@
       <c r="AO31" s="12"/>
       <c r="AP31" s="10"/>
       <c r="AS31" s="12"/>
-      <c r="AT31" s="10"/>
-      <c r="AW31" s="12"/>
+      <c r="AT31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="12">
+        <v>1</v>
+      </c>
       <c r="AX31" s="10"/>
       <c r="BA31" s="12"/>
       <c r="BB31" s="10"/>
@@ -3517,11 +3529,11 @@
       <c r="BQ31" s="12"/>
       <c r="BR31" s="10"/>
     </row>
-    <row r="32" spans="1:70" s="16" customFormat="1">
+    <row r="32" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3591,17 +3603,17 @@
       <c r="BQ32" s="15"/>
       <c r="BR32" s="13"/>
     </row>
-    <row r="33" spans="1:70" s="18" customFormat="1">
+    <row r="33" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>11</v>
       </c>
-      <c r="B33" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="59">
-        <v>6</v>
-      </c>
-      <c r="D33" s="59"/>
+      <c r="B33" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="60">
+        <v>8</v>
+      </c>
+      <c r="D33" s="60"/>
       <c r="E33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3619,16 +3631,66 @@
       <c r="AC33" s="19"/>
       <c r="AD33" s="17"/>
       <c r="AG33" s="19"/>
-      <c r="AH33" s="17"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="17"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="17"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="17"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="17"/>
-      <c r="BA33" s="19"/>
+      <c r="AH33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="18">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="19">
+        <v>1</v>
+      </c>
       <c r="BB33" s="17"/>
       <c r="BE33" s="19"/>
       <c r="BF33" s="17"/>
@@ -3639,11 +3701,11 @@
       <c r="BQ33" s="19"/>
       <c r="BR33" s="17"/>
     </row>
-    <row r="34" spans="1:70" s="23" customFormat="1">
+    <row r="34" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3713,17 +3775,17 @@
       <c r="BQ34" s="22"/>
       <c r="BR34" s="20"/>
     </row>
-    <row r="35" spans="1:70" s="11" customFormat="1" ht="14" customHeight="1">
+    <row r="35" spans="1:70" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>12</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="69">
+      <c r="B35" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="64">
         <v>2</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="29" t="s">
         <v>1</v>
       </c>
@@ -3751,7 +3813,9 @@
       <c r="AW35" s="12"/>
       <c r="AX35" s="10"/>
       <c r="BA35" s="12"/>
-      <c r="BB35" s="10"/>
+      <c r="BB35" s="10">
+        <v>1</v>
+      </c>
       <c r="BE35" s="12"/>
       <c r="BF35" s="10"/>
       <c r="BI35" s="12"/>
@@ -3761,11 +3825,11 @@
       <c r="BQ35" s="12"/>
       <c r="BR35" s="10"/>
     </row>
-    <row r="36" spans="1:70" s="16" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="30" t="s">
         <v>2</v>
       </c>
@@ -3835,17 +3899,17 @@
       <c r="BQ36" s="15"/>
       <c r="BR36" s="13"/>
     </row>
-    <row r="37" spans="1:70" s="18" customFormat="1">
+    <row r="37" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>13</v>
       </c>
-      <c r="B37" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="59">
+      <c r="B37" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="60">
         <v>6</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="31" t="s">
         <v>1</v>
       </c>
@@ -3874,8 +3938,21 @@
       <c r="AX37" s="17"/>
       <c r="BA37" s="19"/>
       <c r="BB37" s="17"/>
-      <c r="BE37" s="19"/>
-      <c r="BF37" s="17"/>
+      <c r="BC37" s="18">
+        <v>1</v>
+      </c>
+      <c r="BD37" s="18">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="19">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="17">
+        <v>1</v>
+      </c>
+      <c r="BG37" s="18">
+        <v>1</v>
+      </c>
       <c r="BI37" s="19"/>
       <c r="BJ37" s="17"/>
       <c r="BM37" s="19"/>
@@ -3883,11 +3960,11 @@
       <c r="BQ37" s="19"/>
       <c r="BR37" s="17"/>
     </row>
-    <row r="38" spans="1:70" s="23" customFormat="1">
+    <row r="38" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="32" t="s">
         <v>2</v>
       </c>
@@ -3957,17 +4034,17 @@
       <c r="BQ38" s="22"/>
       <c r="BR38" s="20"/>
     </row>
-    <row r="39" spans="1:70" s="11" customFormat="1">
+    <row r="39" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>14</v>
       </c>
-      <c r="B39" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="69">
+      <c r="B39" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="64">
         <v>4</v>
       </c>
-      <c r="D39" s="69"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="29" t="s">
         <v>1</v>
       </c>
@@ -3998,18 +4075,28 @@
       <c r="BB39" s="10"/>
       <c r="BE39" s="12"/>
       <c r="BF39" s="10"/>
-      <c r="BI39" s="12"/>
-      <c r="BJ39" s="10"/>
+      <c r="BH39" s="11">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="12">
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK39" s="11">
+        <v>1</v>
+      </c>
       <c r="BM39" s="12"/>
       <c r="BN39" s="10"/>
       <c r="BQ39" s="12"/>
       <c r="BR39" s="10"/>
     </row>
-    <row r="40" spans="1:70" s="16" customFormat="1">
+    <row r="40" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4079,13 +4166,13 @@
       <c r="BQ40" s="15"/>
       <c r="BR40" s="13"/>
     </row>
-    <row r="41" spans="1:70" s="18" customFormat="1">
+    <row r="41" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>15</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4123,11 +4210,11 @@
       <c r="BQ41" s="19"/>
       <c r="BR41" s="17"/>
     </row>
-    <row r="42" spans="1:70" s="23" customFormat="1">
+    <row r="42" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4197,13 +4284,13 @@
       <c r="BQ42" s="22"/>
       <c r="BR42" s="20"/>
     </row>
-    <row r="43" spans="1:70" s="11" customFormat="1">
+    <row r="43" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55">
         <v>16</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="51"/>
-      <c r="D43" s="74"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="29" t="s">
         <v>1</v>
       </c>
@@ -4241,11 +4328,11 @@
       <c r="BQ43" s="12"/>
       <c r="BR43" s="10"/>
     </row>
-    <row r="44" spans="1:70" s="16" customFormat="1">
+    <row r="44" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="75"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="30" t="s">
         <v>2</v>
       </c>
@@ -4315,1637 +4402,1351 @@
       <c r="BQ44" s="15"/>
       <c r="BR44" s="13"/>
     </row>
-    <row r="45" spans="1:70" s="18" customFormat="1">
+    <row r="45" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55">
+        <v>18</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH45" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="41"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT45" s="41"/>
+      <c r="AU45" s="42"/>
+      <c r="AV45" s="42"/>
+      <c r="AW45" s="42"/>
+      <c r="AX45" s="41"/>
+      <c r="AY45" s="42"/>
+      <c r="AZ45" s="42"/>
+      <c r="BA45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="17">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1</v>
-      </c>
-      <c r="I45" s="18">
-        <v>1</v>
-      </c>
-      <c r="J45" s="18">
-        <v>1</v>
-      </c>
-      <c r="K45" s="18">
-        <v>1</v>
-      </c>
-      <c r="L45" s="18">
-        <v>1</v>
-      </c>
-      <c r="M45" s="18">
-        <v>1</v>
-      </c>
-      <c r="N45" s="18">
-        <v>1</v>
-      </c>
-      <c r="O45" s="18">
-        <v>1</v>
-      </c>
-      <c r="P45" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="18">
-        <v>1</v>
-      </c>
-      <c r="R45" s="18">
-        <v>1</v>
-      </c>
-      <c r="S45" s="18">
-        <v>1</v>
-      </c>
-      <c r="T45" s="18">
-        <v>1</v>
-      </c>
-      <c r="U45" s="18">
-        <v>1</v>
-      </c>
-      <c r="V45" s="18">
-        <v>1</v>
-      </c>
-      <c r="W45" s="18">
-        <v>1</v>
-      </c>
-      <c r="X45" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AL45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AM45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AN45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AO45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AP45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AS45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AT45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AV45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AX45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AY45" s="18">
-        <v>1</v>
-      </c>
-      <c r="AZ45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BA45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BB45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BC45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BD45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BE45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BF45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BG45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BH45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BI45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BJ45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BK45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BL45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BM45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BN45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BO45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BP45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BQ45" s="18">
-        <v>1</v>
-      </c>
-      <c r="BR45" s="17"/>
-    </row>
-    <row r="46" spans="1:70" s="23" customFormat="1">
+      <c r="BB45" s="42"/>
+      <c r="BC45" s="42"/>
+      <c r="BD45" s="42"/>
+      <c r="BE45" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF45" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG45" s="42"/>
+      <c r="BH45" s="42"/>
+      <c r="BI45" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ45" s="41"/>
+      <c r="BK45" s="42"/>
+      <c r="BL45" s="42"/>
+      <c r="BM45" s="43"/>
+      <c r="BN45" s="41"/>
+      <c r="BO45" s="42"/>
+      <c r="BP45" s="42"/>
+      <c r="BQ45" s="43"/>
+      <c r="BR45" s="10"/>
+    </row>
+    <row r="46" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="22"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="22"/>
-      <c r="AT46" s="20"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="22"/>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="22"/>
-      <c r="BB46" s="20"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="22"/>
-      <c r="BF46" s="20"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="22"/>
-      <c r="BJ46" s="20"/>
-      <c r="BK46" s="21"/>
-      <c r="BL46" s="21"/>
-      <c r="BM46" s="22"/>
-      <c r="BN46" s="20"/>
-      <c r="BO46" s="21"/>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="22"/>
-      <c r="BR46" s="20"/>
-    </row>
-    <row r="47" spans="1:70" s="11" customFormat="1">
+      <c r="B46" s="73"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="45"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="46"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="45"/>
+      <c r="AQ46" s="46"/>
+      <c r="AR46" s="46"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="45"/>
+      <c r="AU46" s="46"/>
+      <c r="AV46" s="46"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="45"/>
+      <c r="AY46" s="46"/>
+      <c r="AZ46" s="46"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="45"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
+      <c r="BE46" s="47"/>
+      <c r="BF46" s="45"/>
+      <c r="BG46" s="46"/>
+      <c r="BH46" s="46"/>
+      <c r="BI46" s="47"/>
+      <c r="BJ46" s="45"/>
+      <c r="BK46" s="46"/>
+      <c r="BL46" s="46"/>
+      <c r="BM46" s="47"/>
+      <c r="BN46" s="45"/>
+      <c r="BO46" s="46"/>
+      <c r="BP46" s="46"/>
+      <c r="BQ46" s="47"/>
+      <c r="BR46" s="13"/>
+    </row>
+    <row r="47" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55">
-        <v>18</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH47" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="43"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="17"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="17"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="17"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="17"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="17"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="17"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="17"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="17"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="17"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="17"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="17"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="17"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="17"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="17"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="17"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="17"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="17"/>
+    </row>
+    <row r="48" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="21"/>
+      <c r="AW48" s="22"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="21"/>
+      <c r="AZ48" s="21"/>
+      <c r="BA48" s="22"/>
+      <c r="BB48" s="20"/>
+      <c r="BC48" s="21"/>
+      <c r="BD48" s="21"/>
+      <c r="BE48" s="22"/>
+      <c r="BF48" s="20"/>
+      <c r="BG48" s="21"/>
+      <c r="BH48" s="21"/>
+      <c r="BI48" s="22"/>
+      <c r="BJ48" s="20"/>
+      <c r="BK48" s="21"/>
+      <c r="BL48" s="21"/>
+      <c r="BM48" s="22"/>
+      <c r="BN48" s="20"/>
+      <c r="BO48" s="21"/>
+      <c r="BP48" s="21"/>
+      <c r="BQ48" s="22"/>
+      <c r="BR48" s="20"/>
+    </row>
+    <row r="49" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55">
+        <v>20</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="10"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="10"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="10"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="10"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="10"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="10"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="10"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="10"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="10"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="10"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="10"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="10"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="10"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="10"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="10"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="10"/>
+      <c r="BQ49" s="12"/>
+      <c r="BR49" s="10"/>
+    </row>
+    <row r="50" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="13"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="13"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="13"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="13"/>
+      <c r="BG50" s="14"/>
+      <c r="BH50" s="14"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="13"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="13"/>
+      <c r="BO50" s="14"/>
+      <c r="BP50" s="14"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="13"/>
+    </row>
+    <row r="51" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
+        <v>21</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="17"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="17"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="17"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="17"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="17"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="17"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="17"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="17"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="17"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="17"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="17"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="17"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="17"/>
+      <c r="BE51" s="19"/>
+      <c r="BF51" s="17"/>
+      <c r="BI51" s="19"/>
+      <c r="BJ51" s="17"/>
+      <c r="BM51" s="19"/>
+      <c r="BN51" s="17"/>
+      <c r="BQ51" s="19"/>
+      <c r="BR51" s="17"/>
+    </row>
+    <row r="52" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="21"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="22"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="22"/>
+      <c r="AT52" s="20"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="22"/>
+      <c r="AX52" s="20"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="22"/>
+      <c r="BB52" s="20"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="21"/>
+      <c r="BE52" s="22"/>
+      <c r="BF52" s="20"/>
+      <c r="BG52" s="21"/>
+      <c r="BH52" s="21"/>
+      <c r="BI52" s="22"/>
+      <c r="BJ52" s="20"/>
+      <c r="BK52" s="21"/>
+      <c r="BL52" s="21"/>
+      <c r="BM52" s="22"/>
+      <c r="BN52" s="20"/>
+      <c r="BO52" s="21"/>
+      <c r="BP52" s="21"/>
+      <c r="BQ52" s="22"/>
+      <c r="BR52" s="20"/>
+    </row>
+    <row r="53" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55">
+        <v>22</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="10"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="10"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="10"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="10"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="10"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="10"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="10"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="10"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="10"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="10"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="10"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="10"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="10"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="10"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="10"/>
+      <c r="BM53" s="12"/>
+      <c r="BN53" s="10"/>
+      <c r="BQ53" s="12"/>
+      <c r="BR53" s="10"/>
+    </row>
+    <row r="54" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="13"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="13"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="13"/>
+      <c r="BC54" s="14"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="13"/>
+      <c r="BG54" s="14"/>
+      <c r="BH54" s="14"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="13"/>
+      <c r="BK54" s="14"/>
+      <c r="BL54" s="14"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="13"/>
+      <c r="BO54" s="14"/>
+      <c r="BP54" s="14"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="13"/>
+    </row>
+    <row r="55" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55">
+        <v>23</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="17"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="17"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="17"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="17"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="17"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="17"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="17"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="17"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="17"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="17"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="17"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="17"/>
+      <c r="BA55" s="19"/>
+      <c r="BB55" s="17"/>
+      <c r="BE55" s="19"/>
+      <c r="BF55" s="17"/>
+      <c r="BI55" s="19"/>
+      <c r="BJ55" s="17"/>
+      <c r="BM55" s="19"/>
+      <c r="BN55" s="17"/>
+      <c r="BQ55" s="19"/>
+      <c r="BR55" s="17"/>
+    </row>
+    <row r="56" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="21"/>
+      <c r="AR56" s="21"/>
+      <c r="AS56" s="22"/>
+      <c r="AT56" s="20"/>
+      <c r="AU56" s="21"/>
+      <c r="AV56" s="21"/>
+      <c r="AW56" s="22"/>
+      <c r="AX56" s="20"/>
+      <c r="AY56" s="21"/>
+      <c r="AZ56" s="21"/>
+      <c r="BA56" s="22"/>
+      <c r="BB56" s="20"/>
+      <c r="BC56" s="21"/>
+      <c r="BD56" s="21"/>
+      <c r="BE56" s="22"/>
+      <c r="BF56" s="20"/>
+      <c r="BG56" s="21"/>
+      <c r="BH56" s="21"/>
+      <c r="BI56" s="22"/>
+      <c r="BJ56" s="20"/>
+      <c r="BK56" s="21"/>
+      <c r="BL56" s="21"/>
+      <c r="BM56" s="22"/>
+      <c r="BN56" s="20"/>
+      <c r="BO56" s="21"/>
+      <c r="BP56" s="21"/>
+      <c r="BQ56" s="22"/>
+      <c r="BR56" s="20"/>
+    </row>
+    <row r="57" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55">
+        <v>24</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="10"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="10"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="10"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="10"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="10"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="10"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="10"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="10"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="10"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="10"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="10"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="10"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="10"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="10"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="10"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="10"/>
+      <c r="BQ57" s="12"/>
+      <c r="BR57" s="10"/>
+    </row>
+    <row r="58" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="15"/>
+      <c r="AH58" s="13"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+      <c r="AK58" s="15"/>
+      <c r="AL58" s="13"/>
+      <c r="AM58" s="14"/>
+      <c r="AN58" s="14"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="13"/>
+      <c r="AQ58" s="14"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="15"/>
+      <c r="AT58" s="13"/>
+      <c r="AU58" s="14"/>
+      <c r="AV58" s="14"/>
+      <c r="AW58" s="15"/>
+      <c r="AX58" s="13"/>
+      <c r="AY58" s="14"/>
+      <c r="AZ58" s="14"/>
+      <c r="BA58" s="15"/>
+      <c r="BB58" s="13"/>
+      <c r="BC58" s="14"/>
+      <c r="BD58" s="14"/>
+      <c r="BE58" s="15"/>
+      <c r="BF58" s="13"/>
+      <c r="BG58" s="14"/>
+      <c r="BH58" s="14"/>
+      <c r="BI58" s="15"/>
+      <c r="BJ58" s="13"/>
+      <c r="BK58" s="14"/>
+      <c r="BL58" s="14"/>
+      <c r="BM58" s="15"/>
+      <c r="BN58" s="13"/>
+      <c r="BO58" s="14"/>
+      <c r="BP58" s="14"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="13"/>
+    </row>
+    <row r="59" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55">
+        <v>25</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="17"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="17"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="17"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="17"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="17"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="17"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="17"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="17"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="17"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="17"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="17"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="17"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="17"/>
+      <c r="BE59" s="19"/>
+      <c r="BF59" s="17"/>
+      <c r="BI59" s="19"/>
+      <c r="BJ59" s="17"/>
+      <c r="BM59" s="19"/>
+      <c r="BN59" s="17"/>
+      <c r="BQ59" s="19"/>
+      <c r="BR59" s="17"/>
+    </row>
+    <row r="60" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="21"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="20"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="20"/>
+      <c r="AQ60" s="21"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="22"/>
+      <c r="AT60" s="20"/>
+      <c r="AU60" s="21"/>
+      <c r="AV60" s="21"/>
+      <c r="AW60" s="22"/>
+      <c r="AX60" s="20"/>
+      <c r="AY60" s="21"/>
+      <c r="AZ60" s="21"/>
+      <c r="BA60" s="22"/>
+      <c r="BB60" s="20"/>
+      <c r="BC60" s="21"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="22"/>
+      <c r="BF60" s="20"/>
+      <c r="BG60" s="21"/>
+      <c r="BH60" s="21"/>
+      <c r="BI60" s="22"/>
+      <c r="BJ60" s="20"/>
+      <c r="BK60" s="21"/>
+      <c r="BL60" s="21"/>
+      <c r="BM60" s="22"/>
+      <c r="BN60" s="20"/>
+      <c r="BO60" s="21"/>
+      <c r="BP60" s="21"/>
+      <c r="BQ60" s="22"/>
+      <c r="BR60" s="20"/>
+    </row>
+    <row r="61" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
         <v>26</v>
       </c>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="43" t="s">
+      <c r="B61" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="10"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="10"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="10"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="10"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="10"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="10"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="10"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="10"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="10"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="10"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="10"/>
+      <c r="AW61" s="12"/>
+      <c r="AX61" s="10"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="10"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="10"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="10"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="10"/>
+      <c r="BQ61" s="12"/>
+      <c r="BR61" s="10"/>
+    </row>
+    <row r="62" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="15"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="14"/>
+      <c r="AO62" s="15"/>
+      <c r="AP62" s="13"/>
+      <c r="AQ62" s="14"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="15"/>
+      <c r="AT62" s="13"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="15"/>
+      <c r="AX62" s="13"/>
+      <c r="AY62" s="14"/>
+      <c r="AZ62" s="14"/>
+      <c r="BA62" s="15"/>
+      <c r="BB62" s="13"/>
+      <c r="BC62" s="14"/>
+      <c r="BD62" s="14"/>
+      <c r="BE62" s="15"/>
+      <c r="BF62" s="13"/>
+      <c r="BG62" s="14"/>
+      <c r="BH62" s="14"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="13"/>
+      <c r="BK62" s="14"/>
+      <c r="BL62" s="14"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="13"/>
+      <c r="BO62" s="14"/>
+      <c r="BP62" s="14"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="13"/>
+    </row>
+    <row r="63" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55">
         <v>27</v>
       </c>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="43"/>
-      <c r="BB47" s="41" t="s">
+      <c r="B63" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="17"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="17"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="17"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="17"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="17"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="17"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="17"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="17"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="17"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="17"/>
+      <c r="AS63" s="19"/>
+      <c r="AT63" s="17"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="17"/>
+      <c r="BA63" s="19"/>
+      <c r="BB63" s="17"/>
+      <c r="BE63" s="19"/>
+      <c r="BF63" s="17"/>
+      <c r="BI63" s="19"/>
+      <c r="BJ63" s="17"/>
+      <c r="BM63" s="19"/>
+      <c r="BN63" s="17"/>
+      <c r="BQ63" s="19"/>
+      <c r="BR63" s="17"/>
+    </row>
+    <row r="64" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="22"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="22"/>
+      <c r="AL64" s="20"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="20"/>
+      <c r="AQ64" s="21"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="22"/>
+      <c r="AT64" s="20"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="22"/>
+      <c r="AX64" s="20"/>
+      <c r="AY64" s="21"/>
+      <c r="AZ64" s="21"/>
+      <c r="BA64" s="22"/>
+      <c r="BB64" s="20"/>
+      <c r="BC64" s="21"/>
+      <c r="BD64" s="21"/>
+      <c r="BE64" s="22"/>
+      <c r="BF64" s="20"/>
+      <c r="BG64" s="21"/>
+      <c r="BH64" s="21"/>
+      <c r="BI64" s="22"/>
+      <c r="BJ64" s="20"/>
+      <c r="BK64" s="21"/>
+      <c r="BL64" s="21"/>
+      <c r="BM64" s="22"/>
+      <c r="BN64" s="20"/>
+      <c r="BO64" s="21"/>
+      <c r="BP64" s="21"/>
+      <c r="BQ64" s="22"/>
+      <c r="BR64" s="20"/>
+    </row>
+    <row r="65" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55">
         <v>28</v>
       </c>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF47" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ47" s="41"/>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
-      <c r="BM47" s="43"/>
-      <c r="BN47" s="41"/>
-      <c r="BO47" s="42"/>
-      <c r="BP47" s="42"/>
-      <c r="BQ47" s="43"/>
-      <c r="BR47" s="10"/>
-    </row>
-    <row r="48" spans="1:70" s="16" customFormat="1">
-      <c r="A48" s="55"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="45"/>
-      <c r="AQ48" s="46"/>
-      <c r="AR48" s="46"/>
-      <c r="AS48" s="47"/>
-      <c r="AT48" s="45"/>
-      <c r="AU48" s="46"/>
-      <c r="AV48" s="46"/>
-      <c r="AW48" s="47"/>
-      <c r="AX48" s="45"/>
-      <c r="AY48" s="46"/>
-      <c r="AZ48" s="46"/>
-      <c r="BA48" s="47"/>
-      <c r="BB48" s="45"/>
-      <c r="BC48" s="46"/>
-      <c r="BD48" s="46"/>
-      <c r="BE48" s="47"/>
-      <c r="BF48" s="45"/>
-      <c r="BG48" s="46"/>
-      <c r="BH48" s="46"/>
-      <c r="BI48" s="47"/>
-      <c r="BJ48" s="45"/>
-      <c r="BK48" s="46"/>
-      <c r="BL48" s="46"/>
-      <c r="BM48" s="47"/>
-      <c r="BN48" s="45"/>
-      <c r="BO48" s="46"/>
-      <c r="BP48" s="46"/>
-      <c r="BQ48" s="47"/>
-      <c r="BR48" s="13"/>
-    </row>
-    <row r="49" spans="1:70" s="18" customFormat="1">
-      <c r="A49" s="55">
-        <v>19</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="17"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="17"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="17"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="17"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="17"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="17"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="17"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="17"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="17"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="17"/>
-      <c r="AS49" s="19"/>
-      <c r="AT49" s="17"/>
-      <c r="AW49" s="19"/>
-      <c r="AX49" s="17"/>
-      <c r="BA49" s="19"/>
-      <c r="BB49" s="17"/>
-      <c r="BE49" s="19"/>
-      <c r="BF49" s="17"/>
-      <c r="BI49" s="19"/>
-      <c r="BJ49" s="17"/>
-      <c r="BM49" s="19"/>
-      <c r="BN49" s="17"/>
-      <c r="BQ49" s="19"/>
-      <c r="BR49" s="17"/>
-    </row>
-    <row r="50" spans="1:70" s="23" customFormat="1">
-      <c r="A50" s="55"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="22"/>
-      <c r="AT50" s="20"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="22"/>
-      <c r="AX50" s="20"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="21"/>
-      <c r="BA50" s="22"/>
-      <c r="BB50" s="20"/>
-      <c r="BC50" s="21"/>
-      <c r="BD50" s="21"/>
-      <c r="BE50" s="22"/>
-      <c r="BF50" s="20"/>
-      <c r="BG50" s="21"/>
-      <c r="BH50" s="21"/>
-      <c r="BI50" s="22"/>
-      <c r="BJ50" s="20"/>
-      <c r="BK50" s="21"/>
-      <c r="BL50" s="21"/>
-      <c r="BM50" s="22"/>
-      <c r="BN50" s="20"/>
-      <c r="BO50" s="21"/>
-      <c r="BP50" s="21"/>
-      <c r="BQ50" s="22"/>
-      <c r="BR50" s="20"/>
-    </row>
-    <row r="51" spans="1:70" s="11" customFormat="1">
-      <c r="A51" s="55">
-        <v>20</v>
-      </c>
-      <c r="B51" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="10"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="10"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="10"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="10"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="10"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="10"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="10"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="10"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="10"/>
-      <c r="AO51" s="12"/>
-      <c r="AP51" s="10"/>
-      <c r="AS51" s="12"/>
-      <c r="AT51" s="10"/>
-      <c r="AW51" s="12"/>
-      <c r="AX51" s="10"/>
-      <c r="BA51" s="12"/>
-      <c r="BB51" s="10"/>
-      <c r="BE51" s="12"/>
-      <c r="BF51" s="10"/>
-      <c r="BI51" s="12"/>
-      <c r="BJ51" s="10"/>
-      <c r="BM51" s="12"/>
-      <c r="BN51" s="10"/>
-      <c r="BQ51" s="12"/>
-      <c r="BR51" s="10"/>
-    </row>
-    <row r="52" spans="1:70" s="16" customFormat="1">
-      <c r="A52" s="55"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="15"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="14"/>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="15"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="14"/>
-      <c r="AJ52" s="14"/>
-      <c r="AK52" s="15"/>
-      <c r="AL52" s="13"/>
-      <c r="AM52" s="14"/>
-      <c r="AN52" s="14"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="13"/>
-      <c r="AQ52" s="14"/>
-      <c r="AR52" s="14"/>
-      <c r="AS52" s="15"/>
-      <c r="AT52" s="13"/>
-      <c r="AU52" s="14"/>
-      <c r="AV52" s="14"/>
-      <c r="AW52" s="15"/>
-      <c r="AX52" s="13"/>
-      <c r="AY52" s="14"/>
-      <c r="AZ52" s="14"/>
-      <c r="BA52" s="15"/>
-      <c r="BB52" s="13"/>
-      <c r="BC52" s="14"/>
-      <c r="BD52" s="14"/>
-      <c r="BE52" s="15"/>
-      <c r="BF52" s="13"/>
-      <c r="BG52" s="14"/>
-      <c r="BH52" s="14"/>
-      <c r="BI52" s="15"/>
-      <c r="BJ52" s="13"/>
-      <c r="BK52" s="14"/>
-      <c r="BL52" s="14"/>
-      <c r="BM52" s="15"/>
-      <c r="BN52" s="13"/>
-      <c r="BO52" s="14"/>
-      <c r="BP52" s="14"/>
-      <c r="BQ52" s="15"/>
-      <c r="BR52" s="13"/>
-    </row>
-    <row r="53" spans="1:70" s="18" customFormat="1">
-      <c r="A53" s="55">
-        <v>21</v>
-      </c>
-      <c r="B53" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="17"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="17"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="17"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="17"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="17"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="17"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="17"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="17"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="17"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="17"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="17"/>
-      <c r="AW53" s="19"/>
-      <c r="AX53" s="17"/>
-      <c r="BA53" s="19"/>
-      <c r="BB53" s="17"/>
-      <c r="BE53" s="19"/>
-      <c r="BF53" s="17"/>
-      <c r="BI53" s="19"/>
-      <c r="BJ53" s="17"/>
-      <c r="BM53" s="19"/>
-      <c r="BN53" s="17"/>
-      <c r="BQ53" s="19"/>
-      <c r="BR53" s="17"/>
-    </row>
-    <row r="54" spans="1:70" s="23" customFormat="1">
-      <c r="A54" s="55"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="22"/>
-      <c r="AT54" s="20"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="22"/>
-      <c r="AX54" s="20"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="22"/>
-      <c r="BB54" s="20"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="22"/>
-      <c r="BF54" s="20"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="21"/>
-      <c r="BI54" s="22"/>
-      <c r="BJ54" s="20"/>
-      <c r="BK54" s="21"/>
-      <c r="BL54" s="21"/>
-      <c r="BM54" s="22"/>
-      <c r="BN54" s="20"/>
-      <c r="BO54" s="21"/>
-      <c r="BP54" s="21"/>
-      <c r="BQ54" s="22"/>
-      <c r="BR54" s="20"/>
-    </row>
-    <row r="55" spans="1:70" s="11" customFormat="1">
-      <c r="A55" s="55">
-        <v>22</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="10"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="10"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="10"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="10"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="10"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="10"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="10"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="10"/>
-      <c r="AK55" s="12"/>
-      <c r="AL55" s="10"/>
-      <c r="AO55" s="12"/>
-      <c r="AP55" s="10"/>
-      <c r="AS55" s="12"/>
-      <c r="AT55" s="10"/>
-      <c r="AW55" s="12"/>
-      <c r="AX55" s="10"/>
-      <c r="BA55" s="12"/>
-      <c r="BB55" s="10"/>
-      <c r="BE55" s="12"/>
-      <c r="BF55" s="10"/>
-      <c r="BI55" s="12"/>
-      <c r="BJ55" s="10"/>
-      <c r="BM55" s="12"/>
-      <c r="BN55" s="10"/>
-      <c r="BQ55" s="12"/>
-      <c r="BR55" s="10"/>
-    </row>
-    <row r="56" spans="1:70" s="16" customFormat="1">
-      <c r="A56" s="55"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="15"/>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-      <c r="AK56" s="15"/>
-      <c r="AL56" s="13"/>
-      <c r="AM56" s="14"/>
-      <c r="AN56" s="14"/>
-      <c r="AO56" s="15"/>
-      <c r="AP56" s="13"/>
-      <c r="AQ56" s="14"/>
-      <c r="AR56" s="14"/>
-      <c r="AS56" s="15"/>
-      <c r="AT56" s="13"/>
-      <c r="AU56" s="14"/>
-      <c r="AV56" s="14"/>
-      <c r="AW56" s="15"/>
-      <c r="AX56" s="13"/>
-      <c r="AY56" s="14"/>
-      <c r="AZ56" s="14"/>
-      <c r="BA56" s="15"/>
-      <c r="BB56" s="13"/>
-      <c r="BC56" s="14"/>
-      <c r="BD56" s="14"/>
-      <c r="BE56" s="15"/>
-      <c r="BF56" s="13"/>
-      <c r="BG56" s="14"/>
-      <c r="BH56" s="14"/>
-      <c r="BI56" s="15"/>
-      <c r="BJ56" s="13"/>
-      <c r="BK56" s="14"/>
-      <c r="BL56" s="14"/>
-      <c r="BM56" s="15"/>
-      <c r="BN56" s="13"/>
-      <c r="BO56" s="14"/>
-      <c r="BP56" s="14"/>
-      <c r="BQ56" s="15"/>
-      <c r="BR56" s="13"/>
-    </row>
-    <row r="57" spans="1:70" s="18" customFormat="1">
-      <c r="A57" s="55">
-        <v>23</v>
-      </c>
-      <c r="B57" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="17"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="17"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="17"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="17"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="17"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="17"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="17"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="17"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="17"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="17"/>
-      <c r="AS57" s="19"/>
-      <c r="AT57" s="17"/>
-      <c r="AW57" s="19"/>
-      <c r="AX57" s="17"/>
-      <c r="BA57" s="19"/>
-      <c r="BB57" s="17"/>
-      <c r="BE57" s="19"/>
-      <c r="BF57" s="17"/>
-      <c r="BI57" s="19"/>
-      <c r="BJ57" s="17"/>
-      <c r="BM57" s="19"/>
-      <c r="BN57" s="17"/>
-      <c r="BQ57" s="19"/>
-      <c r="BR57" s="17"/>
-    </row>
-    <row r="58" spans="1:70" s="23" customFormat="1">
-      <c r="A58" s="55"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="20"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="20"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="20"/>
-      <c r="AM58" s="21"/>
-      <c r="AN58" s="21"/>
-      <c r="AO58" s="22"/>
-      <c r="AP58" s="20"/>
-      <c r="AQ58" s="21"/>
-      <c r="AR58" s="21"/>
-      <c r="AS58" s="22"/>
-      <c r="AT58" s="20"/>
-      <c r="AU58" s="21"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="22"/>
-      <c r="AX58" s="20"/>
-      <c r="AY58" s="21"/>
-      <c r="AZ58" s="21"/>
-      <c r="BA58" s="22"/>
-      <c r="BB58" s="20"/>
-      <c r="BC58" s="21"/>
-      <c r="BD58" s="21"/>
-      <c r="BE58" s="22"/>
-      <c r="BF58" s="20"/>
-      <c r="BG58" s="21"/>
-      <c r="BH58" s="21"/>
-      <c r="BI58" s="22"/>
-      <c r="BJ58" s="20"/>
-      <c r="BK58" s="21"/>
-      <c r="BL58" s="21"/>
-      <c r="BM58" s="22"/>
-      <c r="BN58" s="20"/>
-      <c r="BO58" s="21"/>
-      <c r="BP58" s="21"/>
-      <c r="BQ58" s="22"/>
-      <c r="BR58" s="20"/>
-    </row>
-    <row r="59" spans="1:70" s="11" customFormat="1">
-      <c r="A59" s="55">
-        <v>24</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="10"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="10"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="10"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="10"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="10"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="10"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="10"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="10"/>
-      <c r="AK59" s="12"/>
-      <c r="AL59" s="10"/>
-      <c r="AO59" s="12"/>
-      <c r="AP59" s="10"/>
-      <c r="AS59" s="12"/>
-      <c r="AT59" s="10"/>
-      <c r="AW59" s="12"/>
-      <c r="AX59" s="10"/>
-      <c r="BA59" s="12"/>
-      <c r="BB59" s="10"/>
-      <c r="BE59" s="12"/>
-      <c r="BF59" s="10"/>
-      <c r="BI59" s="12"/>
-      <c r="BJ59" s="10"/>
-      <c r="BM59" s="12"/>
-      <c r="BN59" s="10"/>
-      <c r="BQ59" s="12"/>
-      <c r="BR59" s="10"/>
-    </row>
-    <row r="60" spans="1:70" s="16" customFormat="1">
-      <c r="A60" s="55"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="15"/>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
-      <c r="AK60" s="15"/>
-      <c r="AL60" s="13"/>
-      <c r="AM60" s="14"/>
-      <c r="AN60" s="14"/>
-      <c r="AO60" s="15"/>
-      <c r="AP60" s="13"/>
-      <c r="AQ60" s="14"/>
-      <c r="AR60" s="14"/>
-      <c r="AS60" s="15"/>
-      <c r="AT60" s="13"/>
-      <c r="AU60" s="14"/>
-      <c r="AV60" s="14"/>
-      <c r="AW60" s="15"/>
-      <c r="AX60" s="13"/>
-      <c r="AY60" s="14"/>
-      <c r="AZ60" s="14"/>
-      <c r="BA60" s="15"/>
-      <c r="BB60" s="13"/>
-      <c r="BC60" s="14"/>
-      <c r="BD60" s="14"/>
-      <c r="BE60" s="15"/>
-      <c r="BF60" s="13"/>
-      <c r="BG60" s="14"/>
-      <c r="BH60" s="14"/>
-      <c r="BI60" s="15"/>
-      <c r="BJ60" s="13"/>
-      <c r="BK60" s="14"/>
-      <c r="BL60" s="14"/>
-      <c r="BM60" s="15"/>
-      <c r="BN60" s="13"/>
-      <c r="BO60" s="14"/>
-      <c r="BP60" s="14"/>
-      <c r="BQ60" s="15"/>
-      <c r="BR60" s="13"/>
-    </row>
-    <row r="61" spans="1:70" s="18" customFormat="1">
-      <c r="A61" s="55">
-        <v>25</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="17"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="17"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="17"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="17"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="17"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="17"/>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="17"/>
-      <c r="AG61" s="19"/>
-      <c r="AH61" s="17"/>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="17"/>
-      <c r="AO61" s="19"/>
-      <c r="AP61" s="17"/>
-      <c r="AS61" s="19"/>
-      <c r="AT61" s="17"/>
-      <c r="AW61" s="19"/>
-      <c r="AX61" s="17"/>
-      <c r="BA61" s="19"/>
-      <c r="BB61" s="17"/>
-      <c r="BE61" s="19"/>
-      <c r="BF61" s="17"/>
-      <c r="BI61" s="19"/>
-      <c r="BJ61" s="17"/>
-      <c r="BM61" s="19"/>
-      <c r="BN61" s="17"/>
-      <c r="BQ61" s="19"/>
-      <c r="BR61" s="17"/>
-    </row>
-    <row r="62" spans="1:70" s="23" customFormat="1">
-      <c r="A62" s="55"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="20"/>
-      <c r="AE62" s="21"/>
-      <c r="AF62" s="21"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="20"/>
-      <c r="AI62" s="21"/>
-      <c r="AJ62" s="21"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="20"/>
-      <c r="AM62" s="21"/>
-      <c r="AN62" s="21"/>
-      <c r="AO62" s="22"/>
-      <c r="AP62" s="20"/>
-      <c r="AQ62" s="21"/>
-      <c r="AR62" s="21"/>
-      <c r="AS62" s="22"/>
-      <c r="AT62" s="20"/>
-      <c r="AU62" s="21"/>
-      <c r="AV62" s="21"/>
-      <c r="AW62" s="22"/>
-      <c r="AX62" s="20"/>
-      <c r="AY62" s="21"/>
-      <c r="AZ62" s="21"/>
-      <c r="BA62" s="22"/>
-      <c r="BB62" s="20"/>
-      <c r="BC62" s="21"/>
-      <c r="BD62" s="21"/>
-      <c r="BE62" s="22"/>
-      <c r="BF62" s="20"/>
-      <c r="BG62" s="21"/>
-      <c r="BH62" s="21"/>
-      <c r="BI62" s="22"/>
-      <c r="BJ62" s="20"/>
-      <c r="BK62" s="21"/>
-      <c r="BL62" s="21"/>
-      <c r="BM62" s="22"/>
-      <c r="BN62" s="20"/>
-      <c r="BO62" s="21"/>
-      <c r="BP62" s="21"/>
-      <c r="BQ62" s="22"/>
-      <c r="BR62" s="20"/>
-    </row>
-    <row r="63" spans="1:70" s="11" customFormat="1">
-      <c r="A63" s="55">
-        <v>26</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="10"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="10"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="10"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="10"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="10"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="10"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="10"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="10"/>
-      <c r="AK63" s="12"/>
-      <c r="AL63" s="10"/>
-      <c r="AO63" s="12"/>
-      <c r="AP63" s="10"/>
-      <c r="AS63" s="12"/>
-      <c r="AT63" s="10"/>
-      <c r="AW63" s="12"/>
-      <c r="AX63" s="10"/>
-      <c r="BA63" s="12"/>
-      <c r="BB63" s="10"/>
-      <c r="BE63" s="12"/>
-      <c r="BF63" s="10"/>
-      <c r="BI63" s="12"/>
-      <c r="BJ63" s="10"/>
-      <c r="BM63" s="12"/>
-      <c r="BN63" s="10"/>
-      <c r="BQ63" s="12"/>
-      <c r="BR63" s="10"/>
-    </row>
-    <row r="64" spans="1:70" s="16" customFormat="1">
-      <c r="A64" s="55"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="15"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="15"/>
-      <c r="AL64" s="13"/>
-      <c r="AM64" s="14"/>
-      <c r="AN64" s="14"/>
-      <c r="AO64" s="15"/>
-      <c r="AP64" s="13"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="15"/>
-      <c r="AT64" s="13"/>
-      <c r="AU64" s="14"/>
-      <c r="AV64" s="14"/>
-      <c r="AW64" s="15"/>
-      <c r="AX64" s="13"/>
-      <c r="AY64" s="14"/>
-      <c r="AZ64" s="14"/>
-      <c r="BA64" s="15"/>
-      <c r="BB64" s="13"/>
-      <c r="BC64" s="14"/>
-      <c r="BD64" s="14"/>
-      <c r="BE64" s="15"/>
-      <c r="BF64" s="13"/>
-      <c r="BG64" s="14"/>
-      <c r="BH64" s="14"/>
-      <c r="BI64" s="15"/>
-      <c r="BJ64" s="13"/>
-      <c r="BK64" s="14"/>
-      <c r="BL64" s="14"/>
-      <c r="BM64" s="15"/>
-      <c r="BN64" s="13"/>
-      <c r="BO64" s="14"/>
-      <c r="BP64" s="14"/>
-      <c r="BQ64" s="15"/>
-      <c r="BR64" s="13"/>
-    </row>
-    <row r="65" spans="1:70" s="18" customFormat="1">
-      <c r="A65" s="55">
-        <v>27</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="17"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="17"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="17"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="17"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="17"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="17"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="17"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="17"/>
-      <c r="AK65" s="19"/>
-      <c r="AL65" s="17"/>
-      <c r="AO65" s="19"/>
-      <c r="AP65" s="17"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="17"/>
-      <c r="AW65" s="19"/>
-      <c r="AX65" s="17"/>
-      <c r="BA65" s="19"/>
-      <c r="BB65" s="17"/>
-      <c r="BE65" s="19"/>
-      <c r="BF65" s="17"/>
-      <c r="BI65" s="19"/>
-      <c r="BJ65" s="17"/>
-      <c r="BM65" s="19"/>
-      <c r="BN65" s="17"/>
-      <c r="BQ65" s="19"/>
-      <c r="BR65" s="17"/>
-    </row>
-    <row r="66" spans="1:70" s="23" customFormat="1">
+      <c r="B65" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="10"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="10"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="10"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="10"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="10"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="10"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="10"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="10"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="10"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="10"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="10"/>
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="10"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="10"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="10"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="10"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="10"/>
+      <c r="BQ65" s="12"/>
+      <c r="BR65" s="10"/>
+    </row>
+    <row r="66" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="20"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="20"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="20"/>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="20"/>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="20"/>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="20"/>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="20"/>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="20"/>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="20"/>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="20"/>
-    </row>
-    <row r="67" spans="1:70" s="11" customFormat="1">
-      <c r="A67" s="55">
-        <v>28</v>
-      </c>
-      <c r="B67" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="10"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="10"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="10"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="10"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="10"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="10"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="10"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="10"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="10"/>
-      <c r="AO67" s="12"/>
-      <c r="AP67" s="10"/>
-      <c r="AS67" s="12"/>
-      <c r="AT67" s="10"/>
-      <c r="AW67" s="12"/>
-      <c r="AX67" s="10"/>
-      <c r="BA67" s="12"/>
-      <c r="BB67" s="10"/>
-      <c r="BE67" s="12"/>
-      <c r="BF67" s="10"/>
-      <c r="BI67" s="12"/>
-      <c r="BJ67" s="10"/>
-      <c r="BM67" s="12"/>
-      <c r="BN67" s="10"/>
-      <c r="BQ67" s="12"/>
-      <c r="BR67" s="10"/>
-    </row>
-    <row r="68" spans="1:70" s="16" customFormat="1">
-      <c r="A68" s="55"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="14"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="14"/>
-      <c r="X68" s="14"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="13"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="15"/>
-      <c r="AH68" s="13"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="15"/>
-      <c r="AL68" s="13"/>
-      <c r="AM68" s="14"/>
-      <c r="AN68" s="14"/>
-      <c r="AO68" s="15"/>
-      <c r="AP68" s="13"/>
-      <c r="AQ68" s="14"/>
-      <c r="AR68" s="14"/>
-      <c r="AS68" s="15"/>
-      <c r="AT68" s="13"/>
-      <c r="AU68" s="14"/>
-      <c r="AV68" s="14"/>
-      <c r="AW68" s="15"/>
-      <c r="AX68" s="13"/>
-      <c r="AY68" s="14"/>
-      <c r="AZ68" s="14"/>
-      <c r="BA68" s="15"/>
-      <c r="BB68" s="13"/>
-      <c r="BC68" s="14"/>
-      <c r="BD68" s="14"/>
-      <c r="BE68" s="15"/>
-      <c r="BF68" s="13"/>
-      <c r="BG68" s="14"/>
-      <c r="BH68" s="14"/>
-      <c r="BI68" s="15"/>
-      <c r="BJ68" s="13"/>
-      <c r="BK68" s="14"/>
-      <c r="BL68" s="14"/>
-      <c r="BM68" s="15"/>
-      <c r="BN68" s="13"/>
-      <c r="BO68" s="14"/>
-      <c r="BP68" s="14"/>
-      <c r="BQ68" s="15"/>
-      <c r="BR68" s="13"/>
-    </row>
-    <row r="69" spans="1:70">
-      <c r="B69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="13"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+      <c r="AK66" s="15"/>
+      <c r="AL66" s="13"/>
+      <c r="AM66" s="14"/>
+      <c r="AN66" s="14"/>
+      <c r="AO66" s="15"/>
+      <c r="AP66" s="13"/>
+      <c r="AQ66" s="14"/>
+      <c r="AR66" s="14"/>
+      <c r="AS66" s="15"/>
+      <c r="AT66" s="13"/>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="14"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="13"/>
+      <c r="AY66" s="14"/>
+      <c r="AZ66" s="14"/>
+      <c r="BA66" s="15"/>
+      <c r="BB66" s="13"/>
+      <c r="BC66" s="14"/>
+      <c r="BD66" s="14"/>
+      <c r="BE66" s="15"/>
+      <c r="BF66" s="13"/>
+      <c r="BG66" s="14"/>
+      <c r="BH66" s="14"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="13"/>
+      <c r="BK66" s="14"/>
+      <c r="BL66" s="14"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="13"/>
+      <c r="BO66" s="14"/>
+      <c r="BP66" s="14"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="13"/>
+    </row>
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
+  <mergeCells count="110">
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D8"/>
@@ -5959,12 +5760,20 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="BF1:BI1"/>
     <mergeCell ref="BJ1:BM1"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="A35:A36"/>
@@ -5977,35 +5786,36 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="C17:D18"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:D42"/>
     <mergeCell ref="B5:B6"/>
@@ -6015,25 +5825,16 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="A25:A26"/>
@@ -6043,26 +5844,45 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:BQ8 F25:BQ66 F11:BQ16">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="F3:BQ8 F25:BQ44 F11:BQ16 F46:BQ64 F45:AV45 BC45:BQ45 AX45:BA45">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:BQ20">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:BQ24">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:BQ10">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW45">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -6070,7 +5890,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:BQ10">
+  <conditionalFormatting sqref="BB45">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -6079,7 +5899,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25610" windowHeight="16010"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Grafiken Erstellen und Einbinden</t>
-  </si>
-  <si>
     <t>Gamelogik:  Erfolg Liste</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Dauer in Total h</t>
+  </si>
+  <si>
+    <t>Assets Erstellen und Einbinden</t>
   </si>
 </sst>
 </file>
@@ -716,17 +716,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -735,15 +729,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,8 +740,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -775,6 +766,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1283,73 +1283,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="3.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="5" customWidth="1"/>
-    <col min="15" max="16" width="3.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="5" customWidth="1"/>
-    <col min="19" max="20" width="3.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="5" customWidth="1"/>
-    <col min="23" max="24" width="3.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.140625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="5" customWidth="1"/>
-    <col min="27" max="28" width="3.140625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="3.140625" style="8" customWidth="1"/>
-    <col min="30" max="30" width="3.140625" style="5" customWidth="1"/>
-    <col min="31" max="32" width="3.140625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="3.140625" style="5" customWidth="1"/>
-    <col min="35" max="36" width="3.140625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="3.140625" style="8" customWidth="1"/>
-    <col min="38" max="38" width="3.140625" style="5" customWidth="1"/>
-    <col min="39" max="40" width="3.140625" style="6" customWidth="1"/>
-    <col min="41" max="41" width="3.140625" style="8" customWidth="1"/>
-    <col min="42" max="42" width="3.140625" style="5" customWidth="1"/>
-    <col min="43" max="44" width="3.140625" style="6" customWidth="1"/>
-    <col min="45" max="45" width="3.140625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="3.140625" style="5" customWidth="1"/>
-    <col min="47" max="48" width="3.140625" style="6" customWidth="1"/>
-    <col min="49" max="49" width="3.140625" style="8" customWidth="1"/>
-    <col min="50" max="50" width="3.140625" style="5" customWidth="1"/>
-    <col min="51" max="52" width="3.140625" style="6" customWidth="1"/>
-    <col min="53" max="53" width="3.140625" style="8" customWidth="1"/>
-    <col min="54" max="54" width="3.140625" style="5" customWidth="1"/>
-    <col min="55" max="56" width="3.140625" style="6" customWidth="1"/>
-    <col min="57" max="57" width="3.140625" style="8" customWidth="1"/>
-    <col min="58" max="58" width="3.140625" style="5" customWidth="1"/>
-    <col min="59" max="60" width="3.140625" style="6" customWidth="1"/>
-    <col min="61" max="61" width="3.140625" style="8" customWidth="1"/>
-    <col min="62" max="62" width="3.140625" style="5" customWidth="1"/>
-    <col min="63" max="64" width="3.140625" style="6" customWidth="1"/>
-    <col min="65" max="65" width="3.140625" style="8" customWidth="1"/>
-    <col min="66" max="66" width="3.140625" style="5" customWidth="1"/>
-    <col min="67" max="68" width="3.140625" style="6" customWidth="1"/>
-    <col min="69" max="69" width="3.140625" style="8" customWidth="1"/>
-    <col min="70" max="70" width="3.140625" style="5" customWidth="1"/>
-    <col min="71" max="71" width="2.7109375" customWidth="1"/>
-    <col min="72" max="72" width="2.42578125" customWidth="1"/>
-    <col min="73" max="73" width="2.140625" customWidth="1"/>
-    <col min="74" max="74" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" customWidth="1"/>
+    <col min="3" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1796875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="3.1796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.1796875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="3.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="3.1796875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="3.1796875" style="5" customWidth="1"/>
+    <col min="15" max="16" width="3.1796875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.1796875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="3.1796875" style="5" customWidth="1"/>
+    <col min="19" max="20" width="3.1796875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="3.1796875" style="5" customWidth="1"/>
+    <col min="23" max="24" width="3.1796875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.1796875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="3.1796875" style="5" customWidth="1"/>
+    <col min="27" max="28" width="3.1796875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="3.1796875" style="8" customWidth="1"/>
+    <col min="30" max="30" width="3.1796875" style="5" customWidth="1"/>
+    <col min="31" max="32" width="3.1796875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="3.1796875" style="8" customWidth="1"/>
+    <col min="34" max="34" width="3.1796875" style="5" customWidth="1"/>
+    <col min="35" max="36" width="3.1796875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="3.1796875" style="8" customWidth="1"/>
+    <col min="38" max="38" width="3.1796875" style="5" customWidth="1"/>
+    <col min="39" max="40" width="3.1796875" style="6" customWidth="1"/>
+    <col min="41" max="41" width="3.1796875" style="8" customWidth="1"/>
+    <col min="42" max="42" width="3.1796875" style="5" customWidth="1"/>
+    <col min="43" max="44" width="3.1796875" style="6" customWidth="1"/>
+    <col min="45" max="45" width="3.1796875" style="8" customWidth="1"/>
+    <col min="46" max="46" width="3.1796875" style="5" customWidth="1"/>
+    <col min="47" max="48" width="3.1796875" style="6" customWidth="1"/>
+    <col min="49" max="49" width="3.1796875" style="8" customWidth="1"/>
+    <col min="50" max="50" width="3.1796875" style="5" customWidth="1"/>
+    <col min="51" max="52" width="3.1796875" style="6" customWidth="1"/>
+    <col min="53" max="53" width="3.1796875" style="8" customWidth="1"/>
+    <col min="54" max="54" width="3.1796875" style="5" customWidth="1"/>
+    <col min="55" max="56" width="3.1796875" style="6" customWidth="1"/>
+    <col min="57" max="57" width="3.1796875" style="8" customWidth="1"/>
+    <col min="58" max="58" width="3.1796875" style="5" customWidth="1"/>
+    <col min="59" max="60" width="3.1796875" style="6" customWidth="1"/>
+    <col min="61" max="61" width="3.1796875" style="8" customWidth="1"/>
+    <col min="62" max="62" width="3.1796875" style="5" customWidth="1"/>
+    <col min="63" max="64" width="3.1796875" style="6" customWidth="1"/>
+    <col min="65" max="65" width="3.1796875" style="8" customWidth="1"/>
+    <col min="66" max="66" width="3.1796875" style="5" customWidth="1"/>
+    <col min="67" max="68" width="3.1796875" style="6" customWidth="1"/>
+    <col min="69" max="69" width="3.1796875" style="8" customWidth="1"/>
+    <col min="70" max="70" width="3.1796875" style="5" customWidth="1"/>
+    <col min="71" max="71" width="2.7265625" customWidth="1"/>
+    <col min="72" max="72" width="2.453125" customWidth="1"/>
+    <col min="73" max="73" width="2.1796875" customWidth="1"/>
+    <col min="74" max="74" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:72" s="2" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1358,111 +1358,111 @@
         <v>3</v>
       </c>
       <c r="E1" s="35"/>
-      <c r="F1" s="56">
+      <c r="F1" s="64">
         <v>42031</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="56">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="64">
         <v>42038</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="56">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>42045</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="56">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="64">
         <v>42052</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="56">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>42059</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="56">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="64">
         <v>42066</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="56">
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>42073</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="56">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="64">
         <v>42080</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="56">
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>42087</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="56">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="64">
         <v>42115</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="56">
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>42122</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="56">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="64">
         <v>42129</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="56">
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64">
         <v>42136</v>
       </c>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="56">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="64">
         <v>42143</v>
       </c>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="56">
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64">
         <v>42150</v>
       </c>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="56">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="64">
         <v>42157</v>
       </c>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="58"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
       <c r="BR1" s="9"/>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+    <row r="2" spans="1:72" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="36"/>
@@ -1662,17 +1662,17 @@
       <c r="BS2" s="4"/>
       <c r="BT2" s="4"/>
     </row>
-    <row r="3" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="B3" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="56">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1714,11 +1714,11 @@
       <c r="BQ3" s="12"/>
       <c r="BR3" s="10"/>
     </row>
-    <row r="4" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1788,17 +1788,17 @@
       <c r="BQ4" s="15"/>
       <c r="BR4" s="13"/>
     </row>
-    <row r="5" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="62">
+      <c r="B5" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="60">
         <v>4</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1841,11 +1841,11 @@
       <c r="BQ5" s="19"/>
       <c r="BR5" s="17"/>
     </row>
-    <row r="6" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="32" t="s">
         <v>2</v>
       </c>
@@ -1915,17 +1915,17 @@
       <c r="BQ6" s="22"/>
       <c r="BR6" s="20"/>
     </row>
-    <row r="7" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="66">
+      <c r="B7" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="61">
         <v>4</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="29" t="s">
         <v>1</v>
       </c>
@@ -1968,11 +1968,11 @@
       <c r="BQ7" s="12"/>
       <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2042,17 +2042,17 @@
       <c r="BQ8" s="15"/>
       <c r="BR8" s="13"/>
     </row>
-    <row r="9" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="62">
+      <c r="B9" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="60">
         <v>6</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2097,11 +2097,11 @@
       <c r="BQ9" s="19"/>
       <c r="BR9" s="17"/>
     </row>
-    <row r="10" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2171,17 +2171,17 @@
       <c r="BQ10" s="22"/>
       <c r="BR10" s="20"/>
     </row>
-    <row r="11" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="66">
-        <v>1</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="B11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="61">
+        <v>1</v>
+      </c>
+      <c r="D11" s="62"/>
       <c r="E11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2222,11 +2222,11 @@
       <c r="BQ11" s="12"/>
       <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2296,17 +2296,17 @@
       <c r="BQ12" s="15"/>
       <c r="BR12" s="13"/>
     </row>
-    <row r="13" spans="1:72" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>5</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="60">
+      <c r="B13" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="58">
         <v>4</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2349,11 +2349,11 @@
       <c r="BQ13" s="19"/>
       <c r="BR13" s="17"/>
     </row>
-    <row r="14" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2423,17 +2423,17 @@
       <c r="BQ14" s="22"/>
       <c r="BR14" s="20"/>
     </row>
-    <row r="15" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>6</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="64">
+      <c r="B15" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="56">
         <v>3</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2476,11 +2476,11 @@
       <c r="BQ15" s="12"/>
       <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2550,17 +2550,17 @@
       <c r="BQ16" s="15"/>
       <c r="BR16" s="13"/>
     </row>
-    <row r="17" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>7</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="62">
+      <c r="B17" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="60">
         <v>4</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2603,11 +2603,11 @@
       <c r="BQ17" s="19"/>
       <c r="BR17" s="17"/>
     </row>
-    <row r="18" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2677,17 +2677,17 @@
       <c r="BQ18" s="22"/>
       <c r="BR18" s="20"/>
     </row>
-    <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="56">
         <v>8</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2735,13 +2735,13 @@
       <c r="BQ19" s="12"/>
       <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2811,17 +2811,17 @@
       <c r="BQ20" s="15"/>
       <c r="BR20" s="13"/>
     </row>
-    <row r="21" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>7</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="62">
+      <c r="B21" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="60">
         <v>4</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="31" t="s">
         <v>1</v>
       </c>
@@ -2864,11 +2864,11 @@
       <c r="BQ21" s="19"/>
       <c r="BR21" s="17"/>
     </row>
-    <row r="22" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="55"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="32" t="s">
         <v>2</v>
       </c>
@@ -2938,17 +2938,17 @@
       <c r="BQ22" s="22"/>
       <c r="BR22" s="20"/>
     </row>
-    <row r="23" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>8</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="64">
+      <c r="B23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="56">
         <v>4</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="29" t="s">
         <v>1</v>
       </c>
@@ -2991,11 +2991,11 @@
       <c r="BQ23" s="12"/>
       <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="55"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3065,17 +3065,17 @@
       <c r="BQ24" s="15"/>
       <c r="BR24" s="13"/>
     </row>
-    <row r="25" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>7</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="62">
+      <c r="B25" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="60">
         <v>4</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3118,11 +3118,11 @@
       <c r="BQ25" s="19"/>
       <c r="BR25" s="17"/>
     </row>
-    <row r="26" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3192,17 +3192,17 @@
       <c r="BQ26" s="22"/>
       <c r="BR26" s="20"/>
     </row>
-    <row r="27" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55">
         <v>8</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="64">
+      <c r="B27" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="56">
         <v>4</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3245,11 +3245,11 @@
       <c r="BQ27" s="12"/>
       <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="55"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3319,17 +3319,17 @@
       <c r="BQ28" s="15"/>
       <c r="BR28" s="13"/>
     </row>
-    <row r="29" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>9</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="60">
+      <c r="B29" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="58">
         <v>12</v>
       </c>
-      <c r="D29" s="60"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3397,11 +3397,11 @@
       <c r="BQ29" s="19"/>
       <c r="BR29" s="17"/>
     </row>
-    <row r="30" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3471,17 +3471,17 @@
       <c r="BQ30" s="22"/>
       <c r="BR30" s="20"/>
     </row>
-    <row r="31" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>10</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="56">
         <v>8</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3529,11 +3529,11 @@
       <c r="BQ31" s="12"/>
       <c r="BR31" s="10"/>
     </row>
-    <row r="32" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3603,17 +3603,17 @@
       <c r="BQ32" s="15"/>
       <c r="BR32" s="13"/>
     </row>
-    <row r="33" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>11</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="58">
         <v>8</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3701,11 +3701,11 @@
       <c r="BQ33" s="19"/>
       <c r="BR33" s="17"/>
     </row>
-    <row r="34" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3775,17 +3775,17 @@
       <c r="BQ34" s="22"/>
       <c r="BR34" s="20"/>
     </row>
-    <row r="35" spans="1:70" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:70" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>12</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="56">
         <v>2</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="29" t="s">
         <v>1</v>
       </c>
@@ -3825,11 +3825,11 @@
       <c r="BQ35" s="12"/>
       <c r="BR35" s="10"/>
     </row>
-    <row r="36" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:70" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="55"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="30" t="s">
         <v>2</v>
       </c>
@@ -3899,17 +3899,17 @@
       <c r="BQ36" s="15"/>
       <c r="BR36" s="13"/>
     </row>
-    <row r="37" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>13</v>
       </c>
-      <c r="B37" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="60">
+      <c r="B37" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="58">
         <v>6</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="31" t="s">
         <v>1</v>
       </c>
@@ -3960,11 +3960,11 @@
       <c r="BQ37" s="19"/>
       <c r="BR37" s="17"/>
     </row>
-    <row r="38" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4034,17 +4034,17 @@
       <c r="BQ38" s="22"/>
       <c r="BR38" s="20"/>
     </row>
-    <row r="39" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>14</v>
       </c>
-      <c r="B39" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="64">
+      <c r="B39" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="56">
         <v>4</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4092,11 +4092,11 @@
       <c r="BQ39" s="12"/>
       <c r="BR39" s="10"/>
     </row>
-    <row r="40" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4166,13 +4166,13 @@
       <c r="BQ40" s="15"/>
       <c r="BR40" s="13"/>
     </row>
-    <row r="41" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>15</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4210,11 +4210,11 @@
       <c r="BQ41" s="19"/>
       <c r="BR41" s="17"/>
     </row>
-    <row r="42" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="BQ42" s="22"/>
       <c r="BR42" s="20"/>
     </row>
-    <row r="43" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="55">
         <v>16</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="BQ43" s="12"/>
       <c r="BR43" s="10"/>
     </row>
-    <row r="44" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="55"/>
       <c r="B44" s="50"/>
       <c r="C44" s="52"/>
@@ -4402,15 +4402,15 @@
       <c r="BQ44" s="15"/>
       <c r="BR44" s="13"/>
     </row>
-    <row r="45" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="55">
         <v>18</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="40"/>
       <c r="F45" s="41"/>
       <c r="G45" s="42"/>
@@ -4498,11 +4498,11 @@
       <c r="BQ45" s="43"/>
       <c r="BR45" s="10"/>
     </row>
-    <row r="46" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="44"/>
       <c r="F46" s="45"/>
       <c r="G46" s="46"/>
@@ -4570,15 +4570,15 @@
       <c r="BQ46" s="47"/>
       <c r="BR46" s="13"/>
     </row>
-    <row r="47" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55">
         <v>19</v>
       </c>
-      <c r="B47" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
+      <c r="B47" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="31"/>
       <c r="F47" s="17"/>
       <c r="I47" s="19"/>
@@ -4614,11 +4614,11 @@
       <c r="BQ47" s="19"/>
       <c r="BR47" s="17"/>
     </row>
-    <row r="48" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="32"/>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
@@ -4686,15 +4686,15 @@
       <c r="BQ48" s="22"/>
       <c r="BR48" s="20"/>
     </row>
-    <row r="49" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="55">
         <v>20</v>
       </c>
-      <c r="B49" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
+      <c r="B49" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="29"/>
       <c r="F49" s="10"/>
       <c r="I49" s="12"/>
@@ -4730,11 +4730,11 @@
       <c r="BQ49" s="12"/>
       <c r="BR49" s="10"/>
     </row>
-    <row r="50" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="55"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="30"/>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
@@ -4802,15 +4802,15 @@
       <c r="BQ50" s="15"/>
       <c r="BR50" s="13"/>
     </row>
-    <row r="51" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="55">
         <v>21</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
+      <c r="B51" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="31"/>
       <c r="F51" s="17"/>
       <c r="I51" s="19"/>
@@ -4846,11 +4846,11 @@
       <c r="BQ51" s="19"/>
       <c r="BR51" s="17"/>
     </row>
-    <row r="52" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="55"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="32"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
@@ -4918,15 +4918,15 @@
       <c r="BQ52" s="22"/>
       <c r="BR52" s="20"/>
     </row>
-    <row r="53" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="55">
         <v>22</v>
       </c>
-      <c r="B53" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
+      <c r="B53" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="29"/>
       <c r="F53" s="10"/>
       <c r="I53" s="12"/>
@@ -4962,11 +4962,11 @@
       <c r="BQ53" s="12"/>
       <c r="BR53" s="10"/>
     </row>
-    <row r="54" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="55"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="30"/>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
@@ -5034,15 +5034,15 @@
       <c r="BQ54" s="15"/>
       <c r="BR54" s="13"/>
     </row>
-    <row r="55" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="55">
         <v>23</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="B55" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="31"/>
       <c r="F55" s="17"/>
       <c r="I55" s="19"/>
@@ -5078,11 +5078,11 @@
       <c r="BQ55" s="19"/>
       <c r="BR55" s="17"/>
     </row>
-    <row r="56" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="55"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="32"/>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
@@ -5150,15 +5150,15 @@
       <c r="BQ56" s="22"/>
       <c r="BR56" s="20"/>
     </row>
-    <row r="57" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="55">
         <v>24</v>
       </c>
-      <c r="B57" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="B57" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="29"/>
       <c r="F57" s="10"/>
       <c r="I57" s="12"/>
@@ -5194,11 +5194,11 @@
       <c r="BQ57" s="12"/>
       <c r="BR57" s="10"/>
     </row>
-    <row r="58" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="55"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="30"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
@@ -5266,15 +5266,15 @@
       <c r="BQ58" s="15"/>
       <c r="BR58" s="13"/>
     </row>
-    <row r="59" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="55">
         <v>25</v>
       </c>
-      <c r="B59" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="B59" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="31"/>
       <c r="F59" s="17"/>
       <c r="I59" s="19"/>
@@ -5310,11 +5310,11 @@
       <c r="BQ59" s="19"/>
       <c r="BR59" s="17"/>
     </row>
-    <row r="60" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="55"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="32"/>
       <c r="F60" s="20"/>
       <c r="G60" s="21"/>
@@ -5382,15 +5382,15 @@
       <c r="BQ60" s="22"/>
       <c r="BR60" s="20"/>
     </row>
-    <row r="61" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="55">
         <v>26</v>
       </c>
-      <c r="B61" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
+      <c r="B61" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="29"/>
       <c r="F61" s="10"/>
       <c r="I61" s="12"/>
@@ -5426,11 +5426,11 @@
       <c r="BQ61" s="12"/>
       <c r="BR61" s="10"/>
     </row>
-    <row r="62" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="55"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="30"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
@@ -5498,15 +5498,15 @@
       <c r="BQ62" s="15"/>
       <c r="BR62" s="13"/>
     </row>
-    <row r="63" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>27</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="B63" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="31"/>
       <c r="F63" s="17"/>
       <c r="I63" s="19"/>
@@ -5542,11 +5542,11 @@
       <c r="BQ63" s="19"/>
       <c r="BR63" s="17"/>
     </row>
-    <row r="64" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:70" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="55"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="32"/>
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
@@ -5614,15 +5614,15 @@
       <c r="BQ64" s="22"/>
       <c r="BR64" s="20"/>
     </row>
-    <row r="65" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="55">
         <v>28</v>
       </c>
-      <c r="B65" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
+      <c r="B65" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="29"/>
       <c r="F65" s="10"/>
       <c r="I65" s="12"/>
@@ -5658,11 +5658,11 @@
       <c r="BQ65" s="12"/>
       <c r="BR65" s="10"/>
     </row>
-    <row r="66" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="55"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="33"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
@@ -5730,7 +5730,7 @@
       <c r="BQ66" s="15"/>
       <c r="BR66" s="13"/>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -5739,6 +5739,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C3:D4"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="A21:A22"/>
@@ -5763,92 +5849,6 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BJ1:BM1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BN1:BQ1"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:BQ8 F25:BQ44 F11:BQ16 F46:BQ64 F45:AV45 BC45:BQ45 AX45:BA45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25610" windowHeight="16010"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -773,32 +773,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -815,7 +794,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,23 +839,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1355,73 +1355,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" style="5" customWidth="1"/>
-    <col min="8" max="9" width="3.1796875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.1796875" style="5" customWidth="1"/>
-    <col min="12" max="13" width="3.1796875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3.1796875" style="5" customWidth="1"/>
-    <col min="16" max="17" width="3.1796875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.1796875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="5" customWidth="1"/>
-    <col min="20" max="21" width="3.1796875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="3.1796875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.1796875" style="5" customWidth="1"/>
-    <col min="24" max="25" width="3.1796875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.1796875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="3.1796875" style="5" customWidth="1"/>
-    <col min="28" max="29" width="3.1796875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="3.1796875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="3.1796875" style="5" customWidth="1"/>
-    <col min="32" max="33" width="3.1796875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.1796875" style="8" customWidth="1"/>
-    <col min="35" max="35" width="3.1796875" style="5" customWidth="1"/>
-    <col min="36" max="37" width="3.1796875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="3.1796875" style="8" customWidth="1"/>
-    <col min="39" max="39" width="3.1796875" style="5" customWidth="1"/>
-    <col min="40" max="41" width="3.1796875" style="6" customWidth="1"/>
-    <col min="42" max="42" width="3.1796875" style="8" customWidth="1"/>
-    <col min="43" max="43" width="3.1796875" style="5" customWidth="1"/>
-    <col min="44" max="45" width="3.1796875" style="6" customWidth="1"/>
-    <col min="46" max="46" width="3.1796875" style="8" customWidth="1"/>
-    <col min="47" max="47" width="3.1796875" style="5" customWidth="1"/>
-    <col min="48" max="49" width="3.1796875" style="6" customWidth="1"/>
-    <col min="50" max="50" width="3.1796875" style="8" customWidth="1"/>
-    <col min="51" max="51" width="3.1796875" style="5" customWidth="1"/>
-    <col min="52" max="53" width="3.1796875" style="6" customWidth="1"/>
-    <col min="54" max="54" width="3.1796875" style="8" customWidth="1"/>
-    <col min="55" max="55" width="3.1796875" style="5" customWidth="1"/>
-    <col min="56" max="57" width="3.1796875" style="6" customWidth="1"/>
-    <col min="58" max="58" width="3.1796875" style="8" customWidth="1"/>
-    <col min="59" max="59" width="3.1796875" style="5" customWidth="1"/>
-    <col min="60" max="61" width="3.1796875" style="6" customWidth="1"/>
-    <col min="62" max="62" width="3.1796875" style="8" customWidth="1"/>
-    <col min="63" max="63" width="3.1796875" style="5" customWidth="1"/>
-    <col min="64" max="65" width="3.1796875" style="6" customWidth="1"/>
-    <col min="66" max="66" width="3.1796875" style="8" customWidth="1"/>
-    <col min="67" max="67" width="3.1796875" style="5" customWidth="1"/>
-    <col min="68" max="69" width="3.1796875" style="6" customWidth="1"/>
-    <col min="70" max="70" width="3.1796875" style="8" customWidth="1"/>
-    <col min="71" max="71" width="3.1796875" style="5" customWidth="1"/>
-    <col min="72" max="72" width="2.7265625" customWidth="1"/>
-    <col min="73" max="73" width="2.453125" customWidth="1"/>
-    <col min="74" max="74" width="2.1796875" customWidth="1"/>
-    <col min="75" max="75" width="2.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="3.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="3.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="5" customWidth="1"/>
+    <col min="20" max="21" width="3.140625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" style="5" customWidth="1"/>
+    <col min="24" max="25" width="3.140625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3.140625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="3.140625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="3.140625" style="5" customWidth="1"/>
+    <col min="32" max="33" width="3.140625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="5" customWidth="1"/>
+    <col min="36" max="37" width="3.140625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="3.140625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="3.140625" style="5" customWidth="1"/>
+    <col min="40" max="41" width="3.140625" style="6" customWidth="1"/>
+    <col min="42" max="42" width="3.140625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="3.140625" style="5" customWidth="1"/>
+    <col min="44" max="45" width="3.140625" style="6" customWidth="1"/>
+    <col min="46" max="46" width="3.140625" style="8" customWidth="1"/>
+    <col min="47" max="47" width="3.140625" style="5" customWidth="1"/>
+    <col min="48" max="49" width="3.140625" style="6" customWidth="1"/>
+    <col min="50" max="50" width="3.140625" style="8" customWidth="1"/>
+    <col min="51" max="51" width="3.140625" style="5" customWidth="1"/>
+    <col min="52" max="53" width="3.140625" style="6" customWidth="1"/>
+    <col min="54" max="54" width="3.140625" style="8" customWidth="1"/>
+    <col min="55" max="55" width="3.140625" style="5" customWidth="1"/>
+    <col min="56" max="57" width="3.140625" style="6" customWidth="1"/>
+    <col min="58" max="58" width="3.140625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="3.140625" style="5" customWidth="1"/>
+    <col min="60" max="61" width="3.140625" style="6" customWidth="1"/>
+    <col min="62" max="62" width="3.140625" style="8" customWidth="1"/>
+    <col min="63" max="63" width="3.140625" style="5" customWidth="1"/>
+    <col min="64" max="65" width="3.140625" style="6" customWidth="1"/>
+    <col min="66" max="66" width="3.140625" style="8" customWidth="1"/>
+    <col min="67" max="67" width="3.140625" style="5" customWidth="1"/>
+    <col min="68" max="69" width="3.140625" style="6" customWidth="1"/>
+    <col min="70" max="70" width="3.140625" style="8" customWidth="1"/>
+    <col min="71" max="71" width="3.140625" style="5" customWidth="1"/>
+    <col min="72" max="72" width="2.7109375" customWidth="1"/>
+    <col min="73" max="73" width="2.42578125" customWidth="1"/>
+    <col min="74" max="74" width="2.140625" customWidth="1"/>
+    <col min="75" max="75" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1431,106 +1431,106 @@
         <v>3</v>
       </c>
       <c r="F1" s="35"/>
-      <c r="G1" s="66">
+      <c r="G1" s="74">
         <v>42031</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="66">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="74">
         <v>42038</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="66">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="74">
         <v>42045</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="66">
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="74">
         <v>42052</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="66">
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="74">
         <v>42059</v>
       </c>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="66">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="74">
         <v>42066</v>
       </c>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="66">
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="74">
         <v>42073</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="66">
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="74">
         <v>42080</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="66">
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="74">
         <v>42087</v>
       </c>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="66">
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="74">
         <v>42115</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="66">
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="74">
         <v>42122</v>
       </c>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="66">
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="74">
         <v>42129</v>
       </c>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="66">
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="74">
         <v>42136</v>
       </c>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="66">
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="74">
         <v>42143</v>
       </c>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="66">
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="74">
         <v>42150</v>
       </c>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="66">
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="74">
         <v>42157</v>
       </c>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="68"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="76"/>
       <c r="BS1" s="9"/>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1738,18 +1738,18 @@
       <c r="BT2" s="4"/>
       <c r="BU2" s="4"/>
     </row>
-    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="65">
-        <v>1</v>
-      </c>
-      <c r="B3" s="84" t="s">
+    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66">
+        <v>1</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="74">
+      <c r="D3" s="67">
         <v>4</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="BR3" s="12"/>
       <c r="BS3" s="10"/>
     </row>
-    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
-      <c r="B4" s="85"/>
+    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1812,8 +1812,12 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
+      <c r="S4" s="13">
+        <v>2</v>
+      </c>
+      <c r="T4" s="14">
+        <v>2</v>
+      </c>
       <c r="U4" s="14"/>
       <c r="V4" s="15"/>
       <c r="W4" s="13"/>
@@ -1866,20 +1870,20 @@
       <c r="BR4" s="15"/>
       <c r="BS4" s="13"/>
     </row>
-    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65">
+    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="79">
         <v>4</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1922,12 +1926,12 @@
       <c r="BR5" s="19"/>
       <c r="BS5" s="17"/>
     </row>
-    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="65"/>
-      <c r="B6" s="71"/>
+    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="32" t="s">
         <v>2</v>
       </c>
@@ -1945,8 +1949,12 @@
       <c r="R6" s="22"/>
       <c r="S6" s="20"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
+      <c r="U6" s="21">
+        <v>2</v>
+      </c>
+      <c r="V6" s="22">
+        <v>2</v>
+      </c>
       <c r="W6" s="20"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
@@ -1997,20 +2005,20 @@
       <c r="BR6" s="22"/>
       <c r="BS6" s="20"/>
     </row>
-    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65">
+    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
         <v>3</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="69">
         <v>4</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2053,12 +2061,12 @@
       <c r="BR7" s="12"/>
       <c r="BS7" s="10"/>
     </row>
-    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="65"/>
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2078,9 +2086,15 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
+      <c r="W8" s="13">
+        <v>2</v>
+      </c>
+      <c r="X8" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>2</v>
+      </c>
       <c r="Z8" s="15"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="14"/>
@@ -2128,20 +2142,20 @@
       <c r="BR8" s="15"/>
       <c r="BS8" s="13"/>
     </row>
-    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65">
+    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="72" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="79">
         <v>6</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2186,12 +2200,12 @@
       <c r="BR9" s="19"/>
       <c r="BS9" s="17"/>
     </row>
-    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="65"/>
-      <c r="B10" s="71"/>
+    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2214,9 +2228,15 @@
       <c r="W10" s="20"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="21"/>
+      <c r="Z10" s="22">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>2</v>
+      </c>
       <c r="AC10" s="21"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="20"/>
@@ -2261,18 +2281,18 @@
       <c r="BR10" s="22"/>
       <c r="BS10" s="20"/>
     </row>
-    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65">
+    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="76">
-        <v>1</v>
-      </c>
-      <c r="E11" s="77"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="69">
+        <v>1</v>
+      </c>
+      <c r="E11" s="70"/>
       <c r="F11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2313,12 +2333,12 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="10"/>
     </row>
-    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65"/>
-      <c r="B12" s="75"/>
+    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="78"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2364,9 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
+      <c r="AC12" s="14">
+        <v>2</v>
+      </c>
       <c r="AD12" s="15"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="14"/>
@@ -2388,20 +2410,20 @@
       <c r="BR12" s="15"/>
       <c r="BS12" s="13"/>
     </row>
-    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65">
+    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66">
         <v>5</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="72" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="72">
         <v>4</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2444,12 +2466,12 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2476,7 +2498,9 @@
       <c r="AA14" s="20"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
-      <c r="AD14" s="22"/>
+      <c r="AD14" s="22">
+        <v>2</v>
+      </c>
       <c r="AE14" s="20"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
@@ -2519,20 +2543,20 @@
       <c r="BR14" s="22"/>
       <c r="BS14" s="20"/>
     </row>
-    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65">
+    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66">
         <v>6</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="67">
         <v>3</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2575,12 +2599,12 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="10"/>
     </row>
-    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="65"/>
-      <c r="B16" s="75"/>
+    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2650,18 +2674,18 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="13"/>
     </row>
-    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="65">
+    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66">
         <v>7</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="72">
+      <c r="D17" s="79">
         <v>4</v>
       </c>
-      <c r="E17" s="70"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2704,12 +2728,12 @@
       <c r="BR17" s="19"/>
       <c r="BS17" s="17"/>
     </row>
-    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
-      <c r="B18" s="71"/>
+    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2779,8 +2803,8 @@
       <c r="BR18" s="22"/>
       <c r="BS18" s="20"/>
     </row>
-    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65">
+    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -2789,10 +2813,10 @@
       <c r="C19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="67">
         <v>8</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2840,14 +2864,14 @@
       <c r="BR19" s="12"/>
       <c r="BS19" s="10"/>
     </row>
-    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2917,20 +2941,20 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="13"/>
     </row>
-    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65">
+    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66">
         <v>7</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="79">
         <v>4</v>
       </c>
-      <c r="E21" s="86"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="31" t="s">
         <v>1</v>
       </c>
@@ -2973,12 +2997,12 @@
       <c r="BR21" s="19"/>
       <c r="BS21" s="17"/>
     </row>
-    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
-      <c r="B22" s="71"/>
+    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3048,20 +3072,20 @@
       <c r="BR22" s="22"/>
       <c r="BS22" s="20"/>
     </row>
-    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65">
+    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66">
         <v>8</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="67" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="67">
         <v>4</v>
       </c>
-      <c r="E23" s="74"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3104,12 +3128,12 @@
       <c r="BR23" s="12"/>
       <c r="BS23" s="10"/>
     </row>
-    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
-      <c r="B24" s="75"/>
+    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3179,20 +3203,20 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="13"/>
     </row>
-    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="65">
+    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
         <v>7</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="72" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="79">
         <v>4</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3235,12 +3259,12 @@
       <c r="BR25" s="19"/>
       <c r="BS25" s="17"/>
     </row>
-    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="65"/>
-      <c r="B26" s="71"/>
+    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3310,20 +3334,20 @@
       <c r="BR26" s="22"/>
       <c r="BS26" s="20"/>
     </row>
-    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65">
+    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
         <v>8</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="67">
         <v>4</v>
       </c>
-      <c r="E27" s="74"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3366,12 +3390,12 @@
       <c r="BR27" s="12"/>
       <c r="BS27" s="10"/>
     </row>
-    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
-      <c r="B28" s="75"/>
+    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3441,20 +3465,20 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="13"/>
     </row>
-    <row r="29" spans="1:71" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="65">
+    <row r="29" spans="1:71" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="66">
         <v>9</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="72" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="72">
         <v>12</v>
       </c>
-      <c r="E29" s="70"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3522,12 +3546,12 @@
       <c r="BR29" s="19"/>
       <c r="BS29" s="17"/>
     </row>
-    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
-      <c r="B30" s="71"/>
+    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3597,18 +3621,18 @@
       <c r="BR30" s="22"/>
       <c r="BS30" s="20"/>
     </row>
-    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65">
+    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="66">
         <v>10</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="74">
+      <c r="D31" s="67">
         <v>8</v>
       </c>
-      <c r="E31" s="74"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3656,12 +3680,12 @@
       <c r="BR31" s="12"/>
       <c r="BS31" s="10"/>
     </row>
-    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
-      <c r="B32" s="75"/>
+    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3731,18 +3755,18 @@
       <c r="BR32" s="15"/>
       <c r="BS32" s="13"/>
     </row>
-    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="65">
+    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66">
         <v>11</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="70">
+      <c r="D33" s="72">
         <v>8</v>
       </c>
-      <c r="E33" s="70"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3830,12 +3854,12 @@
       <c r="BR33" s="19"/>
       <c r="BS33" s="17"/>
     </row>
-    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="65"/>
-      <c r="B34" s="71"/>
+    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3905,18 +3929,18 @@
       <c r="BR34" s="22"/>
       <c r="BS34" s="20"/>
     </row>
-    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="65">
+    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66">
         <v>12</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="77" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="74">
+      <c r="D35" s="67">
         <v>2</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="29" t="s">
         <v>1</v>
       </c>
@@ -3956,12 +3980,12 @@
       <c r="BR35" s="12"/>
       <c r="BS35" s="10"/>
     </row>
-    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="65"/>
-      <c r="B36" s="85"/>
+    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="60"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4031,18 +4055,18 @@
       <c r="BR36" s="15"/>
       <c r="BS36" s="13"/>
     </row>
-    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65">
+    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66">
         <v>13</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="72" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="70">
+      <c r="D37" s="72">
         <v>6</v>
       </c>
-      <c r="E37" s="70"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4093,12 +4117,12 @@
       <c r="BR37" s="19"/>
       <c r="BS37" s="17"/>
     </row>
-    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="65"/>
-      <c r="B38" s="71"/>
+    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4168,18 +4192,18 @@
       <c r="BR38" s="22"/>
       <c r="BS38" s="20"/>
     </row>
-    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="65">
+    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66">
         <v>14</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="74">
+      <c r="D39" s="67">
         <v>4</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4227,12 +4251,12 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="10"/>
     </row>
-    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="65"/>
-      <c r="B40" s="75"/>
+    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4302,14 +4326,14 @@
       <c r="BR40" s="15"/>
       <c r="BS40" s="13"/>
     </row>
-    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="65">
+    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66">
         <v>15</v>
       </c>
-      <c r="B41" s="70"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="57"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4347,12 +4371,12 @@
       <c r="BR41" s="19"/>
       <c r="BS41" s="17"/>
     </row>
-    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="65"/>
-      <c r="B42" s="71"/>
+    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
       <c r="F42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4422,8 +4446,8 @@
       <c r="BR42" s="22"/>
       <c r="BS42" s="20"/>
     </row>
-    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="65">
+    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66">
         <v>16</v>
       </c>
       <c r="B43" s="49"/>
@@ -4467,8 +4491,8 @@
       <c r="BR43" s="12"/>
       <c r="BS43" s="10"/>
     </row>
-    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="65"/>
+    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
       <c r="D44" s="52"/>
@@ -4542,16 +4566,16 @@
       <c r="BR44" s="15"/>
       <c r="BS44" s="13"/>
     </row>
-    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="65">
+    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="66">
         <v>18</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="83" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="40"/>
       <c r="G45" s="41"/>
       <c r="H45" s="42"/>
@@ -4639,12 +4663,12 @@
       <c r="BR45" s="43"/>
       <c r="BS45" s="10"/>
     </row>
-    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="65"/>
-      <c r="B46" s="81"/>
+    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="46"/>
@@ -4712,16 +4736,16 @@
       <c r="BR46" s="47"/>
       <c r="BS46" s="13"/>
     </row>
-    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="65">
+    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="66">
         <v>19</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="72" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17"/>
       <c r="J47" s="19"/>
@@ -4757,12 +4781,12 @@
       <c r="BR47" s="19"/>
       <c r="BS47" s="17"/>
     </row>
-    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="65"/>
-      <c r="B48" s="71"/>
+    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="32"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
@@ -4830,16 +4854,16 @@
       <c r="BR48" s="22"/>
       <c r="BS48" s="20"/>
     </row>
-    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="65">
+    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66">
         <v>20</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="67" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="29"/>
       <c r="G49" s="10"/>
       <c r="J49" s="12"/>
@@ -4875,12 +4899,12 @@
       <c r="BR49" s="12"/>
       <c r="BS49" s="10"/>
     </row>
-    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="65"/>
-      <c r="B50" s="75"/>
+    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="30"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
@@ -4948,16 +4972,16 @@
       <c r="BR50" s="15"/>
       <c r="BS50" s="13"/>
     </row>
-    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="65">
+    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="66">
         <v>21</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="72" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="31"/>
       <c r="G51" s="17"/>
       <c r="J51" s="19"/>
@@ -4993,12 +5017,12 @@
       <c r="BR51" s="19"/>
       <c r="BS51" s="17"/>
     </row>
-    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="65"/>
-      <c r="B52" s="71"/>
+    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="32"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
@@ -5066,16 +5090,16 @@
       <c r="BR52" s="22"/>
       <c r="BS52" s="20"/>
     </row>
-    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="65">
+    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66">
         <v>22</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="67" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="29"/>
       <c r="G53" s="10"/>
       <c r="J53" s="12"/>
@@ -5111,12 +5135,12 @@
       <c r="BR53" s="12"/>
       <c r="BS53" s="10"/>
     </row>
-    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="65"/>
-      <c r="B54" s="75"/>
+    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="30"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
@@ -5184,16 +5208,16 @@
       <c r="BR54" s="15"/>
       <c r="BS54" s="13"/>
     </row>
-    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="65">
+    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66">
         <v>23</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="72" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="31"/>
       <c r="G55" s="17"/>
       <c r="J55" s="19"/>
@@ -5229,12 +5253,12 @@
       <c r="BR55" s="19"/>
       <c r="BS55" s="17"/>
     </row>
-    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="65"/>
-      <c r="B56" s="71"/>
+    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="66"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="32"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
@@ -5302,16 +5326,16 @@
       <c r="BR56" s="22"/>
       <c r="BS56" s="20"/>
     </row>
-    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="65">
+    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
         <v>24</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="29"/>
       <c r="G57" s="10"/>
       <c r="J57" s="12"/>
@@ -5347,12 +5371,12 @@
       <c r="BR57" s="12"/>
       <c r="BS57" s="10"/>
     </row>
-    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="65"/>
-      <c r="B58" s="75"/>
+    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="56"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="30"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
@@ -5420,16 +5444,16 @@
       <c r="BR58" s="15"/>
       <c r="BS58" s="13"/>
     </row>
-    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="65">
+    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="66">
         <v>25</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="72" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="31"/>
       <c r="G59" s="17"/>
       <c r="J59" s="19"/>
@@ -5465,12 +5489,12 @@
       <c r="BR59" s="19"/>
       <c r="BS59" s="17"/>
     </row>
-    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="65"/>
-      <c r="B60" s="71"/>
+    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="32"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
@@ -5538,16 +5562,16 @@
       <c r="BR60" s="22"/>
       <c r="BS60" s="20"/>
     </row>
-    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="65">
+    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66">
         <v>26</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="29"/>
       <c r="G61" s="10"/>
       <c r="J61" s="12"/>
@@ -5583,12 +5607,12 @@
       <c r="BR61" s="12"/>
       <c r="BS61" s="10"/>
     </row>
-    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="65"/>
-      <c r="B62" s="75"/>
+    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="30"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
@@ -5656,16 +5680,16 @@
       <c r="BR62" s="15"/>
       <c r="BS62" s="13"/>
     </row>
-    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65">
+    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66">
         <v>27</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
       <c r="F63" s="31"/>
       <c r="G63" s="17"/>
       <c r="J63" s="19"/>
@@ -5701,12 +5725,12 @@
       <c r="BR63" s="19"/>
       <c r="BS63" s="17"/>
     </row>
-    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="65"/>
-      <c r="B64" s="71"/>
+    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="32"/>
       <c r="G64" s="20"/>
       <c r="H64" s="21"/>
@@ -5774,16 +5798,16 @@
       <c r="BR64" s="22"/>
       <c r="BS64" s="20"/>
     </row>
-    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="65">
+    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66">
         <v>28</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="67" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="29"/>
       <c r="G65" s="10"/>
       <c r="J65" s="12"/>
@@ -5819,12 +5843,12 @@
       <c r="BR65" s="12"/>
       <c r="BS65" s="10"/>
     </row>
-    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="65"/>
-      <c r="B66" s="75"/>
+    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="66"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="33"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
@@ -5892,7 +5916,7 @@
       <c r="BR66" s="15"/>
       <c r="BS66" s="13"/>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -5902,25 +5926,72 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="BK1:BN1"/>
@@ -5945,73 +6016,26 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="D21:E22"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="D17:E18"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:BR8 G25:BR44 G11:BR16 G46:BR64 G45:AW45 BD45:BR45 AY45:BB45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25610" windowHeight="16010"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -779,27 +779,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,22 +788,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,14 +809,44 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1355,73 +1355,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="3.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="3.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="3.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="5" customWidth="1"/>
-    <col min="20" max="21" width="3.140625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="5" customWidth="1"/>
-    <col min="24" max="25" width="3.140625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="3.140625" style="5" customWidth="1"/>
-    <col min="28" max="29" width="3.140625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="3.140625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="3.140625" style="5" customWidth="1"/>
-    <col min="32" max="33" width="3.140625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.140625" style="8" customWidth="1"/>
-    <col min="35" max="35" width="3.140625" style="5" customWidth="1"/>
-    <col min="36" max="37" width="3.140625" style="6" customWidth="1"/>
-    <col min="38" max="38" width="3.140625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="3.140625" style="5" customWidth="1"/>
-    <col min="40" max="41" width="3.140625" style="6" customWidth="1"/>
-    <col min="42" max="42" width="3.140625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="3.140625" style="5" customWidth="1"/>
-    <col min="44" max="45" width="3.140625" style="6" customWidth="1"/>
-    <col min="46" max="46" width="3.140625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="3.140625" style="5" customWidth="1"/>
-    <col min="48" max="49" width="3.140625" style="6" customWidth="1"/>
-    <col min="50" max="50" width="3.140625" style="8" customWidth="1"/>
-    <col min="51" max="51" width="3.140625" style="5" customWidth="1"/>
-    <col min="52" max="53" width="3.140625" style="6" customWidth="1"/>
-    <col min="54" max="54" width="3.140625" style="8" customWidth="1"/>
-    <col min="55" max="55" width="3.140625" style="5" customWidth="1"/>
-    <col min="56" max="57" width="3.140625" style="6" customWidth="1"/>
-    <col min="58" max="58" width="3.140625" style="8" customWidth="1"/>
-    <col min="59" max="59" width="3.140625" style="5" customWidth="1"/>
-    <col min="60" max="61" width="3.140625" style="6" customWidth="1"/>
-    <col min="62" max="62" width="3.140625" style="8" customWidth="1"/>
-    <col min="63" max="63" width="3.140625" style="5" customWidth="1"/>
-    <col min="64" max="65" width="3.140625" style="6" customWidth="1"/>
-    <col min="66" max="66" width="3.140625" style="8" customWidth="1"/>
-    <col min="67" max="67" width="3.140625" style="5" customWidth="1"/>
-    <col min="68" max="69" width="3.140625" style="6" customWidth="1"/>
-    <col min="70" max="70" width="3.140625" style="8" customWidth="1"/>
-    <col min="71" max="71" width="3.140625" style="5" customWidth="1"/>
-    <col min="72" max="72" width="2.7109375" customWidth="1"/>
-    <col min="73" max="73" width="2.42578125" customWidth="1"/>
-    <col min="74" max="74" width="2.140625" customWidth="1"/>
-    <col min="75" max="75" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.7265625" customWidth="1"/>
+    <col min="4" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1796875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.1796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" style="5" customWidth="1"/>
+    <col min="12" max="13" width="3.1796875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.1796875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.1796875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="3.1796875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.1796875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="5" customWidth="1"/>
+    <col min="20" max="21" width="3.1796875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="3.1796875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.1796875" style="5" customWidth="1"/>
+    <col min="24" max="25" width="3.1796875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.1796875" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3.1796875" style="5" customWidth="1"/>
+    <col min="28" max="29" width="3.1796875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="3.1796875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="3.1796875" style="5" customWidth="1"/>
+    <col min="32" max="33" width="3.1796875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.1796875" style="8" customWidth="1"/>
+    <col min="35" max="35" width="3.1796875" style="5" customWidth="1"/>
+    <col min="36" max="37" width="3.1796875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="3.1796875" style="8" customWidth="1"/>
+    <col min="39" max="39" width="3.1796875" style="5" customWidth="1"/>
+    <col min="40" max="41" width="3.1796875" style="6" customWidth="1"/>
+    <col min="42" max="42" width="3.1796875" style="8" customWidth="1"/>
+    <col min="43" max="43" width="3.1796875" style="5" customWidth="1"/>
+    <col min="44" max="45" width="3.1796875" style="6" customWidth="1"/>
+    <col min="46" max="46" width="3.1796875" style="8" customWidth="1"/>
+    <col min="47" max="47" width="3.1796875" style="5" customWidth="1"/>
+    <col min="48" max="49" width="3.1796875" style="6" customWidth="1"/>
+    <col min="50" max="50" width="3.1796875" style="8" customWidth="1"/>
+    <col min="51" max="51" width="3.1796875" style="5" customWidth="1"/>
+    <col min="52" max="53" width="3.1796875" style="6" customWidth="1"/>
+    <col min="54" max="54" width="3.1796875" style="8" customWidth="1"/>
+    <col min="55" max="55" width="3.1796875" style="5" customWidth="1"/>
+    <col min="56" max="57" width="3.1796875" style="6" customWidth="1"/>
+    <col min="58" max="58" width="3.1796875" style="8" customWidth="1"/>
+    <col min="59" max="59" width="3.1796875" style="5" customWidth="1"/>
+    <col min="60" max="61" width="3.1796875" style="6" customWidth="1"/>
+    <col min="62" max="62" width="3.1796875" style="8" customWidth="1"/>
+    <col min="63" max="63" width="3.1796875" style="5" customWidth="1"/>
+    <col min="64" max="65" width="3.1796875" style="6" customWidth="1"/>
+    <col min="66" max="66" width="3.1796875" style="8" customWidth="1"/>
+    <col min="67" max="67" width="3.1796875" style="5" customWidth="1"/>
+    <col min="68" max="69" width="3.1796875" style="6" customWidth="1"/>
+    <col min="70" max="70" width="3.1796875" style="8" customWidth="1"/>
+    <col min="71" max="71" width="3.1796875" style="5" customWidth="1"/>
+    <col min="72" max="72" width="2.7265625" customWidth="1"/>
+    <col min="73" max="73" width="2.453125" customWidth="1"/>
+    <col min="74" max="74" width="2.1796875" customWidth="1"/>
+    <col min="75" max="75" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1431,106 +1431,106 @@
         <v>3</v>
       </c>
       <c r="F1" s="35"/>
-      <c r="G1" s="74">
+      <c r="G1" s="67">
         <v>42031</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="74">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67">
         <v>42038</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="74">
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="67">
         <v>42045</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="74">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="67">
         <v>42052</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="74">
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="67">
         <v>42059</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="74">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="67">
         <v>42066</v>
       </c>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="74">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="67">
         <v>42073</v>
       </c>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="74">
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="67">
         <v>42080</v>
       </c>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="74">
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="67">
         <v>42087</v>
       </c>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="74">
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="67">
         <v>42115</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="74">
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="67">
         <v>42122</v>
       </c>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="74">
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="67">
         <v>42129</v>
       </c>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="74">
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="67">
         <v>42136</v>
       </c>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="74">
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="67">
         <v>42143</v>
       </c>
-      <c r="BH1" s="75"/>
-      <c r="BI1" s="75"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="74">
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="67">
         <v>42150</v>
       </c>
-      <c r="BL1" s="75"/>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="74">
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="67">
         <v>42157</v>
       </c>
-      <c r="BP1" s="75"/>
-      <c r="BQ1" s="75"/>
-      <c r="BR1" s="76"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="69"/>
       <c r="BS1" s="9"/>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="70"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1738,18 +1738,18 @@
       <c r="BT2" s="4"/>
       <c r="BU2" s="4"/>
     </row>
-    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="67">
+      <c r="D3" s="77">
         <v>4</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="BR3" s="12"/>
       <c r="BS3" s="10"/>
     </row>
-    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66"/>
-      <c r="B4" s="78"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1870,20 +1870,20 @@
       <c r="BR4" s="15"/>
       <c r="BS4" s="13"/>
     </row>
-    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="81">
         <v>4</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1926,12 +1926,12 @@
       <c r="BR5" s="19"/>
       <c r="BS5" s="17"/>
     </row>
-    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="66"/>
-      <c r="B6" s="73"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="32" t="s">
         <v>2</v>
       </c>
@@ -2005,20 +2005,20 @@
       <c r="BR6" s="22"/>
       <c r="BS6" s="20"/>
     </row>
-    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="66">
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="83">
         <v>4</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2061,12 +2061,12 @@
       <c r="BR7" s="12"/>
       <c r="BS7" s="10"/>
     </row>
-    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2142,20 +2142,20 @@
       <c r="BR8" s="15"/>
       <c r="BS8" s="13"/>
     </row>
-    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="81">
         <v>6</v>
       </c>
-      <c r="E9" s="72"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2200,12 +2200,12 @@
       <c r="BR9" s="19"/>
       <c r="BS9" s="17"/>
     </row>
-    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66"/>
-      <c r="B10" s="73"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2281,18 +2281,18 @@
       <c r="BR10" s="22"/>
       <c r="BS10" s="20"/>
     </row>
-    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="66">
         <v>4</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="69">
-        <v>1</v>
-      </c>
-      <c r="E11" s="70"/>
+      <c r="D11" s="83">
+        <v>1</v>
+      </c>
+      <c r="E11" s="84"/>
       <c r="F11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2333,12 +2333,12 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="10"/>
     </row>
-    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="66"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2410,20 +2410,20 @@
       <c r="BR12" s="15"/>
       <c r="BS12" s="13"/>
     </row>
-    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="66">
         <v>5</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="71">
         <v>4</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2466,12 +2466,12 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="66"/>
-      <c r="B14" s="88"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2501,9 @@
       <c r="AD14" s="22">
         <v>2</v>
       </c>
-      <c r="AE14" s="20"/>
+      <c r="AE14" s="20">
+        <v>2</v>
+      </c>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
       <c r="AH14" s="22"/>
@@ -2543,20 +2545,20 @@
       <c r="BR14" s="22"/>
       <c r="BS14" s="20"/>
     </row>
-    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66">
         <v>6</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="77">
         <v>3</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2599,12 +2601,12 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="10"/>
     </row>
-    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="66"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2633,9 +2635,15 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="13"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="15"/>
+      <c r="AF16" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>2</v>
+      </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
@@ -2674,18 +2682,18 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="13"/>
     </row>
-    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="66">
         <v>7</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="79">
+      <c r="D17" s="81">
         <v>4</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2728,12 +2736,12 @@
       <c r="BR17" s="19"/>
       <c r="BS17" s="17"/>
     </row>
-    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2811,7 @@
       <c r="BR18" s="22"/>
       <c r="BS18" s="20"/>
     </row>
-    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="66">
         <v>8</v>
       </c>
@@ -2813,10 +2821,10 @@
       <c r="C19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="77">
         <v>8</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2864,14 +2872,14 @@
       <c r="BR19" s="12"/>
       <c r="BS19" s="10"/>
     </row>
-    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="66"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2941,20 +2949,20 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="13"/>
     </row>
-    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="66">
         <v>7</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="81">
         <v>4</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="31" t="s">
         <v>1</v>
       </c>
@@ -2997,12 +3005,12 @@
       <c r="BR21" s="19"/>
       <c r="BS21" s="17"/>
     </row>
-    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="66"/>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3072,20 +3080,20 @@
       <c r="BR22" s="22"/>
       <c r="BS22" s="20"/>
     </row>
-    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="66">
         <v>8</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="77" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="77">
         <v>4</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3128,12 +3136,12 @@
       <c r="BR23" s="12"/>
       <c r="BS23" s="10"/>
     </row>
-    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66"/>
-      <c r="B24" s="68"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3203,20 +3211,20 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="13"/>
     </row>
-    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="66">
         <v>7</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="81">
         <v>4</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3259,12 +3267,12 @@
       <c r="BR25" s="19"/>
       <c r="BS25" s="17"/>
     </row>
-    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="66"/>
-      <c r="B26" s="73"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3334,20 +3342,20 @@
       <c r="BR26" s="22"/>
       <c r="BS26" s="20"/>
     </row>
-    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66">
         <v>8</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="77">
         <v>4</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3390,12 +3398,12 @@
       <c r="BR27" s="12"/>
       <c r="BS27" s="10"/>
     </row>
-    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="66"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3465,20 +3473,20 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="13"/>
     </row>
-    <row r="29" spans="1:71" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="66">
         <v>9</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="71">
         <v>12</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3546,12 +3554,12 @@
       <c r="BR29" s="19"/>
       <c r="BS29" s="17"/>
     </row>
-    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="66"/>
-      <c r="B30" s="73"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3621,18 +3629,18 @@
       <c r="BR30" s="22"/>
       <c r="BS30" s="20"/>
     </row>
-    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="66">
         <v>10</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="77" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="67">
+      <c r="D31" s="77">
         <v>8</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3680,12 +3688,12 @@
       <c r="BR31" s="12"/>
       <c r="BS31" s="10"/>
     </row>
-    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="66"/>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3755,18 +3763,18 @@
       <c r="BR32" s="15"/>
       <c r="BS32" s="13"/>
     </row>
-    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="66">
         <v>11</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="72">
+      <c r="D33" s="71">
         <v>8</v>
       </c>
-      <c r="E33" s="72"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3854,12 +3862,12 @@
       <c r="BR33" s="19"/>
       <c r="BS33" s="17"/>
     </row>
-    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="66"/>
-      <c r="B34" s="73"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3929,18 +3937,18 @@
       <c r="BR34" s="22"/>
       <c r="BS34" s="20"/>
     </row>
-    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66">
         <v>12</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="67">
+      <c r="D35" s="77">
         <v>2</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="29" t="s">
         <v>1</v>
       </c>
@@ -3980,12 +3988,12 @@
       <c r="BR35" s="12"/>
       <c r="BS35" s="10"/>
     </row>
-    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66"/>
-      <c r="B36" s="78"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="60"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4055,18 +4063,18 @@
       <c r="BR36" s="15"/>
       <c r="BS36" s="13"/>
     </row>
-    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="66">
         <v>13</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="72">
+      <c r="D37" s="71">
         <v>6</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4117,12 +4125,12 @@
       <c r="BR37" s="19"/>
       <c r="BS37" s="17"/>
     </row>
-    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="66"/>
-      <c r="B38" s="73"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4192,18 +4200,18 @@
       <c r="BR38" s="22"/>
       <c r="BS38" s="20"/>
     </row>
-    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="66">
         <v>14</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="77" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="67">
+      <c r="D39" s="77">
         <v>4</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4251,12 +4259,12 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="10"/>
     </row>
-    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="66"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4326,14 +4334,14 @@
       <c r="BR40" s="15"/>
       <c r="BS40" s="13"/>
     </row>
-    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="66">
         <v>15</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="57"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4371,12 +4379,12 @@
       <c r="BR41" s="19"/>
       <c r="BS41" s="17"/>
     </row>
-    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="66"/>
-      <c r="B42" s="73"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4446,7 +4454,7 @@
       <c r="BR42" s="22"/>
       <c r="BS42" s="20"/>
     </row>
-    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="66">
         <v>16</v>
       </c>
@@ -4491,7 +4499,7 @@
       <c r="BR43" s="12"/>
       <c r="BS43" s="10"/>
     </row>
-    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="66"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
@@ -4566,16 +4574,16 @@
       <c r="BR44" s="15"/>
       <c r="BS44" s="13"/>
     </row>
-    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="66">
         <v>18</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="40"/>
       <c r="G45" s="41"/>
       <c r="H45" s="42"/>
@@ -4663,12 +4671,12 @@
       <c r="BR45" s="43"/>
       <c r="BS45" s="10"/>
     </row>
-    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="66"/>
-      <c r="B46" s="84"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="46"/>
@@ -4736,16 +4744,16 @@
       <c r="BR46" s="47"/>
       <c r="BS46" s="13"/>
     </row>
-    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="66">
         <v>19</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17"/>
       <c r="J47" s="19"/>
@@ -4781,12 +4789,12 @@
       <c r="BR47" s="19"/>
       <c r="BS47" s="17"/>
     </row>
-    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="66"/>
-      <c r="B48" s="73"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="32"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
@@ -4854,16 +4862,16 @@
       <c r="BR48" s="22"/>
       <c r="BS48" s="20"/>
     </row>
-    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="66">
         <v>20</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="29"/>
       <c r="G49" s="10"/>
       <c r="J49" s="12"/>
@@ -4899,12 +4907,12 @@
       <c r="BR49" s="12"/>
       <c r="BS49" s="10"/>
     </row>
-    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="66"/>
-      <c r="B50" s="68"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="30"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
@@ -4972,16 +4980,16 @@
       <c r="BR50" s="15"/>
       <c r="BS50" s="13"/>
     </row>
-    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="66">
         <v>21</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="31"/>
       <c r="G51" s="17"/>
       <c r="J51" s="19"/>
@@ -5017,12 +5025,12 @@
       <c r="BR51" s="19"/>
       <c r="BS51" s="17"/>
     </row>
-    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="66"/>
-      <c r="B52" s="73"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="32"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
@@ -5090,16 +5098,16 @@
       <c r="BR52" s="22"/>
       <c r="BS52" s="20"/>
     </row>
-    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="66">
         <v>22</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="77" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
       <c r="F53" s="29"/>
       <c r="G53" s="10"/>
       <c r="J53" s="12"/>
@@ -5135,12 +5143,12 @@
       <c r="BR53" s="12"/>
       <c r="BS53" s="10"/>
     </row>
-    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="66"/>
-      <c r="B54" s="68"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="30"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
@@ -5208,16 +5216,16 @@
       <c r="BR54" s="15"/>
       <c r="BS54" s="13"/>
     </row>
-    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66">
         <v>23</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="31"/>
       <c r="G55" s="17"/>
       <c r="J55" s="19"/>
@@ -5253,12 +5261,12 @@
       <c r="BR55" s="19"/>
       <c r="BS55" s="17"/>
     </row>
-    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="66"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="32"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
@@ -5326,16 +5334,16 @@
       <c r="BR56" s="22"/>
       <c r="BS56" s="20"/>
     </row>
-    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="66">
         <v>24</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="77" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="29"/>
       <c r="G57" s="10"/>
       <c r="J57" s="12"/>
@@ -5371,12 +5379,12 @@
       <c r="BR57" s="12"/>
       <c r="BS57" s="10"/>
     </row>
-    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="66"/>
-      <c r="B58" s="68"/>
+      <c r="B58" s="78"/>
       <c r="C58" s="56"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
       <c r="F58" s="30"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
@@ -5444,16 +5452,16 @@
       <c r="BR58" s="15"/>
       <c r="BS58" s="13"/>
     </row>
-    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="66">
         <v>25</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="31"/>
       <c r="G59" s="17"/>
       <c r="J59" s="19"/>
@@ -5489,12 +5497,12 @@
       <c r="BR59" s="19"/>
       <c r="BS59" s="17"/>
     </row>
-    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="66"/>
-      <c r="B60" s="73"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="32"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
@@ -5562,16 +5570,16 @@
       <c r="BR60" s="22"/>
       <c r="BS60" s="20"/>
     </row>
-    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="66">
         <v>26</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="29"/>
       <c r="G61" s="10"/>
       <c r="J61" s="12"/>
@@ -5607,12 +5615,12 @@
       <c r="BR61" s="12"/>
       <c r="BS61" s="10"/>
     </row>
-    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="66"/>
-      <c r="B62" s="68"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="30"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
@@ -5680,16 +5688,16 @@
       <c r="BR62" s="15"/>
       <c r="BS62" s="13"/>
     </row>
-    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="66">
         <v>27</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
       <c r="F63" s="31"/>
       <c r="G63" s="17"/>
       <c r="J63" s="19"/>
@@ -5725,12 +5733,12 @@
       <c r="BR63" s="19"/>
       <c r="BS63" s="17"/>
     </row>
-    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="66"/>
-      <c r="B64" s="73"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="32"/>
       <c r="G64" s="20"/>
       <c r="H64" s="21"/>
@@ -5798,16 +5806,16 @@
       <c r="BR64" s="22"/>
       <c r="BS64" s="20"/>
     </row>
-    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="66">
         <v>28</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="77" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
       <c r="F65" s="29"/>
       <c r="G65" s="10"/>
       <c r="J65" s="12"/>
@@ -5843,12 +5851,12 @@
       <c r="BR65" s="12"/>
       <c r="BS65" s="10"/>
     </row>
-    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="66"/>
-      <c r="B66" s="68"/>
+      <c r="B66" s="78"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
       <c r="F66" s="33"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
@@ -5916,7 +5924,7 @@
       <c r="BR66" s="15"/>
       <c r="BS66" s="13"/>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -5926,6 +5934,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:E62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A55:A56"/>
@@ -5950,92 +6044,6 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D17:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:BR8 G25:BR44 G11:BR16 G46:BR64 G45:AW45 BD45:BR45 AY45:BB45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25610" windowHeight="16010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -779,6 +779,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,13 +812,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,82 +845,46 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
@@ -1355,73 +1355,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" style="5" customWidth="1"/>
-    <col min="8" max="9" width="3.1796875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.1796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.1796875" style="5" customWidth="1"/>
-    <col min="12" max="13" width="3.1796875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.1796875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3.1796875" style="5" customWidth="1"/>
-    <col min="16" max="17" width="3.1796875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.1796875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="5" customWidth="1"/>
-    <col min="20" max="21" width="3.1796875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="3.1796875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.1796875" style="5" customWidth="1"/>
-    <col min="24" max="25" width="3.1796875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.1796875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="3.1796875" style="5" customWidth="1"/>
-    <col min="28" max="29" width="3.1796875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="3.1796875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="3.1796875" style="5" customWidth="1"/>
-    <col min="32" max="33" width="3.1796875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.1796875" style="8" customWidth="1"/>
-    <col min="35" max="35" width="3.1796875" style="5" customWidth="1"/>
-    <col min="36" max="37" width="3.1796875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="3.1796875" style="8" customWidth="1"/>
-    <col min="39" max="39" width="3.1796875" style="5" customWidth="1"/>
-    <col min="40" max="41" width="3.1796875" style="6" customWidth="1"/>
-    <col min="42" max="42" width="3.1796875" style="8" customWidth="1"/>
-    <col min="43" max="43" width="3.1796875" style="5" customWidth="1"/>
-    <col min="44" max="45" width="3.1796875" style="6" customWidth="1"/>
-    <col min="46" max="46" width="3.1796875" style="8" customWidth="1"/>
-    <col min="47" max="47" width="3.1796875" style="5" customWidth="1"/>
-    <col min="48" max="49" width="3.1796875" style="6" customWidth="1"/>
-    <col min="50" max="50" width="3.1796875" style="8" customWidth="1"/>
-    <col min="51" max="51" width="3.1796875" style="5" customWidth="1"/>
-    <col min="52" max="53" width="3.1796875" style="6" customWidth="1"/>
-    <col min="54" max="54" width="3.1796875" style="8" customWidth="1"/>
-    <col min="55" max="55" width="3.1796875" style="5" customWidth="1"/>
-    <col min="56" max="57" width="3.1796875" style="6" customWidth="1"/>
-    <col min="58" max="58" width="3.1796875" style="8" customWidth="1"/>
-    <col min="59" max="59" width="3.1796875" style="5" customWidth="1"/>
-    <col min="60" max="61" width="3.1796875" style="6" customWidth="1"/>
-    <col min="62" max="62" width="3.1796875" style="8" customWidth="1"/>
-    <col min="63" max="63" width="3.1796875" style="5" customWidth="1"/>
-    <col min="64" max="65" width="3.1796875" style="6" customWidth="1"/>
-    <col min="66" max="66" width="3.1796875" style="8" customWidth="1"/>
-    <col min="67" max="67" width="3.1796875" style="5" customWidth="1"/>
-    <col min="68" max="69" width="3.1796875" style="6" customWidth="1"/>
-    <col min="70" max="70" width="3.1796875" style="8" customWidth="1"/>
-    <col min="71" max="71" width="3.1796875" style="5" customWidth="1"/>
-    <col min="72" max="72" width="2.7265625" customWidth="1"/>
-    <col min="73" max="73" width="2.453125" customWidth="1"/>
-    <col min="74" max="74" width="2.1796875" customWidth="1"/>
-    <col min="75" max="75" width="2.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="3.1640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="3.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="5" customWidth="1"/>
+    <col min="20" max="21" width="3.1640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" style="5" customWidth="1"/>
+    <col min="24" max="25" width="3.1640625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.1640625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3.1640625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="3.1640625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="3.1640625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="3.1640625" style="5" customWidth="1"/>
+    <col min="32" max="33" width="3.1640625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.1640625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="3.1640625" style="5" customWidth="1"/>
+    <col min="36" max="37" width="3.1640625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="3.1640625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="3.1640625" style="5" customWidth="1"/>
+    <col min="40" max="41" width="3.1640625" style="6" customWidth="1"/>
+    <col min="42" max="42" width="3.1640625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="3.1640625" style="5" customWidth="1"/>
+    <col min="44" max="45" width="3.1640625" style="6" customWidth="1"/>
+    <col min="46" max="46" width="3.1640625" style="8" customWidth="1"/>
+    <col min="47" max="47" width="3.1640625" style="5" customWidth="1"/>
+    <col min="48" max="49" width="3.1640625" style="6" customWidth="1"/>
+    <col min="50" max="50" width="3.1640625" style="8" customWidth="1"/>
+    <col min="51" max="51" width="3.1640625" style="5" customWidth="1"/>
+    <col min="52" max="53" width="3.1640625" style="6" customWidth="1"/>
+    <col min="54" max="54" width="3.1640625" style="8" customWidth="1"/>
+    <col min="55" max="55" width="3.1640625" style="5" customWidth="1"/>
+    <col min="56" max="57" width="3.1640625" style="6" customWidth="1"/>
+    <col min="58" max="58" width="3.1640625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="3.1640625" style="5" customWidth="1"/>
+    <col min="60" max="61" width="3.1640625" style="6" customWidth="1"/>
+    <col min="62" max="62" width="3.1640625" style="8" customWidth="1"/>
+    <col min="63" max="63" width="3.1640625" style="5" customWidth="1"/>
+    <col min="64" max="65" width="3.1640625" style="6" customWidth="1"/>
+    <col min="66" max="66" width="3.1640625" style="8" customWidth="1"/>
+    <col min="67" max="67" width="3.1640625" style="5" customWidth="1"/>
+    <col min="68" max="69" width="3.1640625" style="6" customWidth="1"/>
+    <col min="70" max="70" width="3.1640625" style="8" customWidth="1"/>
+    <col min="71" max="71" width="3.1640625" style="5" customWidth="1"/>
+    <col min="72" max="72" width="2.6640625" customWidth="1"/>
+    <col min="73" max="73" width="2.5" customWidth="1"/>
+    <col min="74" max="74" width="2.1640625" customWidth="1"/>
+    <col min="75" max="75" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1431,106 +1431,106 @@
         <v>3</v>
       </c>
       <c r="F1" s="35"/>
-      <c r="G1" s="67">
+      <c r="G1" s="75">
         <v>42031</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="67">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="75">
         <v>42038</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="67">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="75">
         <v>42045</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="67">
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="75">
         <v>42052</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="67">
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="75">
         <v>42059</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="67">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="75">
         <v>42066</v>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="67">
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="75">
         <v>42073</v>
       </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="67">
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="75">
         <v>42080</v>
       </c>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="67">
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="75">
         <v>42087</v>
       </c>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="67">
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="75">
         <v>42115</v>
       </c>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="67">
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="75">
         <v>42122</v>
       </c>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="67">
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="75">
         <v>42129</v>
       </c>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="67">
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="75">
         <v>42136</v>
       </c>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="67">
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="75">
         <v>42143</v>
       </c>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="69"/>
-      <c r="BK1" s="67">
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="75">
         <v>42150</v>
       </c>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="69"/>
-      <c r="BO1" s="67">
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="77"/>
+      <c r="BO1" s="75">
         <v>42157</v>
       </c>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="69"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="77"/>
       <c r="BS1" s="9"/>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A2" s="89"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1738,18 +1738,18 @@
       <c r="BT2" s="4"/>
       <c r="BU2" s="4"/>
     </row>
-    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="77">
+      <c r="D3" s="67">
         <v>4</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="BR3" s="12"/>
       <c r="BS3" s="10"/>
     </row>
-    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="66"/>
-      <c r="B4" s="80"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1870,20 +1870,20 @@
       <c r="BR4" s="15"/>
       <c r="BS4" s="13"/>
     </row>
-    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" s="18" customFormat="1">
       <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="72" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="74">
         <v>4</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1926,12 +1926,12 @@
       <c r="BR5" s="19"/>
       <c r="BS5" s="17"/>
     </row>
-    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" s="23" customFormat="1">
       <c r="A6" s="66"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="32" t="s">
         <v>2</v>
       </c>
@@ -2005,20 +2005,20 @@
       <c r="BR6" s="22"/>
       <c r="BS6" s="20"/>
     </row>
-    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="66">
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="67" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="69">
         <v>4</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2061,12 +2061,12 @@
       <c r="BR7" s="12"/>
       <c r="BS7" s="10"/>
     </row>
-    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" s="16" customFormat="1">
       <c r="A8" s="66"/>
-      <c r="B8" s="78"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="85"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2142,20 +2142,20 @@
       <c r="BR8" s="15"/>
       <c r="BS8" s="13"/>
     </row>
-    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" s="18" customFormat="1">
       <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="74">
         <v>6</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2200,12 +2200,12 @@
       <c r="BR9" s="19"/>
       <c r="BS9" s="17"/>
     </row>
-    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" s="23" customFormat="1">
       <c r="A10" s="66"/>
-      <c r="B10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2281,18 +2281,18 @@
       <c r="BR10" s="22"/>
       <c r="BS10" s="20"/>
     </row>
-    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="66">
         <v>4</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="83">
-        <v>1</v>
-      </c>
-      <c r="E11" s="84"/>
+      <c r="D11" s="69">
+        <v>1</v>
+      </c>
+      <c r="E11" s="70"/>
       <c r="F11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2333,12 +2333,12 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="10"/>
     </row>
-    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" s="16" customFormat="1">
       <c r="A12" s="66"/>
-      <c r="B12" s="78"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2410,20 +2410,20 @@
       <c r="BR12" s="15"/>
       <c r="BS12" s="13"/>
     </row>
-    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="66">
         <v>5</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="72" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="72">
         <v>4</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2466,12 +2466,12 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" s="23" customFormat="1">
       <c r="A14" s="66"/>
-      <c r="B14" s="86"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2545,20 +2545,20 @@
       <c r="BR14" s="22"/>
       <c r="BS14" s="20"/>
     </row>
-    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="66">
         <v>6</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="67">
         <v>3</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2601,12 +2601,12 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="10"/>
     </row>
-    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" s="16" customFormat="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="78"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2682,18 +2682,18 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="13"/>
     </row>
-    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:71" s="18" customFormat="1">
       <c r="A17" s="66">
         <v>7</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="81">
+      <c r="D17" s="74">
         <v>4</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2736,12 +2736,12 @@
       <c r="BR17" s="19"/>
       <c r="BS17" s="17"/>
     </row>
-    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:71" s="23" customFormat="1">
       <c r="A18" s="66"/>
-      <c r="B18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2771,9 +2771,15 @@
       <c r="AD18" s="22"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="20"/>
+      <c r="AG18" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="22">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="20">
+        <v>2</v>
+      </c>
       <c r="AJ18" s="21"/>
       <c r="AK18" s="21"/>
       <c r="AL18" s="22"/>
@@ -2811,7 +2817,7 @@
       <c r="BR18" s="22"/>
       <c r="BS18" s="20"/>
     </row>
-    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:71" s="11" customFormat="1">
       <c r="A19" s="66">
         <v>8</v>
       </c>
@@ -2821,10 +2827,10 @@
       <c r="C19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="67">
         <v>8</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2872,14 +2878,14 @@
       <c r="BR19" s="12"/>
       <c r="BS19" s="10"/>
     </row>
-    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="66"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2912,10 +2918,18 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="13"/>
+      <c r="AJ20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="15">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>2</v>
+      </c>
       <c r="AN20" s="14"/>
       <c r="AO20" s="14"/>
       <c r="AP20" s="15"/>
@@ -2949,20 +2963,20 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="13"/>
     </row>
-    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:71" s="18" customFormat="1">
       <c r="A21" s="66">
         <v>7</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="74">
         <v>4</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="31" t="s">
         <v>1</v>
       </c>
@@ -3005,12 +3019,12 @@
       <c r="BR21" s="19"/>
       <c r="BS21" s="17"/>
     </row>
-    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:71" s="23" customFormat="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3047,8 +3061,12 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="22"/>
       <c r="AM22" s="20"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
+      <c r="AN22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="21">
+        <v>2</v>
+      </c>
       <c r="AP22" s="22"/>
       <c r="AQ22" s="20"/>
       <c r="AR22" s="21"/>
@@ -3080,20 +3098,20 @@
       <c r="BR22" s="22"/>
       <c r="BS22" s="20"/>
     </row>
-    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:71" s="11" customFormat="1">
       <c r="A23" s="66">
         <v>8</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="67" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="67">
         <v>4</v>
       </c>
-      <c r="E23" s="77"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3136,12 +3154,12 @@
       <c r="BR23" s="12"/>
       <c r="BS23" s="10"/>
     </row>
-    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:71" s="16" customFormat="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="78"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3198,9 @@
       <c r="AM24" s="13"/>
       <c r="AN24" s="14"/>
       <c r="AO24" s="14"/>
-      <c r="AP24" s="15"/>
+      <c r="AP24" s="15">
+        <v>2</v>
+      </c>
       <c r="AQ24" s="13"/>
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
@@ -3211,20 +3231,20 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="13"/>
     </row>
-    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:71" s="18" customFormat="1">
       <c r="A25" s="66">
         <v>7</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="72" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="74">
         <v>4</v>
       </c>
-      <c r="E25" s="71"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3267,12 +3287,12 @@
       <c r="BR25" s="19"/>
       <c r="BS25" s="17"/>
     </row>
-    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:71" s="23" customFormat="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3342,20 +3362,20 @@
       <c r="BR26" s="22"/>
       <c r="BS26" s="20"/>
     </row>
-    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:71" s="11" customFormat="1">
       <c r="A27" s="66">
         <v>8</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="67" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="67">
         <v>4</v>
       </c>
-      <c r="E27" s="77"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3398,12 +3418,12 @@
       <c r="BR27" s="12"/>
       <c r="BS27" s="10"/>
     </row>
-    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:71" s="16" customFormat="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="78"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3473,20 +3493,20 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="13"/>
     </row>
-    <row r="29" spans="1:71" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:71" s="18" customFormat="1" ht="28">
       <c r="A29" s="66">
         <v>9</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="72" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="72">
         <v>12</v>
       </c>
-      <c r="E29" s="71"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3554,12 +3574,12 @@
       <c r="BR29" s="19"/>
       <c r="BS29" s="17"/>
     </row>
-    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:71" s="23" customFormat="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="72"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3591,10 +3611,18 @@
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
       <c r="AH30" s="22"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="22"/>
+      <c r="AI30" s="20">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="22">
+        <v>2</v>
+      </c>
       <c r="AM30" s="20"/>
       <c r="AN30" s="21"/>
       <c r="AO30" s="21"/>
@@ -3629,18 +3657,18 @@
       <c r="BR30" s="22"/>
       <c r="BS30" s="20"/>
     </row>
-    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:71" s="11" customFormat="1">
       <c r="A31" s="66">
         <v>10</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="77">
+      <c r="D31" s="67">
         <v>8</v>
       </c>
-      <c r="E31" s="77"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3688,12 +3716,12 @@
       <c r="BR31" s="12"/>
       <c r="BS31" s="10"/>
     </row>
-    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:71" s="16" customFormat="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="78"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3732,7 +3760,9 @@
       <c r="AM32" s="13"/>
       <c r="AN32" s="14"/>
       <c r="AO32" s="14"/>
-      <c r="AP32" s="15"/>
+      <c r="AP32" s="15">
+        <v>2</v>
+      </c>
       <c r="AQ32" s="13"/>
       <c r="AR32" s="14"/>
       <c r="AS32" s="14"/>
@@ -3763,18 +3793,18 @@
       <c r="BR32" s="15"/>
       <c r="BS32" s="13"/>
     </row>
-    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:71" s="18" customFormat="1">
       <c r="A33" s="66">
         <v>11</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="71">
+      <c r="D33" s="72">
         <v>8</v>
       </c>
-      <c r="E33" s="71"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3862,12 +3892,12 @@
       <c r="BR33" s="19"/>
       <c r="BS33" s="17"/>
     </row>
-    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:71" s="23" customFormat="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="72"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3937,18 +3967,18 @@
       <c r="BR34" s="22"/>
       <c r="BS34" s="20"/>
     </row>
-    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="66">
         <v>12</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="78" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="77">
+      <c r="D35" s="67">
         <v>2</v>
       </c>
-      <c r="E35" s="77"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="29" t="s">
         <v>1</v>
       </c>
@@ -3988,12 +4018,12 @@
       <c r="BR35" s="12"/>
       <c r="BS35" s="10"/>
     </row>
-    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="80"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="60"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4063,18 +4093,18 @@
       <c r="BR36" s="15"/>
       <c r="BS36" s="13"/>
     </row>
-    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:71" s="18" customFormat="1">
       <c r="A37" s="66">
         <v>13</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="72" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="71">
+      <c r="D37" s="72">
         <v>6</v>
       </c>
-      <c r="E37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4125,12 +4155,12 @@
       <c r="BR37" s="19"/>
       <c r="BS37" s="17"/>
     </row>
-    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:71" s="23" customFormat="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4200,18 +4230,18 @@
       <c r="BR38" s="22"/>
       <c r="BS38" s="20"/>
     </row>
-    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:71" s="11" customFormat="1">
       <c r="A39" s="66">
         <v>14</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="77">
+      <c r="D39" s="67">
         <v>4</v>
       </c>
-      <c r="E39" s="77"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4259,12 +4289,12 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="10"/>
     </row>
-    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:71" s="16" customFormat="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="78"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4334,14 +4364,14 @@
       <c r="BR40" s="15"/>
       <c r="BS40" s="13"/>
     </row>
-    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:71" s="18" customFormat="1">
       <c r="A41" s="66">
         <v>15</v>
       </c>
-      <c r="B41" s="71"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="57"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4379,12 +4409,12 @@
       <c r="BR41" s="19"/>
       <c r="BS41" s="17"/>
     </row>
-    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:71" s="23" customFormat="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="72"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
       <c r="F42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +4484,7 @@
       <c r="BR42" s="22"/>
       <c r="BS42" s="20"/>
     </row>
-    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:71" s="11" customFormat="1">
       <c r="A43" s="66">
         <v>16</v>
       </c>
@@ -4499,7 +4529,7 @@
       <c r="BR43" s="12"/>
       <c r="BS43" s="10"/>
     </row>
-    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:71" s="16" customFormat="1">
       <c r="A44" s="66"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
@@ -4574,16 +4604,16 @@
       <c r="BR44" s="15"/>
       <c r="BS44" s="13"/>
     </row>
-    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:71" s="11" customFormat="1" ht="20">
       <c r="A45" s="66">
         <v>18</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="85" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="40"/>
       <c r="G45" s="41"/>
       <c r="H45" s="42"/>
@@ -4671,12 +4701,12 @@
       <c r="BR45" s="43"/>
       <c r="BS45" s="10"/>
     </row>
-    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:71" s="16" customFormat="1" ht="20">
       <c r="A46" s="66"/>
-      <c r="B46" s="74"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="46"/>
@@ -4744,16 +4774,16 @@
       <c r="BR46" s="47"/>
       <c r="BS46" s="13"/>
     </row>
-    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:71" s="18" customFormat="1">
       <c r="A47" s="66">
         <v>19</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="72" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17"/>
       <c r="J47" s="19"/>
@@ -4789,12 +4819,12 @@
       <c r="BR47" s="19"/>
       <c r="BS47" s="17"/>
     </row>
-    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:71" s="23" customFormat="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="72"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="32"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
@@ -4862,16 +4892,16 @@
       <c r="BR48" s="22"/>
       <c r="BS48" s="20"/>
     </row>
-    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:71" s="11" customFormat="1">
       <c r="A49" s="66">
         <v>20</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="67" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="29"/>
       <c r="G49" s="10"/>
       <c r="J49" s="12"/>
@@ -4907,12 +4937,12 @@
       <c r="BR49" s="12"/>
       <c r="BS49" s="10"/>
     </row>
-    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:71" s="16" customFormat="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="78"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="30"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
@@ -4980,16 +5010,16 @@
       <c r="BR50" s="15"/>
       <c r="BS50" s="13"/>
     </row>
-    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:71" s="18" customFormat="1">
       <c r="A51" s="66">
         <v>21</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="72" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="31"/>
       <c r="G51" s="17"/>
       <c r="J51" s="19"/>
@@ -5025,12 +5055,12 @@
       <c r="BR51" s="19"/>
       <c r="BS51" s="17"/>
     </row>
-    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:71" s="23" customFormat="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="72"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="32"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
@@ -5098,16 +5128,16 @@
       <c r="BR52" s="22"/>
       <c r="BS52" s="20"/>
     </row>
-    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:71" s="11" customFormat="1">
       <c r="A53" s="66">
         <v>22</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="67" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
       <c r="F53" s="29"/>
       <c r="G53" s="10"/>
       <c r="J53" s="12"/>
@@ -5143,12 +5173,12 @@
       <c r="BR53" s="12"/>
       <c r="BS53" s="10"/>
     </row>
-    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:71" s="16" customFormat="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="78"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="30"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
@@ -5216,16 +5246,16 @@
       <c r="BR54" s="15"/>
       <c r="BS54" s="13"/>
     </row>
-    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:71" s="18" customFormat="1">
       <c r="A55" s="66">
         <v>23</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="72" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="31"/>
       <c r="G55" s="17"/>
       <c r="J55" s="19"/>
@@ -5261,12 +5291,12 @@
       <c r="BR55" s="19"/>
       <c r="BS55" s="17"/>
     </row>
-    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:71" s="23" customFormat="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="72"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="32"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
@@ -5334,16 +5364,16 @@
       <c r="BR56" s="22"/>
       <c r="BS56" s="20"/>
     </row>
-    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:71" s="11" customFormat="1">
       <c r="A57" s="66">
         <v>24</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="67" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
       <c r="F57" s="29"/>
       <c r="G57" s="10"/>
       <c r="J57" s="12"/>
@@ -5379,12 +5409,12 @@
       <c r="BR57" s="12"/>
       <c r="BS57" s="10"/>
     </row>
-    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:71" s="16" customFormat="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="78"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="56"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="30"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
@@ -5452,16 +5482,16 @@
       <c r="BR58" s="15"/>
       <c r="BS58" s="13"/>
     </row>
-    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:71" s="18" customFormat="1">
       <c r="A59" s="66">
         <v>25</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="72" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="31"/>
       <c r="G59" s="17"/>
       <c r="J59" s="19"/>
@@ -5497,12 +5527,12 @@
       <c r="BR59" s="19"/>
       <c r="BS59" s="17"/>
     </row>
-    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:71" s="23" customFormat="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="72"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="32"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
@@ -5570,16 +5600,16 @@
       <c r="BR60" s="22"/>
       <c r="BS60" s="20"/>
     </row>
-    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:71" s="11" customFormat="1">
       <c r="A61" s="66">
         <v>26</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="29"/>
       <c r="G61" s="10"/>
       <c r="J61" s="12"/>
@@ -5615,12 +5645,12 @@
       <c r="BR61" s="12"/>
       <c r="BS61" s="10"/>
     </row>
-    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:71" s="16" customFormat="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="78"/>
+      <c r="B62" s="68"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="30"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
@@ -5688,16 +5718,16 @@
       <c r="BR62" s="15"/>
       <c r="BS62" s="13"/>
     </row>
-    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:71" s="18" customFormat="1">
       <c r="A63" s="66">
         <v>27</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="72" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
       <c r="F63" s="31"/>
       <c r="G63" s="17"/>
       <c r="J63" s="19"/>
@@ -5733,12 +5763,12 @@
       <c r="BR63" s="19"/>
       <c r="BS63" s="17"/>
     </row>
-    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:71" s="23" customFormat="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="72"/>
+      <c r="B64" s="73"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="32"/>
       <c r="G64" s="20"/>
       <c r="H64" s="21"/>
@@ -5806,16 +5836,16 @@
       <c r="BR64" s="22"/>
       <c r="BS64" s="20"/>
     </row>
-    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:71" s="11" customFormat="1">
       <c r="A65" s="66">
         <v>28</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="67" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
       <c r="F65" s="29"/>
       <c r="G65" s="10"/>
       <c r="J65" s="12"/>
@@ -5851,12 +5881,12 @@
       <c r="BR65" s="12"/>
       <c r="BS65" s="10"/>
     </row>
-    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:71" s="16" customFormat="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="78"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="33"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
@@ -5924,7 +5954,7 @@
       <c r="BR66" s="15"/>
       <c r="BS66" s="13"/>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:71">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -5934,26 +5964,72 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="BK1:BN1"/>
@@ -5978,72 +6054,26 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="D21:E22"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D17:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:BR8 G25:BR44 G11:BR16 G46:BR64 G45:AW45 BD45:BR45 AY45:BB45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
@@ -6094,7 +6124,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -779,30 +779,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,25 +788,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,46 +809,82 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
@@ -1355,73 +1355,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="3.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="3.1640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="3.1640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="3.1640625" style="5" customWidth="1"/>
-    <col min="20" max="21" width="3.1640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="3.1640625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="3.1640625" style="5" customWidth="1"/>
-    <col min="24" max="25" width="3.1640625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="3.1640625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="3.1640625" style="5" customWidth="1"/>
-    <col min="28" max="29" width="3.1640625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="3.1640625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="3.1640625" style="5" customWidth="1"/>
-    <col min="32" max="33" width="3.1640625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="3.1640625" style="8" customWidth="1"/>
-    <col min="35" max="35" width="3.1640625" style="5" customWidth="1"/>
-    <col min="36" max="37" width="3.1640625" style="6" customWidth="1"/>
-    <col min="38" max="38" width="3.1640625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="3.1640625" style="5" customWidth="1"/>
-    <col min="40" max="41" width="3.1640625" style="6" customWidth="1"/>
-    <col min="42" max="42" width="3.1640625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="3.1640625" style="5" customWidth="1"/>
-    <col min="44" max="45" width="3.1640625" style="6" customWidth="1"/>
-    <col min="46" max="46" width="3.1640625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="3.1640625" style="5" customWidth="1"/>
-    <col min="48" max="49" width="3.1640625" style="6" customWidth="1"/>
-    <col min="50" max="50" width="3.1640625" style="8" customWidth="1"/>
-    <col min="51" max="51" width="3.1640625" style="5" customWidth="1"/>
-    <col min="52" max="53" width="3.1640625" style="6" customWidth="1"/>
-    <col min="54" max="54" width="3.1640625" style="8" customWidth="1"/>
-    <col min="55" max="55" width="3.1640625" style="5" customWidth="1"/>
-    <col min="56" max="57" width="3.1640625" style="6" customWidth="1"/>
-    <col min="58" max="58" width="3.1640625" style="8" customWidth="1"/>
-    <col min="59" max="59" width="3.1640625" style="5" customWidth="1"/>
-    <col min="60" max="61" width="3.1640625" style="6" customWidth="1"/>
-    <col min="62" max="62" width="3.1640625" style="8" customWidth="1"/>
-    <col min="63" max="63" width="3.1640625" style="5" customWidth="1"/>
-    <col min="64" max="65" width="3.1640625" style="6" customWidth="1"/>
-    <col min="66" max="66" width="3.1640625" style="8" customWidth="1"/>
-    <col min="67" max="67" width="3.1640625" style="5" customWidth="1"/>
-    <col min="68" max="69" width="3.1640625" style="6" customWidth="1"/>
-    <col min="70" max="70" width="3.1640625" style="8" customWidth="1"/>
-    <col min="71" max="71" width="3.1640625" style="5" customWidth="1"/>
-    <col min="72" max="72" width="2.6640625" customWidth="1"/>
-    <col min="73" max="73" width="2.5" customWidth="1"/>
-    <col min="74" max="74" width="2.1640625" customWidth="1"/>
-    <col min="75" max="75" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="3.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="3.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="3.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="5" customWidth="1"/>
+    <col min="20" max="21" width="3.140625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" style="5" customWidth="1"/>
+    <col min="24" max="25" width="3.140625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="3.140625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3.140625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="3.140625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="3.140625" style="5" customWidth="1"/>
+    <col min="32" max="33" width="3.140625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" style="8" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="5" customWidth="1"/>
+    <col min="36" max="37" width="3.140625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="3.140625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="3.140625" style="5" customWidth="1"/>
+    <col min="40" max="41" width="3.140625" style="6" customWidth="1"/>
+    <col min="42" max="42" width="3.140625" style="8" customWidth="1"/>
+    <col min="43" max="43" width="3.140625" style="5" customWidth="1"/>
+    <col min="44" max="45" width="3.140625" style="6" customWidth="1"/>
+    <col min="46" max="46" width="3.140625" style="8" customWidth="1"/>
+    <col min="47" max="47" width="3.140625" style="5" customWidth="1"/>
+    <col min="48" max="49" width="3.140625" style="6" customWidth="1"/>
+    <col min="50" max="50" width="3.140625" style="8" customWidth="1"/>
+    <col min="51" max="51" width="3.140625" style="5" customWidth="1"/>
+    <col min="52" max="53" width="3.140625" style="6" customWidth="1"/>
+    <col min="54" max="54" width="3.140625" style="8" customWidth="1"/>
+    <col min="55" max="55" width="3.140625" style="5" customWidth="1"/>
+    <col min="56" max="57" width="3.140625" style="6" customWidth="1"/>
+    <col min="58" max="58" width="3.140625" style="8" customWidth="1"/>
+    <col min="59" max="59" width="3.140625" style="5" customWidth="1"/>
+    <col min="60" max="61" width="3.140625" style="6" customWidth="1"/>
+    <col min="62" max="62" width="3.140625" style="8" customWidth="1"/>
+    <col min="63" max="63" width="3.140625" style="5" customWidth="1"/>
+    <col min="64" max="65" width="3.140625" style="6" customWidth="1"/>
+    <col min="66" max="66" width="3.140625" style="8" customWidth="1"/>
+    <col min="67" max="67" width="3.140625" style="5" customWidth="1"/>
+    <col min="68" max="69" width="3.140625" style="6" customWidth="1"/>
+    <col min="70" max="70" width="3.140625" style="8" customWidth="1"/>
+    <col min="71" max="71" width="3.140625" style="5" customWidth="1"/>
+    <col min="72" max="72" width="2.7109375" customWidth="1"/>
+    <col min="73" max="73" width="2.42578125" customWidth="1"/>
+    <col min="74" max="74" width="2.140625" customWidth="1"/>
+    <col min="75" max="75" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:73" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1431,106 +1431,106 @@
         <v>3</v>
       </c>
       <c r="F1" s="35"/>
-      <c r="G1" s="75">
+      <c r="G1" s="67">
         <v>42031</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="75">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67">
         <v>42038</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="75">
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="67">
         <v>42045</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="75">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="67">
         <v>42052</v>
       </c>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="75">
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="67">
         <v>42059</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="75">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="67">
         <v>42066</v>
       </c>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="75">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="67">
         <v>42073</v>
       </c>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="75">
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="67">
         <v>42080</v>
       </c>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="75">
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="67">
         <v>42087</v>
       </c>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="75">
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="67">
         <v>42115</v>
       </c>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="75">
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="67">
         <v>42122</v>
       </c>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="75">
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="67">
         <v>42129</v>
       </c>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="75">
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="67">
         <v>42136</v>
       </c>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="75">
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="67">
         <v>42143</v>
       </c>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="75">
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="67">
         <v>42150</v>
       </c>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="75">
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="67">
         <v>42157</v>
       </c>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
-      <c r="BR1" s="77"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="69"/>
       <c r="BS1" s="9"/>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="89"/>
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1738,18 +1738,18 @@
       <c r="BT2" s="4"/>
       <c r="BU2" s="4"/>
     </row>
-    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="67">
+      <c r="D3" s="77">
         <v>4</v>
       </c>
-      <c r="E3" s="67"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="BR3" s="12"/>
       <c r="BS3" s="10"/>
     </row>
-    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:73" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
-      <c r="B4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1870,20 +1870,20 @@
       <c r="BR4" s="15"/>
       <c r="BS4" s="13"/>
     </row>
-    <row r="5" spans="1:73" s="18" customFormat="1">
+    <row r="5" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="81">
         <v>4</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1926,12 +1926,12 @@
       <c r="BR5" s="19"/>
       <c r="BS5" s="17"/>
     </row>
-    <row r="6" spans="1:73" s="23" customFormat="1">
+    <row r="6" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
-      <c r="B6" s="73"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="32" t="s">
         <v>2</v>
       </c>
@@ -2005,20 +2005,20 @@
       <c r="BR6" s="22"/>
       <c r="BS6" s="20"/>
     </row>
-    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="77" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="83">
         <v>4</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2061,12 +2061,12 @@
       <c r="BR7" s="12"/>
       <c r="BS7" s="10"/>
     </row>
-    <row r="8" spans="1:73" s="16" customFormat="1">
+    <row r="8" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2142,20 +2142,20 @@
       <c r="BR8" s="15"/>
       <c r="BS8" s="13"/>
     </row>
-    <row r="9" spans="1:73" s="18" customFormat="1">
+    <row r="9" spans="1:73" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="81">
         <v>6</v>
       </c>
-      <c r="E9" s="72"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2200,12 +2200,12 @@
       <c r="BR9" s="19"/>
       <c r="BS9" s="17"/>
     </row>
-    <row r="10" spans="1:73" s="23" customFormat="1">
+    <row r="10" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
-      <c r="B10" s="73"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2281,18 +2281,18 @@
       <c r="BR10" s="22"/>
       <c r="BS10" s="20"/>
     </row>
-    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66">
         <v>4</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="77" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="69">
-        <v>1</v>
-      </c>
-      <c r="E11" s="70"/>
+      <c r="D11" s="83">
+        <v>1</v>
+      </c>
+      <c r="E11" s="84"/>
       <c r="F11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2333,12 +2333,12 @@
       <c r="BR11" s="12"/>
       <c r="BS11" s="10"/>
     </row>
-    <row r="12" spans="1:73" s="16" customFormat="1">
+    <row r="12" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2410,20 +2410,20 @@
       <c r="BR12" s="15"/>
       <c r="BS12" s="13"/>
     </row>
-    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:73" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
         <v>5</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="71">
         <v>4</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2466,12 +2466,12 @@
       <c r="BR13" s="19"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="1:73" s="23" customFormat="1">
+    <row r="14" spans="1:73" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
-      <c r="B14" s="84"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2545,20 +2545,20 @@
       <c r="BR14" s="22"/>
       <c r="BS14" s="20"/>
     </row>
-    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:73" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66">
         <v>6</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="77">
         <v>3</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2601,12 +2601,12 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="10"/>
     </row>
-    <row r="16" spans="1:73" s="16" customFormat="1">
+    <row r="16" spans="1:73" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2682,18 +2682,18 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="13"/>
     </row>
-    <row r="17" spans="1:71" s="18" customFormat="1">
+    <row r="17" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66">
         <v>7</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="74">
+      <c r="D17" s="81">
         <v>4</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2736,12 +2736,12 @@
       <c r="BR17" s="19"/>
       <c r="BS17" s="17"/>
     </row>
-    <row r="18" spans="1:71" s="23" customFormat="1">
+    <row r="18" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="BR18" s="22"/>
       <c r="BS18" s="20"/>
     </row>
-    <row r="19" spans="1:71" s="11" customFormat="1">
+    <row r="19" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66">
         <v>8</v>
       </c>
@@ -2827,10 +2827,10 @@
       <c r="C19" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="77">
         <v>8</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2878,14 +2878,14 @@
       <c r="BR19" s="12"/>
       <c r="BS19" s="10"/>
     </row>
-    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="30" t="s">
         <v>2</v>
       </c>
@@ -2963,20 +2963,20 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="13"/>
     </row>
-    <row r="21" spans="1:71" s="18" customFormat="1">
+    <row r="21" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66">
         <v>7</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="81">
         <v>4</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="31" t="s">
         <v>1</v>
       </c>
@@ -3019,12 +3019,12 @@
       <c r="BR21" s="19"/>
       <c r="BS21" s="17"/>
     </row>
-    <row r="22" spans="1:71" s="23" customFormat="1">
+    <row r="22" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3098,20 +3098,20 @@
       <c r="BR22" s="22"/>
       <c r="BS22" s="20"/>
     </row>
-    <row r="23" spans="1:71" s="11" customFormat="1">
+    <row r="23" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <v>8</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="77" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="77">
         <v>4</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3154,12 +3154,12 @@
       <c r="BR23" s="12"/>
       <c r="BS23" s="10"/>
     </row>
-    <row r="24" spans="1:71" s="16" customFormat="1">
+    <row r="24" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
-      <c r="B24" s="68"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3231,20 +3231,20 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="13"/>
     </row>
-    <row r="25" spans="1:71" s="18" customFormat="1">
+    <row r="25" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
         <v>7</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="81">
         <v>4</v>
       </c>
-      <c r="E25" s="72"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3287,12 +3287,12 @@
       <c r="BR25" s="19"/>
       <c r="BS25" s="17"/>
     </row>
-    <row r="26" spans="1:71" s="23" customFormat="1">
+    <row r="26" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
-      <c r="B26" s="73"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3332,10 +3332,18 @@
       <c r="AN26" s="21"/>
       <c r="AO26" s="21"/>
       <c r="AP26" s="22"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="21"/>
-      <c r="AS26" s="21"/>
-      <c r="AT26" s="22"/>
+      <c r="AQ26" s="20">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="22">
+        <v>2</v>
+      </c>
       <c r="AU26" s="20"/>
       <c r="AV26" s="21"/>
       <c r="AW26" s="21"/>
@@ -3362,20 +3370,20 @@
       <c r="BR26" s="22"/>
       <c r="BS26" s="20"/>
     </row>
-    <row r="27" spans="1:71" s="11" customFormat="1">
+    <row r="27" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66">
         <v>8</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="77">
         <v>4</v>
       </c>
-      <c r="E27" s="67"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3418,12 +3426,12 @@
       <c r="BR27" s="12"/>
       <c r="BS27" s="10"/>
     </row>
-    <row r="28" spans="1:71" s="16" customFormat="1">
+    <row r="28" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
-      <c r="B28" s="68"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3493,20 +3501,20 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="13"/>
     </row>
-    <row r="29" spans="1:71" s="18" customFormat="1" ht="28">
+    <row r="29" spans="1:71" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="66">
         <v>9</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="71">
         <v>12</v>
       </c>
-      <c r="E29" s="72"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3574,12 +3582,12 @@
       <c r="BR29" s="19"/>
       <c r="BS29" s="17"/>
     </row>
-    <row r="30" spans="1:71" s="23" customFormat="1">
+    <row r="30" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
-      <c r="B30" s="73"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3657,18 +3665,18 @@
       <c r="BR30" s="22"/>
       <c r="BS30" s="20"/>
     </row>
-    <row r="31" spans="1:71" s="11" customFormat="1">
+    <row r="31" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66">
         <v>10</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="77" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="67">
+      <c r="D31" s="77">
         <v>8</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3716,12 +3724,12 @@
       <c r="BR31" s="12"/>
       <c r="BS31" s="10"/>
     </row>
-    <row r="32" spans="1:71" s="16" customFormat="1">
+    <row r="32" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
-      <c r="B32" s="68"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3793,18 +3801,18 @@
       <c r="BR32" s="15"/>
       <c r="BS32" s="13"/>
     </row>
-    <row r="33" spans="1:71" s="18" customFormat="1">
+    <row r="33" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66">
         <v>11</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="72">
+      <c r="D33" s="71">
         <v>8</v>
       </c>
-      <c r="E33" s="72"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="31" t="s">
         <v>1</v>
       </c>
@@ -3892,12 +3900,12 @@
       <c r="BR33" s="19"/>
       <c r="BS33" s="17"/>
     </row>
-    <row r="34" spans="1:71" s="23" customFormat="1">
+    <row r="34" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
-      <c r="B34" s="73"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="32" t="s">
         <v>2</v>
       </c>
@@ -3967,18 +3975,18 @@
       <c r="BR34" s="22"/>
       <c r="BS34" s="20"/>
     </row>
-    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1">
+    <row r="35" spans="1:71" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66">
         <v>12</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="67">
+      <c r="D35" s="77">
         <v>2</v>
       </c>
-      <c r="E35" s="67"/>
+      <c r="E35" s="77"/>
       <c r="F35" s="29" t="s">
         <v>1</v>
       </c>
@@ -4018,12 +4026,12 @@
       <c r="BR35" s="12"/>
       <c r="BS35" s="10"/>
     </row>
-    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:71" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
-      <c r="B36" s="79"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="60"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4093,18 +4101,18 @@
       <c r="BR36" s="15"/>
       <c r="BS36" s="13"/>
     </row>
-    <row r="37" spans="1:71" s="18" customFormat="1">
+    <row r="37" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66">
         <v>13</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="72">
+      <c r="D37" s="71">
         <v>6</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4155,12 +4163,12 @@
       <c r="BR37" s="19"/>
       <c r="BS37" s="17"/>
     </row>
-    <row r="38" spans="1:71" s="23" customFormat="1">
+    <row r="38" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
-      <c r="B38" s="73"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4230,18 +4238,18 @@
       <c r="BR38" s="22"/>
       <c r="BS38" s="20"/>
     </row>
-    <row r="39" spans="1:71" s="11" customFormat="1">
+    <row r="39" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66">
         <v>14</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="77" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="67">
+      <c r="D39" s="77">
         <v>4</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4289,12 +4297,12 @@
       <c r="BR39" s="12"/>
       <c r="BS39" s="10"/>
     </row>
-    <row r="40" spans="1:71" s="16" customFormat="1">
+    <row r="40" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4364,14 +4372,14 @@
       <c r="BR40" s="15"/>
       <c r="BS40" s="13"/>
     </row>
-    <row r="41" spans="1:71" s="18" customFormat="1">
+    <row r="41" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66">
         <v>15</v>
       </c>
-      <c r="B41" s="72"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="57"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4409,12 +4417,12 @@
       <c r="BR41" s="19"/>
       <c r="BS41" s="17"/>
     </row>
-    <row r="42" spans="1:71" s="23" customFormat="1">
+    <row r="42" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
-      <c r="B42" s="73"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4484,7 +4492,7 @@
       <c r="BR42" s="22"/>
       <c r="BS42" s="20"/>
     </row>
-    <row r="43" spans="1:71" s="11" customFormat="1">
+    <row r="43" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66">
         <v>16</v>
       </c>
@@ -4529,7 +4537,7 @@
       <c r="BR43" s="12"/>
       <c r="BS43" s="10"/>
     </row>
-    <row r="44" spans="1:71" s="16" customFormat="1">
+    <row r="44" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
@@ -4604,16 +4612,16 @@
       <c r="BR44" s="15"/>
       <c r="BS44" s="13"/>
     </row>
-    <row r="45" spans="1:71" s="11" customFormat="1" ht="20">
+    <row r="45" spans="1:71" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="66">
         <v>18</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="40"/>
       <c r="G45" s="41"/>
       <c r="H45" s="42"/>
@@ -4701,12 +4709,12 @@
       <c r="BR45" s="43"/>
       <c r="BS45" s="10"/>
     </row>
-    <row r="46" spans="1:71" s="16" customFormat="1" ht="20">
+    <row r="46" spans="1:71" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="66"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="62"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="44"/>
       <c r="G46" s="45"/>
       <c r="H46" s="46"/>
@@ -4774,16 +4782,16 @@
       <c r="BR46" s="47"/>
       <c r="BS46" s="13"/>
     </row>
-    <row r="47" spans="1:71" s="18" customFormat="1">
+    <row r="47" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="66">
         <v>19</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17"/>
       <c r="J47" s="19"/>
@@ -4819,12 +4827,12 @@
       <c r="BR47" s="19"/>
       <c r="BS47" s="17"/>
     </row>
-    <row r="48" spans="1:71" s="23" customFormat="1">
+    <row r="48" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="66"/>
-      <c r="B48" s="73"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="58"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="32"/>
       <c r="G48" s="20"/>
       <c r="H48" s="21"/>
@@ -4892,16 +4900,16 @@
       <c r="BR48" s="22"/>
       <c r="BS48" s="20"/>
     </row>
-    <row r="49" spans="1:71" s="11" customFormat="1">
+    <row r="49" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66">
         <v>20</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="29"/>
       <c r="G49" s="10"/>
       <c r="J49" s="12"/>
@@ -4937,12 +4945,12 @@
       <c r="BR49" s="12"/>
       <c r="BS49" s="10"/>
     </row>
-    <row r="50" spans="1:71" s="16" customFormat="1">
+    <row r="50" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
-      <c r="B50" s="68"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="30"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
@@ -5010,16 +5018,16 @@
       <c r="BR50" s="15"/>
       <c r="BS50" s="13"/>
     </row>
-    <row r="51" spans="1:71" s="18" customFormat="1">
+    <row r="51" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
         <v>21</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
       <c r="F51" s="31"/>
       <c r="G51" s="17"/>
       <c r="J51" s="19"/>
@@ -5055,12 +5063,12 @@
       <c r="BR51" s="19"/>
       <c r="BS51" s="17"/>
     </row>
-    <row r="52" spans="1:71" s="23" customFormat="1">
+    <row r="52" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="66"/>
-      <c r="B52" s="73"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="58"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="32"/>
       <c r="G52" s="20"/>
       <c r="H52" s="21"/>
@@ -5128,16 +5136,16 @@
       <c r="BR52" s="22"/>
       <c r="BS52" s="20"/>
     </row>
-    <row r="53" spans="1:71" s="11" customFormat="1">
+    <row r="53" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="66">
         <v>22</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="77" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
       <c r="F53" s="29"/>
       <c r="G53" s="10"/>
       <c r="J53" s="12"/>
@@ -5173,12 +5181,12 @@
       <c r="BR53" s="12"/>
       <c r="BS53" s="10"/>
     </row>
-    <row r="54" spans="1:71" s="16" customFormat="1">
+    <row r="54" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="66"/>
-      <c r="B54" s="68"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="30"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
@@ -5246,16 +5254,16 @@
       <c r="BR54" s="15"/>
       <c r="BS54" s="13"/>
     </row>
-    <row r="55" spans="1:71" s="18" customFormat="1">
+    <row r="55" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="66">
         <v>23</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="31"/>
       <c r="G55" s="17"/>
       <c r="J55" s="19"/>
@@ -5291,12 +5299,12 @@
       <c r="BR55" s="19"/>
       <c r="BS55" s="17"/>
     </row>
-    <row r="56" spans="1:71" s="23" customFormat="1">
+    <row r="56" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="66"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="58"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="32"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
@@ -5364,16 +5372,16 @@
       <c r="BR56" s="22"/>
       <c r="BS56" s="20"/>
     </row>
-    <row r="57" spans="1:71" s="11" customFormat="1">
+    <row r="57" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
         <v>24</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="77" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="29"/>
       <c r="G57" s="10"/>
       <c r="J57" s="12"/>
@@ -5409,12 +5417,12 @@
       <c r="BR57" s="12"/>
       <c r="BS57" s="10"/>
     </row>
-    <row r="58" spans="1:71" s="16" customFormat="1">
+    <row r="58" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66"/>
-      <c r="B58" s="68"/>
+      <c r="B58" s="78"/>
       <c r="C58" s="56"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
       <c r="F58" s="30"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
@@ -5482,16 +5490,16 @@
       <c r="BR58" s="15"/>
       <c r="BS58" s="13"/>
     </row>
-    <row r="59" spans="1:71" s="18" customFormat="1">
+    <row r="59" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
         <v>25</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="31"/>
       <c r="G59" s="17"/>
       <c r="J59" s="19"/>
@@ -5527,12 +5535,12 @@
       <c r="BR59" s="19"/>
       <c r="BS59" s="17"/>
     </row>
-    <row r="60" spans="1:71" s="23" customFormat="1">
+    <row r="60" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
-      <c r="B60" s="73"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="58"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="32"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
@@ -5600,16 +5608,16 @@
       <c r="BR60" s="22"/>
       <c r="BS60" s="20"/>
     </row>
-    <row r="61" spans="1:71" s="11" customFormat="1">
+    <row r="61" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66">
         <v>26</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="29"/>
       <c r="G61" s="10"/>
       <c r="J61" s="12"/>
@@ -5645,12 +5653,12 @@
       <c r="BR61" s="12"/>
       <c r="BS61" s="10"/>
     </row>
-    <row r="62" spans="1:71" s="16" customFormat="1">
+    <row r="62" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
-      <c r="B62" s="68"/>
+      <c r="B62" s="78"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="30"/>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
@@ -5718,16 +5726,16 @@
       <c r="BR62" s="15"/>
       <c r="BS62" s="13"/>
     </row>
-    <row r="63" spans="1:71" s="18" customFormat="1">
+    <row r="63" spans="1:71" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <v>27</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
       <c r="F63" s="31"/>
       <c r="G63" s="17"/>
       <c r="J63" s="19"/>
@@ -5763,12 +5771,12 @@
       <c r="BR63" s="19"/>
       <c r="BS63" s="17"/>
     </row>
-    <row r="64" spans="1:71" s="23" customFormat="1">
+    <row r="64" spans="1:71" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66"/>
-      <c r="B64" s="73"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="32"/>
       <c r="G64" s="20"/>
       <c r="H64" s="21"/>
@@ -5836,16 +5844,16 @@
       <c r="BR64" s="22"/>
       <c r="BS64" s="20"/>
     </row>
-    <row r="65" spans="1:71" s="11" customFormat="1">
+    <row r="65" spans="1:71" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66">
         <v>28</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="77" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
       <c r="F65" s="29"/>
       <c r="G65" s="10"/>
       <c r="J65" s="12"/>
@@ -5881,12 +5889,12 @@
       <c r="BR65" s="12"/>
       <c r="BS65" s="10"/>
     </row>
-    <row r="66" spans="1:71" s="16" customFormat="1">
+    <row r="66" spans="1:71" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
-      <c r="B66" s="68"/>
+      <c r="B66" s="78"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
       <c r="F66" s="33"/>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
@@ -5954,7 +5962,7 @@
       <c r="BR66" s="15"/>
       <c r="BS66" s="13"/>
     </row>
-    <row r="67" spans="1:71">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -5964,6 +5972,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:E62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A55:A56"/>
@@ -5988,92 +6082,6 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:E58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D17:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:BR8 G25:BR44 G11:BR16 G46:BR64 G45:AW45 BD45:BR45 AY45:BB45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -803,15 +803,75 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -821,28 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,45 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1400,74 +1400,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="BI37" sqref="BI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="3.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="5" customWidth="1"/>
-    <col min="13" max="14" width="3.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="5" customWidth="1"/>
-    <col min="17" max="18" width="3.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="5" customWidth="1"/>
-    <col min="21" max="22" width="3.140625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="3.140625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.140625" style="5" customWidth="1"/>
-    <col min="25" max="26" width="3.140625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.140625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.140625" style="5" customWidth="1"/>
-    <col min="29" max="30" width="3.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="3.140625" style="8" customWidth="1"/>
-    <col min="32" max="32" width="3.140625" style="5" customWidth="1"/>
-    <col min="33" max="34" width="3.140625" style="6" customWidth="1"/>
-    <col min="35" max="35" width="3.140625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" style="5" customWidth="1"/>
-    <col min="37" max="38" width="3.140625" style="6" customWidth="1"/>
-    <col min="39" max="39" width="3.140625" style="8" customWidth="1"/>
-    <col min="40" max="40" width="3.140625" style="5" customWidth="1"/>
-    <col min="41" max="42" width="3.140625" style="6" customWidth="1"/>
-    <col min="43" max="43" width="3.140625" style="8" customWidth="1"/>
-    <col min="44" max="44" width="3.140625" style="5" customWidth="1"/>
-    <col min="45" max="46" width="3.140625" style="6" customWidth="1"/>
-    <col min="47" max="47" width="3.140625" style="8" customWidth="1"/>
-    <col min="48" max="48" width="3.140625" style="5" customWidth="1"/>
-    <col min="49" max="50" width="3.140625" style="6" customWidth="1"/>
-    <col min="51" max="51" width="3.140625" style="8" customWidth="1"/>
-    <col min="52" max="52" width="3.140625" style="5" customWidth="1"/>
-    <col min="53" max="54" width="3.140625" style="6" customWidth="1"/>
-    <col min="55" max="55" width="3.140625" style="8" customWidth="1"/>
-    <col min="56" max="56" width="3.140625" style="5" customWidth="1"/>
-    <col min="57" max="58" width="3.140625" style="6" customWidth="1"/>
-    <col min="59" max="59" width="3.140625" style="8" customWidth="1"/>
-    <col min="60" max="60" width="3.140625" style="5" customWidth="1"/>
-    <col min="61" max="62" width="3.140625" style="6" customWidth="1"/>
-    <col min="63" max="63" width="3.140625" style="8" customWidth="1"/>
-    <col min="64" max="64" width="3.140625" style="5" customWidth="1"/>
-    <col min="65" max="66" width="3.140625" style="6" customWidth="1"/>
-    <col min="67" max="67" width="3.140625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="3.140625" style="5" customWidth="1"/>
-    <col min="69" max="70" width="3.140625" style="6" customWidth="1"/>
-    <col min="71" max="71" width="3.140625" style="8" customWidth="1"/>
-    <col min="72" max="72" width="3.140625" style="5" customWidth="1"/>
-    <col min="73" max="73" width="2.7109375" customWidth="1"/>
-    <col min="74" max="74" width="2.42578125" customWidth="1"/>
-    <col min="75" max="75" width="2.140625" customWidth="1"/>
-    <col min="76" max="76" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="3.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="3.1796875" style="5" customWidth="1"/>
+    <col min="13" max="14" width="3.1796875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="3.1796875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="3.1796875" style="5" customWidth="1"/>
+    <col min="17" max="18" width="3.1796875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="3.1796875" style="5" customWidth="1"/>
+    <col min="21" max="22" width="3.1796875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.1796875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.1796875" style="5" customWidth="1"/>
+    <col min="25" max="26" width="3.1796875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.1796875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" style="5" customWidth="1"/>
+    <col min="29" max="30" width="3.1796875" style="6" customWidth="1"/>
+    <col min="31" max="31" width="3.1796875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="3.1796875" style="5" customWidth="1"/>
+    <col min="33" max="34" width="3.1796875" style="6" customWidth="1"/>
+    <col min="35" max="35" width="3.1796875" style="8" customWidth="1"/>
+    <col min="36" max="36" width="3.1796875" style="5" customWidth="1"/>
+    <col min="37" max="38" width="3.1796875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="3.1796875" style="8" customWidth="1"/>
+    <col min="40" max="40" width="3.1796875" style="5" customWidth="1"/>
+    <col min="41" max="42" width="3.1796875" style="6" customWidth="1"/>
+    <col min="43" max="43" width="3.1796875" style="8" customWidth="1"/>
+    <col min="44" max="44" width="3.1796875" style="5" customWidth="1"/>
+    <col min="45" max="46" width="3.1796875" style="6" customWidth="1"/>
+    <col min="47" max="47" width="3.1796875" style="8" customWidth="1"/>
+    <col min="48" max="48" width="3.1796875" style="5" customWidth="1"/>
+    <col min="49" max="50" width="3.1796875" style="6" customWidth="1"/>
+    <col min="51" max="51" width="3.1796875" style="8" customWidth="1"/>
+    <col min="52" max="52" width="3.1796875" style="5" customWidth="1"/>
+    <col min="53" max="54" width="3.1796875" style="6" customWidth="1"/>
+    <col min="55" max="55" width="3.1796875" style="8" customWidth="1"/>
+    <col min="56" max="56" width="3.1796875" style="5" customWidth="1"/>
+    <col min="57" max="58" width="3.1796875" style="6" customWidth="1"/>
+    <col min="59" max="59" width="3.1796875" style="8" customWidth="1"/>
+    <col min="60" max="60" width="3.1796875" style="5" customWidth="1"/>
+    <col min="61" max="62" width="3.1796875" style="6" customWidth="1"/>
+    <col min="63" max="63" width="3.1796875" style="8" customWidth="1"/>
+    <col min="64" max="64" width="3.1796875" style="5" customWidth="1"/>
+    <col min="65" max="66" width="3.1796875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="3.1796875" style="8" customWidth="1"/>
+    <col min="68" max="68" width="3.1796875" style="5" customWidth="1"/>
+    <col min="69" max="70" width="3.1796875" style="6" customWidth="1"/>
+    <col min="71" max="71" width="3.1796875" style="8" customWidth="1"/>
+    <col min="72" max="72" width="3.1796875" style="5" customWidth="1"/>
+    <col min="73" max="73" width="2.7265625" customWidth="1"/>
+    <col min="74" max="74" width="2.453125" customWidth="1"/>
+    <col min="75" max="75" width="2.1796875" customWidth="1"/>
+    <col min="76" max="76" width="2.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1478,106 +1478,106 @@
         <v>3</v>
       </c>
       <c r="G1" s="35"/>
-      <c r="H1" s="83">
+      <c r="H1" s="81">
         <v>42031</v>
       </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="83">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="81">
         <v>42038</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="83">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="81">
         <v>42045</v>
       </c>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="83">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="81">
         <v>42052</v>
       </c>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="83">
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="81">
         <v>42059</v>
       </c>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="83">
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="81">
         <v>42066</v>
       </c>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="83">
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="81">
         <v>42073</v>
       </c>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="83">
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="81">
         <v>42080</v>
       </c>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="83">
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="81">
         <v>42087</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="83">
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="81">
         <v>42115</v>
       </c>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="83">
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="81">
         <v>42122</v>
       </c>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="83">
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="81">
         <v>42129</v>
       </c>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="83">
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="81">
         <v>42136</v>
       </c>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="85"/>
-      <c r="BH1" s="83">
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="81">
         <v>42143</v>
       </c>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="85"/>
-      <c r="BL1" s="83">
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="81">
         <v>42150</v>
       </c>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="85"/>
-      <c r="BP1" s="83">
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="81">
         <v>42157</v>
       </c>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="84"/>
-      <c r="BS1" s="85"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="83"/>
       <c r="BT1" s="9"/>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
+    <row r="2" spans="1:74" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="84"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1788,21 +1788,21 @@
       <c r="BU2" s="4"/>
       <c r="BV2" s="4"/>
     </row>
-    <row r="3" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74">
-        <v>1</v>
-      </c>
-      <c r="B3" s="86" t="s">
+    <row r="3" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="80">
+        <v>1</v>
+      </c>
+      <c r="B3" s="93" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="103">
+      <c r="D3" s="76">
         <v>4</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="91">
         <v>4</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1844,13 +1844,13 @@
       <c r="BS3" s="12"/>
       <c r="BT3" s="10"/>
     </row>
-    <row r="4" spans="1:74" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:74" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1924,23 +1924,23 @@
       <c r="BS4" s="15"/>
       <c r="BT4" s="13"/>
     </row>
-    <row r="5" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
-        <v>2</v>
-      </c>
-      <c r="B5" s="80" t="s">
+    <row r="5" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80">
+        <v>2</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="74">
         <v>4</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="95">
         <v>4</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1983,13 +1983,13 @@
       <c r="BS5" s="19"/>
       <c r="BT5" s="17"/>
     </row>
-    <row r="6" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="81"/>
+    <row r="6" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="80"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="32" t="s">
         <v>2</v>
       </c>
@@ -2063,23 +2063,23 @@
       <c r="BS6" s="22"/>
       <c r="BT6" s="20"/>
     </row>
-    <row r="7" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+    <row r="7" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80">
         <v>3</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="91" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="79">
         <v>6</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="97">
         <v>4</v>
       </c>
-      <c r="F7" s="78"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2122,13 +2122,13 @@
       <c r="BS7" s="12"/>
       <c r="BT7" s="10"/>
     </row>
-    <row r="8" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
+    <row r="8" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="80"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="79"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2204,23 +2204,23 @@
       <c r="BS8" s="15"/>
       <c r="BT8" s="13"/>
     </row>
-    <row r="9" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+    <row r="9" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="85" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="74">
         <v>6</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="95">
         <v>6</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2265,13 +2265,13 @@
       <c r="BS9" s="19"/>
       <c r="BT9" s="17"/>
     </row>
-    <row r="10" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="80"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2347,21 +2347,21 @@
       <c r="BS10" s="22"/>
       <c r="BT10" s="20"/>
     </row>
-    <row r="11" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74">
+    <row r="11" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="80">
         <v>4</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="103">
-        <v>1</v>
-      </c>
-      <c r="E11" s="77">
-        <v>1</v>
-      </c>
-      <c r="F11" s="78"/>
+      <c r="D11" s="76">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97">
+        <v>1</v>
+      </c>
+      <c r="F11" s="98"/>
       <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2402,13 +2402,13 @@
       <c r="BS11" s="12"/>
       <c r="BT11" s="10"/>
     </row>
-    <row r="12" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
+    <row r="12" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="80"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="79"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2480,23 +2480,23 @@
       <c r="BS12" s="15"/>
       <c r="BT12" s="13"/>
     </row>
-    <row r="13" spans="1:74" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+    <row r="13" spans="1:74" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="80">
         <v>5</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="85" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="74">
         <v>4</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="85">
         <v>4</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2539,13 +2539,13 @@
       <c r="BS13" s="19"/>
       <c r="BT13" s="17"/>
     </row>
-    <row r="14" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="92"/>
+    <row r="14" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="80"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2619,23 +2619,23 @@
       <c r="BS14" s="22"/>
       <c r="BT14" s="20"/>
     </row>
-    <row r="15" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+    <row r="15" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="80">
         <v>6</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="91" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="76">
         <v>6</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="91">
         <v>3</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2678,13 +2678,13 @@
       <c r="BS15" s="12"/>
       <c r="BT15" s="10"/>
     </row>
-    <row r="16" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
+    <row r="16" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="80"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2760,21 +2760,21 @@
       <c r="BS16" s="15"/>
       <c r="BT16" s="13"/>
     </row>
-    <row r="17" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
+    <row r="17" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="80">
         <v>7</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="85" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="98">
+      <c r="D17" s="74">
         <v>8</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="95">
         <v>4</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2817,13 +2817,13 @@
       <c r="BS17" s="19"/>
       <c r="BT17" s="17"/>
     </row>
-    <row r="18" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="81"/>
+    <row r="18" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="80"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2901,8 +2901,8 @@
       <c r="BS18" s="22"/>
       <c r="BT18" s="20"/>
     </row>
-    <row r="19" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+    <row r="19" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="80">
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -2911,13 +2911,13 @@
       <c r="C19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D19" s="76">
         <v>8</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="91">
         <v>8</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2965,15 +2965,15 @@
       <c r="BS19" s="12"/>
       <c r="BT19" s="10"/>
     </row>
-    <row r="20" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+    <row r="20" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="80"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="30" t="s">
         <v>2</v>
       </c>
@@ -3051,23 +3051,23 @@
       <c r="BS20" s="15"/>
       <c r="BT20" s="13"/>
     </row>
-    <row r="21" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
+    <row r="21" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="80">
         <v>7</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="85" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="74">
         <v>4</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="95">
         <v>4</v>
       </c>
-      <c r="F21" s="88"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="31" t="s">
         <v>1</v>
       </c>
@@ -3110,13 +3110,13 @@
       <c r="BS21" s="19"/>
       <c r="BT21" s="17"/>
     </row>
-    <row r="22" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="81"/>
+    <row r="22" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="80"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
       <c r="G22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3190,23 +3190,23 @@
       <c r="BS22" s="22"/>
       <c r="BT22" s="20"/>
     </row>
-    <row r="23" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74">
+    <row r="23" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80">
         <v>8</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="91" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="76">
         <v>1.5</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="91">
         <v>4</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3249,13 +3249,13 @@
       <c r="BS23" s="12"/>
       <c r="BT23" s="10"/>
     </row>
-    <row r="24" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="76"/>
+    <row r="24" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="80"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3327,23 +3327,23 @@
       <c r="BS24" s="15"/>
       <c r="BT24" s="13"/>
     </row>
-    <row r="25" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
+    <row r="25" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="80">
         <v>7</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="74">
         <v>8</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="95">
         <v>4</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3386,13 +3386,13 @@
       <c r="BS25" s="19"/>
       <c r="BT25" s="17"/>
     </row>
-    <row r="26" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="81"/>
+    <row r="26" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="80"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3470,23 +3470,23 @@
       <c r="BS26" s="22"/>
       <c r="BT26" s="20"/>
     </row>
-    <row r="27" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+    <row r="27" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="80">
         <v>8</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="91" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="103">
+      <c r="D27" s="76">
         <v>0</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="91">
         <v>4</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3529,13 +3529,13 @@
       <c r="BS27" s="12"/>
       <c r="BT27" s="10"/>
     </row>
-    <row r="28" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="76"/>
+    <row r="28" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="80"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3605,23 +3605,23 @@
       <c r="BS28" s="15"/>
       <c r="BT28" s="13"/>
     </row>
-    <row r="29" spans="1:72" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+    <row r="29" spans="1:72" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="80">
         <v>9</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="74">
         <v>14</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="85">
         <v>12</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3689,13 +3689,13 @@
       <c r="BS29" s="19"/>
       <c r="BT29" s="17"/>
     </row>
-    <row r="30" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="81"/>
+    <row r="30" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="80"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3793,21 +3793,21 @@
       <c r="BS30" s="22"/>
       <c r="BT30" s="20"/>
     </row>
-    <row r="31" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
+    <row r="31" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="80">
         <v>10</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="91" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="103">
+      <c r="D31" s="76">
         <v>5</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="91">
         <v>8</v>
       </c>
-      <c r="F31" s="75"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3855,13 +3855,13 @@
       <c r="BS31" s="12"/>
       <c r="BT31" s="10"/>
     </row>
-    <row r="32" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="76"/>
+    <row r="32" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="80"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3941,21 +3941,21 @@
       <c r="BS32" s="15"/>
       <c r="BT32" s="13"/>
     </row>
-    <row r="33" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+    <row r="33" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="80">
         <v>11</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="85" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="98">
+      <c r="D33" s="74">
         <v>18</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="85">
         <v>8</v>
       </c>
-      <c r="F33" s="80"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="31" t="s">
         <v>1</v>
       </c>
@@ -4043,13 +4043,13 @@
       <c r="BS33" s="19"/>
       <c r="BT33" s="17"/>
     </row>
-    <row r="34" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="81"/>
+    <row r="34" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="80"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="32" t="s">
         <v>2</v>
       </c>
@@ -4155,19 +4155,19 @@
       <c r="BS34" s="22"/>
       <c r="BT34" s="20"/>
     </row>
-    <row r="35" spans="1:72" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+    <row r="35" spans="1:72" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="80">
         <v>12</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="93" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="72"/>
-      <c r="E35" s="75">
-        <v>2</v>
-      </c>
-      <c r="F35" s="75"/>
+      <c r="E35" s="91">
+        <v>2</v>
+      </c>
+      <c r="F35" s="91"/>
       <c r="G35" s="29" t="s">
         <v>1</v>
       </c>
@@ -4207,13 +4207,13 @@
       <c r="BS35" s="12"/>
       <c r="BT35" s="10"/>
     </row>
-    <row r="36" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="87"/>
+    <row r="36" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="80"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="60"/>
       <c r="D36" s="73"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4283,19 +4283,19 @@
       <c r="BS36" s="15"/>
       <c r="BT36" s="13"/>
     </row>
-    <row r="37" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
+    <row r="37" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="80">
         <v>13</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="66"/>
-      <c r="E37" s="80">
+      <c r="E37" s="85">
         <v>6</v>
       </c>
-      <c r="F37" s="80"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4346,13 +4346,13 @@
       <c r="BS37" s="19"/>
       <c r="BT37" s="17"/>
     </row>
-    <row r="38" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="81"/>
+    <row r="38" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="80"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="58"/>
       <c r="D38" s="67"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4408,9 +4408,15 @@
       <c r="BE38" s="21"/>
       <c r="BF38" s="21"/>
       <c r="BG38" s="22"/>
-      <c r="BH38" s="20"/>
-      <c r="BI38" s="21"/>
-      <c r="BJ38" s="21"/>
+      <c r="BH38" s="20">
+        <v>2</v>
+      </c>
+      <c r="BI38" s="21">
+        <v>2</v>
+      </c>
+      <c r="BJ38" s="21">
+        <v>2</v>
+      </c>
       <c r="BK38" s="22"/>
       <c r="BL38" s="20"/>
       <c r="BM38" s="21"/>
@@ -4422,19 +4428,19 @@
       <c r="BS38" s="22"/>
       <c r="BT38" s="20"/>
     </row>
-    <row r="39" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+    <row r="39" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="80">
         <v>14</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="91" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="70"/>
-      <c r="E39" s="75">
+      <c r="E39" s="91">
         <v>4</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4482,13 +4488,13 @@
       <c r="BS39" s="12"/>
       <c r="BT39" s="10"/>
     </row>
-    <row r="40" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
+    <row r="40" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="80"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="56"/>
       <c r="D40" s="71"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4558,15 +4564,15 @@
       <c r="BS40" s="15"/>
       <c r="BT40" s="13"/>
     </row>
-    <row r="41" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="74">
+    <row r="41" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="80">
         <v>15</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="57"/>
       <c r="D41" s="66"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4604,13 +4610,13 @@
       <c r="BS41" s="19"/>
       <c r="BT41" s="17"/>
     </row>
-    <row r="42" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="81"/>
+    <row r="42" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="80"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="58"/>
       <c r="D42" s="67"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4680,8 +4686,8 @@
       <c r="BS42" s="22"/>
       <c r="BT42" s="20"/>
     </row>
-    <row r="43" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="74">
+    <row r="43" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="80">
         <v>16</v>
       </c>
       <c r="B43" s="49"/>
@@ -4726,8 +4732,8 @@
       <c r="BS43" s="12"/>
       <c r="BT43" s="10"/>
     </row>
-    <row r="44" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
+    <row r="44" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="80"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
       <c r="D44" s="73"/>
@@ -4802,17 +4808,17 @@
       <c r="BS44" s="15"/>
       <c r="BT44" s="13"/>
     </row>
-    <row r="45" spans="1:72" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+    <row r="45" spans="1:72" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="80">
         <v>18</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="87" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="68"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
       <c r="G45" s="40"/>
       <c r="H45" s="41"/>
       <c r="I45" s="42"/>
@@ -4900,13 +4906,13 @@
       <c r="BS45" s="43"/>
       <c r="BT45" s="10"/>
     </row>
-    <row r="46" spans="1:72" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="94"/>
+    <row r="46" spans="1:72" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="80"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="62"/>
       <c r="D46" s="69"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
       <c r="G46" s="44"/>
       <c r="H46" s="45"/>
       <c r="I46" s="46"/>
@@ -4974,17 +4980,17 @@
       <c r="BS46" s="47"/>
       <c r="BT46" s="13"/>
     </row>
-    <row r="47" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74">
+    <row r="47" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="80">
         <v>19</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="85" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="31"/>
       <c r="H47" s="17"/>
       <c r="K47" s="19"/>
@@ -5020,13 +5026,13 @@
       <c r="BS47" s="19"/>
       <c r="BT47" s="17"/>
     </row>
-    <row r="48" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="81"/>
+    <row r="48" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="80"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="58"/>
       <c r="D48" s="67"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="32"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
@@ -5094,17 +5100,17 @@
       <c r="BS48" s="22"/>
       <c r="BT48" s="20"/>
     </row>
-    <row r="49" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="74">
+    <row r="49" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="80">
         <v>20</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="91" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="70"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
       <c r="G49" s="29"/>
       <c r="H49" s="10"/>
       <c r="K49" s="12"/>
@@ -5140,13 +5146,13 @@
       <c r="BS49" s="12"/>
       <c r="BT49" s="10"/>
     </row>
-    <row r="50" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="76"/>
+    <row r="50" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="80"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="56"/>
       <c r="D50" s="71"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
       <c r="G50" s="30"/>
       <c r="H50" s="13"/>
       <c r="I50" s="14"/>
@@ -5214,17 +5220,17 @@
       <c r="BS50" s="15"/>
       <c r="BT50" s="13"/>
     </row>
-    <row r="51" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+    <row r="51" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="80">
         <v>21</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="85" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
       <c r="D51" s="66"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="31"/>
       <c r="H51" s="17"/>
       <c r="K51" s="19"/>
@@ -5260,13 +5266,13 @@
       <c r="BS51" s="19"/>
       <c r="BT51" s="17"/>
     </row>
-    <row r="52" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
-      <c r="B52" s="81"/>
+    <row r="52" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="80"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="58"/>
       <c r="D52" s="67"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
       <c r="G52" s="32"/>
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
@@ -5334,17 +5340,17 @@
       <c r="BS52" s="22"/>
       <c r="BT52" s="20"/>
     </row>
-    <row r="53" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74">
+    <row r="53" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="80">
         <v>22</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="91" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="70"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
       <c r="G53" s="29"/>
       <c r="H53" s="10"/>
       <c r="K53" s="12"/>
@@ -5380,13 +5386,13 @@
       <c r="BS53" s="12"/>
       <c r="BT53" s="10"/>
     </row>
-    <row r="54" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="76"/>
+    <row r="54" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="80"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="56"/>
       <c r="D54" s="71"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
       <c r="G54" s="30"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14"/>
@@ -5454,17 +5460,17 @@
       <c r="BS54" s="15"/>
       <c r="BT54" s="13"/>
     </row>
-    <row r="55" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="74">
+    <row r="55" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="80">
         <v>23</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="85" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
       <c r="D55" s="66"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="31"/>
       <c r="H55" s="17"/>
       <c r="K55" s="19"/>
@@ -5500,13 +5506,13 @@
       <c r="BS55" s="19"/>
       <c r="BT55" s="17"/>
     </row>
-    <row r="56" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="74"/>
-      <c r="B56" s="81"/>
+    <row r="56" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="80"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="58"/>
       <c r="D56" s="67"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
       <c r="G56" s="32"/>
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
@@ -5574,17 +5580,17 @@
       <c r="BS56" s="22"/>
       <c r="BT56" s="20"/>
     </row>
-    <row r="57" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+    <row r="57" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="80">
         <v>24</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="91" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="70"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
       <c r="G57" s="29"/>
       <c r="H57" s="10"/>
       <c r="K57" s="12"/>
@@ -5620,13 +5626,13 @@
       <c r="BS57" s="12"/>
       <c r="BT57" s="10"/>
     </row>
-    <row r="58" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
-      <c r="B58" s="76"/>
+    <row r="58" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="80"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="56"/>
       <c r="D58" s="71"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
       <c r="G58" s="30"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
@@ -5694,17 +5700,17 @@
       <c r="BS58" s="15"/>
       <c r="BT58" s="13"/>
     </row>
-    <row r="59" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="74">
+    <row r="59" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="80">
         <v>25</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="66"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
       <c r="G59" s="31"/>
       <c r="H59" s="17"/>
       <c r="K59" s="19"/>
@@ -5740,13 +5746,13 @@
       <c r="BS59" s="19"/>
       <c r="BT59" s="17"/>
     </row>
-    <row r="60" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
-      <c r="B60" s="81"/>
+    <row r="60" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="80"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="58"/>
       <c r="D60" s="67"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
       <c r="G60" s="32"/>
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
@@ -5814,17 +5820,17 @@
       <c r="BS60" s="22"/>
       <c r="BT60" s="20"/>
     </row>
-    <row r="61" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="74">
+    <row r="61" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="80">
         <v>26</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="91" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="70"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
       <c r="G61" s="29"/>
       <c r="H61" s="10"/>
       <c r="K61" s="12"/>
@@ -5860,13 +5866,13 @@
       <c r="BS61" s="12"/>
       <c r="BT61" s="10"/>
     </row>
-    <row r="62" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
+    <row r="62" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="80"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="56"/>
       <c r="D62" s="71"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="30"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
@@ -5934,17 +5940,17 @@
       <c r="BS62" s="15"/>
       <c r="BT62" s="13"/>
     </row>
-    <row r="63" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+    <row r="63" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="80">
         <v>27</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="85" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
       <c r="D63" s="66"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
       <c r="G63" s="31"/>
       <c r="H63" s="17"/>
       <c r="K63" s="19"/>
@@ -5980,13 +5986,13 @@
       <c r="BS63" s="19"/>
       <c r="BT63" s="17"/>
     </row>
-    <row r="64" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="74"/>
-      <c r="B64" s="81"/>
+    <row r="64" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="80"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="58"/>
       <c r="D64" s="67"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
       <c r="G64" s="32"/>
       <c r="H64" s="20"/>
       <c r="I64" s="21"/>
@@ -6054,17 +6060,17 @@
       <c r="BS64" s="22"/>
       <c r="BT64" s="20"/>
     </row>
-    <row r="65" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="74">
+    <row r="65" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="80">
         <v>28</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="91" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="70"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
       <c r="G65" s="29"/>
       <c r="H65" s="10"/>
       <c r="K65" s="12"/>
@@ -6100,13 +6106,13 @@
       <c r="BS65" s="12"/>
       <c r="BT65" s="10"/>
     </row>
-    <row r="66" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
+    <row r="66" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="80"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="56"/>
       <c r="D66" s="71"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
       <c r="G66" s="33"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
@@ -6174,7 +6180,7 @@
       <c r="BS66" s="15"/>
       <c r="BT66" s="13"/>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -6185,18 +6191,96 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:F62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A55:A56"/>
@@ -6221,96 +6305,18 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:BS8 H25:BS44 H11:BS16 H46:BS64 H45:AX45 BE45:BS45 AZ45:BC45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/doc/Projektplan Gantt.xlsx
+++ b/doc/Projektplan Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -803,6 +803,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,83 +842,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1400,74 +1406,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BI37" sqref="BI37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1796875" style="5" customWidth="1"/>
-    <col min="9" max="10" width="3.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="3.1796875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="3.1796875" style="5" customWidth="1"/>
-    <col min="13" max="14" width="3.1796875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="3.1796875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" style="5" customWidth="1"/>
-    <col min="17" max="18" width="3.1796875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="5" customWidth="1"/>
-    <col min="21" max="22" width="3.1796875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="3.1796875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="3.1796875" style="5" customWidth="1"/>
-    <col min="25" max="26" width="3.1796875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.1796875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="3.1796875" style="5" customWidth="1"/>
-    <col min="29" max="30" width="3.1796875" style="6" customWidth="1"/>
-    <col min="31" max="31" width="3.1796875" style="8" customWidth="1"/>
-    <col min="32" max="32" width="3.1796875" style="5" customWidth="1"/>
-    <col min="33" max="34" width="3.1796875" style="6" customWidth="1"/>
-    <col min="35" max="35" width="3.1796875" style="8" customWidth="1"/>
-    <col min="36" max="36" width="3.1796875" style="5" customWidth="1"/>
-    <col min="37" max="38" width="3.1796875" style="6" customWidth="1"/>
-    <col min="39" max="39" width="3.1796875" style="8" customWidth="1"/>
-    <col min="40" max="40" width="3.1796875" style="5" customWidth="1"/>
-    <col min="41" max="42" width="3.1796875" style="6" customWidth="1"/>
-    <col min="43" max="43" width="3.1796875" style="8" customWidth="1"/>
-    <col min="44" max="44" width="3.1796875" style="5" customWidth="1"/>
-    <col min="45" max="46" width="3.1796875" style="6" customWidth="1"/>
-    <col min="47" max="47" width="3.1796875" style="8" customWidth="1"/>
-    <col min="48" max="48" width="3.1796875" style="5" customWidth="1"/>
-    <col min="49" max="50" width="3.1796875" style="6" customWidth="1"/>
-    <col min="51" max="51" width="3.1796875" style="8" customWidth="1"/>
-    <col min="52" max="52" width="3.1796875" style="5" customWidth="1"/>
-    <col min="53" max="54" width="3.1796875" style="6" customWidth="1"/>
-    <col min="55" max="55" width="3.1796875" style="8" customWidth="1"/>
-    <col min="56" max="56" width="3.1796875" style="5" customWidth="1"/>
-    <col min="57" max="58" width="3.1796875" style="6" customWidth="1"/>
-    <col min="59" max="59" width="3.1796875" style="8" customWidth="1"/>
-    <col min="60" max="60" width="3.1796875" style="5" customWidth="1"/>
-    <col min="61" max="62" width="3.1796875" style="6" customWidth="1"/>
-    <col min="63" max="63" width="3.1796875" style="8" customWidth="1"/>
-    <col min="64" max="64" width="3.1796875" style="5" customWidth="1"/>
-    <col min="65" max="66" width="3.1796875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="3.1796875" style="8" customWidth="1"/>
-    <col min="68" max="68" width="3.1796875" style="5" customWidth="1"/>
-    <col min="69" max="70" width="3.1796875" style="6" customWidth="1"/>
-    <col min="71" max="71" width="3.1796875" style="8" customWidth="1"/>
-    <col min="72" max="72" width="3.1796875" style="5" customWidth="1"/>
-    <col min="73" max="73" width="2.7265625" customWidth="1"/>
-    <col min="74" max="74" width="2.453125" customWidth="1"/>
-    <col min="75" max="75" width="2.1796875" customWidth="1"/>
-    <col min="76" max="76" width="2.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="5" customWidth="1"/>
+    <col min="9" max="10" width="3.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="5" customWidth="1"/>
+    <col min="13" max="14" width="3.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" style="5" customWidth="1"/>
+    <col min="17" max="18" width="3.140625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" style="5" customWidth="1"/>
+    <col min="21" max="22" width="3.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" style="5" customWidth="1"/>
+    <col min="25" max="26" width="3.140625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.140625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="3.140625" style="5" customWidth="1"/>
+    <col min="29" max="30" width="3.140625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="3.140625" style="8" customWidth="1"/>
+    <col min="32" max="32" width="3.140625" style="5" customWidth="1"/>
+    <col min="33" max="34" width="3.140625" style="6" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" style="5" customWidth="1"/>
+    <col min="37" max="38" width="3.140625" style="6" customWidth="1"/>
+    <col min="39" max="39" width="3.140625" style="8" customWidth="1"/>
+    <col min="40" max="40" width="3.140625" style="5" customWidth="1"/>
+    <col min="41" max="42" width="3.140625" style="6" customWidth="1"/>
+    <col min="43" max="43" width="3.140625" style="8" customWidth="1"/>
+    <col min="44" max="44" width="3.140625" style="5" customWidth="1"/>
+    <col min="45" max="46" width="3.140625" style="6" customWidth="1"/>
+    <col min="47" max="47" width="3.140625" style="8" customWidth="1"/>
+    <col min="48" max="48" width="3.140625" style="5" customWidth="1"/>
+    <col min="49" max="50" width="3.140625" style="6" customWidth="1"/>
+    <col min="51" max="51" width="3.140625" style="8" customWidth="1"/>
+    <col min="52" max="52" width="3.140625" style="5" customWidth="1"/>
+    <col min="53" max="54" width="3.140625" style="6" customWidth="1"/>
+    <col min="55" max="55" width="3.140625" style="8" customWidth="1"/>
+    <col min="56" max="56" width="3.140625" style="5" customWidth="1"/>
+    <col min="57" max="58" width="3.140625" style="6" customWidth="1"/>
+    <col min="59" max="59" width="3.140625" style="8" customWidth="1"/>
+    <col min="60" max="60" width="3.140625" style="5" customWidth="1"/>
+    <col min="61" max="62" width="3.140625" style="6" customWidth="1"/>
+    <col min="63" max="63" width="3.140625" style="8" customWidth="1"/>
+    <col min="64" max="64" width="3.140625" style="5" customWidth="1"/>
+    <col min="65" max="66" width="3.140625" style="6" customWidth="1"/>
+    <col min="67" max="67" width="3.140625" style="8" customWidth="1"/>
+    <col min="68" max="68" width="3.140625" style="5" customWidth="1"/>
+    <col min="69" max="70" width="3.140625" style="6" customWidth="1"/>
+    <col min="71" max="71" width="3.140625" style="8" customWidth="1"/>
+    <col min="72" max="72" width="3.140625" style="5" customWidth="1"/>
+    <col min="73" max="73" width="2.7109375" customWidth="1"/>
+    <col min="74" max="74" width="2.42578125" customWidth="1"/>
+    <col min="75" max="75" width="2.140625" customWidth="1"/>
+    <col min="76" max="76" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:74" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
@@ -1478,106 +1484,106 @@
         <v>3</v>
       </c>
       <c r="G1" s="35"/>
-      <c r="H1" s="81">
+      <c r="H1" s="87">
         <v>42031</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="81">
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="87">
         <v>42038</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="81">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="87">
         <v>42045</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="81">
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="87">
         <v>42052</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="81">
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="87">
         <v>42059</v>
       </c>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="81">
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="87">
         <v>42066</v>
       </c>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="81">
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="87">
         <v>42073</v>
       </c>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="81">
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="87">
         <v>42080</v>
       </c>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="81">
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="87">
         <v>42087</v>
       </c>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="81">
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="87">
         <v>42115</v>
       </c>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="81">
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="87">
         <v>42122</v>
       </c>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="81">
+      <c r="AW1" s="88"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="87">
         <v>42129</v>
       </c>
-      <c r="BA1" s="82"/>
-      <c r="BB1" s="82"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="81">
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="87">
         <v>42136</v>
       </c>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="81">
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="87">
         <v>42143</v>
       </c>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="81">
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="88"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="87">
         <v>42150</v>
       </c>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="81">
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="88"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="87">
         <v>42157</v>
       </c>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="83"/>
+      <c r="BQ1" s="88"/>
+      <c r="BR1" s="88"/>
+      <c r="BS1" s="89"/>
       <c r="BT1" s="9"/>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84"/>
+    <row r="2" spans="1:74" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
       <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1788,21 +1794,21 @@
       <c r="BU2" s="4"/>
       <c r="BV2" s="4"/>
     </row>
-    <row r="3" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="80">
-        <v>1</v>
-      </c>
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="76">
+      <c r="D3" s="85">
         <v>4</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="75">
         <v>4</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1844,13 +1850,13 @@
       <c r="BS3" s="12"/>
       <c r="BT3" s="10"/>
     </row>
-    <row r="4" spans="1:74" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
-      <c r="B4" s="94"/>
+    <row r="4" spans="1:74" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="39" t="s">
         <v>2</v>
       </c>
@@ -1924,23 +1930,23 @@
       <c r="BS4" s="15"/>
       <c r="BT4" s="13"/>
     </row>
-    <row r="5" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80">
-        <v>2</v>
-      </c>
-      <c r="B5" s="85" t="s">
+    <row r="5" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>2</v>
+      </c>
+      <c r="B5" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="83">
         <v>4</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="82">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="31" t="s">
         <v>1</v>
       </c>
@@ -1983,13 +1989,13 @@
       <c r="BS5" s="19"/>
       <c r="BT5" s="17"/>
     </row>
-    <row r="6" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="86"/>
+    <row r="6" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="32" t="s">
         <v>2</v>
       </c>
@@ -2063,23 +2069,23 @@
       <c r="BS6" s="22"/>
       <c r="BT6" s="20"/>
     </row>
-    <row r="7" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80">
+    <row r="7" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="75" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="103">
         <v>6</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="77">
         <v>4</v>
       </c>
-      <c r="F7" s="98"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2122,13 +2128,13 @@
       <c r="BS7" s="12"/>
       <c r="BT7" s="10"/>
     </row>
-    <row r="8" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="92"/>
+    <row r="8" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="56"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="99"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="30" t="s">
         <v>2</v>
       </c>
@@ -2204,23 +2210,23 @@
       <c r="BS8" s="15"/>
       <c r="BT8" s="13"/>
     </row>
-    <row r="9" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80">
+    <row r="9" spans="1:74" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
         <v>7</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="80" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="83">
         <v>6</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="82">
         <v>6</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="31" t="s">
         <v>1</v>
       </c>
@@ -2265,13 +2271,13 @@
       <c r="BS9" s="19"/>
       <c r="BT9" s="17"/>
     </row>
-    <row r="10" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="86"/>
+    <row r="10" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="32" t="s">
         <v>2</v>
       </c>
@@ -2347,21 +2353,21 @@
       <c r="BS10" s="22"/>
       <c r="BT10" s="20"/>
     </row>
-    <row r="11" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80">
+    <row r="11" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
         <v>4</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="75" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65"/>
-      <c r="D11" s="76">
-        <v>1</v>
-      </c>
-      <c r="E11" s="97">
-        <v>1</v>
-      </c>
-      <c r="F11" s="98"/>
+      <c r="D11" s="85">
+        <v>1</v>
+      </c>
+      <c r="E11" s="77">
+        <v>1</v>
+      </c>
+      <c r="F11" s="78"/>
       <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
@@ -2402,13 +2408,13 @@
       <c r="BS11" s="12"/>
       <c r="BT11" s="10"/>
     </row>
-    <row r="12" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="92"/>
+    <row r="12" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="30" t="s">
         <v>2</v>
       </c>
@@ -2480,23 +2486,23 @@
       <c r="BS12" s="15"/>
       <c r="BT12" s="13"/>
     </row>
-    <row r="13" spans="1:74" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80">
+    <row r="13" spans="1:74" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
         <v>5</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="80" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="83">
         <v>4</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="80">
         <v>4</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="31" t="s">
         <v>1</v>
       </c>
@@ -2539,13 +2545,13 @@
       <c r="BS13" s="19"/>
       <c r="BT13" s="17"/>
     </row>
-    <row r="14" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
-      <c r="B14" s="100"/>
+    <row r="14" spans="1:74" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2619,23 +2625,23 @@
       <c r="BS14" s="22"/>
       <c r="BT14" s="20"/>
     </row>
-    <row r="15" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80">
+    <row r="15" spans="1:74" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
         <v>6</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="85">
         <v>6</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="75">
         <v>3</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2678,13 +2684,13 @@
       <c r="BS15" s="12"/>
       <c r="BT15" s="10"/>
     </row>
-    <row r="16" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
-      <c r="B16" s="92"/>
+    <row r="16" spans="1:74" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="56"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="30" t="s">
         <v>2</v>
       </c>
@@ -2760,21 +2766,21 @@
       <c r="BS16" s="15"/>
       <c r="BT16" s="13"/>
     </row>
-    <row r="17" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80">
+    <row r="17" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
         <v>7</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="80" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="74">
+      <c r="D17" s="83">
         <v>8</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="82">
         <v>4</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="31" t="s">
         <v>1</v>
       </c>
@@ -2817,13 +2823,13 @@
       <c r="BS17" s="19"/>
       <c r="BT17" s="17"/>
     </row>
-    <row r="18" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="86"/>
+    <row r="18" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="32" t="s">
         <v>2</v>
       </c>
@@ -2901,8 +2907,8 @@
       <c r="BS18" s="22"/>
       <c r="BT18" s="20"/>
     </row>
-    <row r="19" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80">
+    <row r="19" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
@@ -2911,13 +2917,13 @@
       <c r="C19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="85">
         <v>8</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="75">
         <v>8</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="29" t="s">
         <v>1</v>
       </c>
@@ -2965,15 +2971,15 @@
       <c r="BS19" s="12"/>
       <c r="BT19" s="10"/>
     </row>
-    <row r="20" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
+    <row r="20" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74"/>
       <c r="B20" s="52" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="30" t="s">
         <v>2</v>
       </c>
@@ -3051,23 +3057,23 @@
       <c r="BS20" s="15"/>
       <c r="BT20" s="13"/>
     </row>
-    <row r="21" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80">
+    <row r="21" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
         <v>7</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="80" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="83">
         <v>4</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="82">
         <v>4</v>
       </c>
-      <c r="F21" s="101"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="31" t="s">
         <v>1</v>
       </c>
@@ -3110,13 +3116,13 @@
       <c r="BS21" s="19"/>
       <c r="BT21" s="17"/>
     </row>
-    <row r="22" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="80"/>
-      <c r="B22" s="86"/>
+    <row r="22" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="74"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="58"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
       <c r="G22" s="32" t="s">
         <v>2</v>
       </c>
@@ -3190,23 +3196,23 @@
       <c r="BS22" s="22"/>
       <c r="BT22" s="20"/>
     </row>
-    <row r="23" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80">
+    <row r="23" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
         <v>8</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="75" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="85">
         <v>1.5</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="75">
         <v>4</v>
       </c>
-      <c r="F23" s="91"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="29" t="s">
         <v>1</v>
       </c>
@@ -3249,13 +3255,13 @@
       <c r="BS23" s="12"/>
       <c r="BT23" s="10"/>
     </row>
-    <row r="24" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="92"/>
+    <row r="24" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="74"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="56"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="30" t="s">
         <v>2</v>
       </c>
@@ -3327,23 +3333,23 @@
       <c r="BS24" s="15"/>
       <c r="BT24" s="13"/>
     </row>
-    <row r="25" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="80">
+    <row r="25" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
         <v>7</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="80" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="83">
         <v>8</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E25" s="82">
         <v>4</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="31" t="s">
         <v>1</v>
       </c>
@@ -3386,13 +3392,13 @@
       <c r="BS25" s="19"/>
       <c r="BT25" s="17"/>
     </row>
-    <row r="26" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="80"/>
-      <c r="B26" s="86"/>
+    <row r="26" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="74"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="58"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="32" t="s">
         <v>2</v>
       </c>
@@ -3470,23 +3476,23 @@
       <c r="BS26" s="22"/>
       <c r="BT26" s="20"/>
     </row>
-    <row r="27" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80">
+    <row r="27" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
         <v>8</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="85">
         <v>0</v>
       </c>
-      <c r="E27" s="91">
+      <c r="E27" s="75">
         <v>4</v>
       </c>
-      <c r="F27" s="91"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="29" t="s">
         <v>1</v>
       </c>
@@ -3529,13 +3535,13 @@
       <c r="BS27" s="12"/>
       <c r="BT27" s="10"/>
     </row>
-    <row r="28" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="80"/>
-      <c r="B28" s="92"/>
+    <row r="28" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="56"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="30" t="s">
         <v>2</v>
       </c>
@@ -3605,23 +3611,23 @@
       <c r="BS28" s="15"/>
       <c r="BT28" s="13"/>
     </row>
-    <row r="29" spans="1:72" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="80">
+    <row r="29" spans="1:72" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
         <v>9</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="80" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="83">
         <v>14</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="80">
         <v>12</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="31" t="s">
         <v>1</v>
       </c>
@@ -3689,13 +3695,13 @@
       <c r="BS29" s="19"/>
       <c r="BT29" s="17"/>
     </row>
-    <row r="30" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
-      <c r="B30" s="86"/>
+    <row r="30" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="58"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="32" t="s">
         <v>2</v>
       </c>
@@ -3782,8 +3788,12 @@
       <c r="BH30" s="20"/>
       <c r="BI30" s="21"/>
       <c r="BJ30" s="21"/>
-      <c r="BK30" s="22"/>
-      <c r="BL30" s="20"/>
+      <c r="BK30" s="22">
+        <v>2</v>
+      </c>
+      <c r="BL30" s="20">
+        <v>2</v>
+      </c>
       <c r="BM30" s="21"/>
       <c r="BN30" s="21"/>
       <c r="BO30" s="22"/>
@@ -3793,21 +3803,21 @@
       <c r="BS30" s="22"/>
       <c r="BT30" s="20"/>
     </row>
-    <row r="31" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="80">
+    <row r="31" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
         <v>10</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="55"/>
-      <c r="D31" s="76">
+      <c r="D31" s="85">
         <v>5</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="75">
         <v>8</v>
       </c>
-      <c r="F31" s="91"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="29" t="s">
         <v>1</v>
       </c>
@@ -3855,13 +3865,13 @@
       <c r="BS31" s="12"/>
       <c r="BT31" s="10"/>
     </row>
-    <row r="32" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="80"/>
-      <c r="B32" s="92"/>
+    <row r="32" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="56"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="30" t="s">
         <v>2</v>
       </c>
@@ -3941,21 +3951,21 @@
       <c r="BS32" s="15"/>
       <c r="BT32" s="13"/>
     </row>
-    <row r="33" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="80">
+    <row r="33" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
         <v>11</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="74">
+      <c r="D33" s="83">
         <v>18</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="80">
         <v>8</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="80"/>
       <c r="G33" s="31" t="s">
         <v>1</v>
       </c>
@@ -4043,13 +4053,13 @@
       <c r="BS33" s="19"/>
       <c r="BT33" s="17"/>
     </row>
-    <row r="34" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80"/>
-      <c r="B34" s="86"/>
+    <row r="34" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="58"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="32" t="s">
         <v>2</v>
       </c>
@@ -4155,19 +4165,21 @@
       <c r="BS34" s="22"/>
       <c r="BT34" s="20"/>
     </row>
-    <row r="35" spans="1:72" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80">
+    <row r="35" spans="1:72" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
         <v>12</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="90" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="59"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="91">
-        <v>2</v>
-      </c>
-      <c r="F35" s="91"/>
+      <c r="D35" s="104">
+        <v>2</v>
+      </c>
+      <c r="E35" s="75">
+        <v>2</v>
+      </c>
+      <c r="F35" s="75"/>
       <c r="G35" s="29" t="s">
         <v>1</v>
       </c>
@@ -4207,13 +4219,13 @@
       <c r="BS35" s="12"/>
       <c r="BT35" s="10"/>
     </row>
-    <row r="36" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="80"/>
-      <c r="B36" s="94"/>
+    <row r="36" spans="1:72" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="74"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="60"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="30" t="s">
         <v>2</v>
       </c>
@@ -4276,26 +4288,30 @@
       <c r="BL36" s="13"/>
       <c r="BM36" s="14"/>
       <c r="BN36" s="14"/>
-      <c r="BO36" s="15"/>
+      <c r="BO36" s="15">
+        <v>2</v>
+      </c>
       <c r="BP36" s="13"/>
       <c r="BQ36" s="14"/>
       <c r="BR36" s="14"/>
       <c r="BS36" s="15"/>
       <c r="BT36" s="13"/>
     </row>
-    <row r="37" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="80">
+    <row r="37" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
         <v>13</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="80" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="85">
+      <c r="D37" s="83">
+        <v>4</v>
+      </c>
+      <c r="E37" s="80">
         <v>6</v>
       </c>
-      <c r="F37" s="85"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="31" t="s">
         <v>1</v>
       </c>
@@ -4346,13 +4362,13 @@
       <c r="BS37" s="19"/>
       <c r="BT37" s="17"/>
     </row>
-    <row r="38" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="80"/>
-      <c r="B38" s="86"/>
+    <row r="38" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="74"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
       <c r="G38" s="32" t="s">
         <v>2</v>
       </c>
@@ -4428,19 +4444,21 @@
       <c r="BS38" s="22"/>
       <c r="BT38" s="20"/>
     </row>
-    <row r="39" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="80">
+    <row r="39" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
         <v>14</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="75" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="55"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="91">
+      <c r="D39" s="85">
         <v>4</v>
       </c>
-      <c r="F39" s="91"/>
+      <c r="E39" s="75">
+        <v>4</v>
+      </c>
+      <c r="F39" s="75"/>
       <c r="G39" s="29" t="s">
         <v>1</v>
       </c>
@@ -4488,13 +4506,13 @@
       <c r="BS39" s="12"/>
       <c r="BT39" s="10"/>
     </row>
-    <row r="40" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="80"/>
-      <c r="B40" s="92"/>
+    <row r="40" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="30" t="s">
         <v>2</v>
       </c>
@@ -4554,25 +4572,33 @@
       <c r="BI40" s="14"/>
       <c r="BJ40" s="14"/>
       <c r="BK40" s="15"/>
-      <c r="BL40" s="13"/>
-      <c r="BM40" s="14"/>
-      <c r="BN40" s="14"/>
-      <c r="BO40" s="15"/>
+      <c r="BL40" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM40" s="14">
+        <v>2</v>
+      </c>
+      <c r="BN40" s="14">
+        <v>2</v>
+      </c>
+      <c r="BO40" s="15">
+        <v>2</v>
+      </c>
       <c r="BP40" s="13"/>
       <c r="BQ40" s="14"/>
       <c r="BR40" s="14"/>
       <c r="BS40" s="15"/>
       <c r="BT40" s="13"/>
     </row>
-    <row r="41" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="80">
+    <row r="41" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
         <v>15</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="57"/>
       <c r="D41" s="66"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="31" t="s">
         <v>1</v>
       </c>
@@ -4610,13 +4636,13 @@
       <c r="BS41" s="19"/>
       <c r="BT41" s="17"/>
     </row>
-    <row r="42" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="80"/>
-      <c r="B42" s="86"/>
+    <row r="42" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="74"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="58"/>
       <c r="D42" s="67"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
       <c r="G42" s="32" t="s">
         <v>2</v>
       </c>
@@ -4686,8 +4712,8 @@
       <c r="BS42" s="22"/>
       <c r="BT42" s="20"/>
     </row>
-    <row r="43" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="80">
+    <row r="43" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
         <v>16</v>
       </c>
       <c r="B43" s="49"/>
@@ -4732,8 +4758,8 @@
       <c r="BS43" s="12"/>
       <c r="BT43" s="10"/>
     </row>
-    <row r="44" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="80"/>
+    <row r="44" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="74"/>
       <c r="B44" s="50"/>
       <c r="C44" s="60"/>
       <c r="D44" s="73"/>
@@ -4808,17 +4834,17 @@
       <c r="BS44" s="15"/>
       <c r="BT44" s="13"/>
     </row>
-    <row r="45" spans="1:72" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="80">
+    <row r="45" spans="1:72" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
         <v>18</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="97" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="68"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="40"/>
       <c r="H45" s="41"/>
       <c r="I45" s="42"/>
@@ -4906,13 +4932,13 @@
       <c r="BS45" s="43"/>
       <c r="BT45" s="10"/>
     </row>
-    <row r="46" spans="1:72" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="80"/>
-      <c r="B46" s="88"/>
+    <row r="46" spans="1:72" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="74"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="62"/>
       <c r="D46" s="69"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
       <c r="G46" s="44"/>
       <c r="H46" s="45"/>
       <c r="I46" s="46"/>
@@ -4980,17 +5006,17 @@
       <c r="BS46" s="47"/>
       <c r="BT46" s="13"/>
     </row>
-    <row r="47" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="80">
+    <row r="47" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74">
         <v>19</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="80" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="57"/>
       <c r="D47" s="66"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
       <c r="G47" s="31"/>
       <c r="H47" s="17"/>
       <c r="K47" s="19"/>
@@ -5026,13 +5052,13 @@
       <c r="BS47" s="19"/>
       <c r="BT47" s="17"/>
     </row>
-    <row r="48" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80"/>
-      <c r="B48" s="86"/>
+    <row r="48" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="74"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="58"/>
       <c r="D48" s="67"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
       <c r="G48" s="32"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
@@ -5100,17 +5126,17 @@
       <c r="BS48" s="22"/>
       <c r="BT48" s="20"/>
     </row>
-    <row r="49" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="80">
+    <row r="49" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="74">
         <v>20</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="75" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="70"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="29"/>
       <c r="H49" s="10"/>
       <c r="K49" s="12"/>
@@ -5146,13 +5172,13 @@
       <c r="BS49" s="12"/>
       <c r="BT49" s="10"/>
     </row>
-    <row r="50" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="80"/>
-      <c r="B50" s="92"/>
+    <row r="50" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="56"/>
       <c r="D50" s="71"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
       <c r="G50" s="30"/>
       <c r="H50" s="13"/>
       <c r="I50" s="14"/>
@@ -5220,17 +5246,17 @@
       <c r="BS50" s="15"/>
       <c r="BT50" s="13"/>
     </row>
-    <row r="51" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="80">
+    <row r="51" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
         <v>21</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="80" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="57"/>
       <c r="D51" s="66"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
       <c r="G51" s="31"/>
       <c r="H51" s="17"/>
       <c r="K51" s="19"/>
@@ -5266,13 +5292,13 @@
       <c r="BS51" s="19"/>
       <c r="BT51" s="17"/>
     </row>
-    <row r="52" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="80"/>
-      <c r="B52" s="86"/>
+    <row r="52" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="74"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="58"/>
       <c r="D52" s="67"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
       <c r="G52" s="32"/>
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
@@ -5340,17 +5366,17 @@
       <c r="BS52" s="22"/>
       <c r="BT52" s="20"/>
     </row>
-    <row r="53" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="80">
+    <row r="53" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
         <v>22</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="75" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="70"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="29"/>
       <c r="H53" s="10"/>
       <c r="K53" s="12"/>
@@ -5386,13 +5412,13 @@
       <c r="BS53" s="12"/>
       <c r="BT53" s="10"/>
     </row>
-    <row r="54" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="80"/>
-      <c r="B54" s="92"/>
+    <row r="54" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="74"/>
+      <c r="B54" s="76"/>
       <c r="C54" s="56"/>
       <c r="D54" s="71"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="30"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14"/>
@@ -5460,17 +5486,17 @@
       <c r="BS54" s="15"/>
       <c r="BT54" s="13"/>
     </row>
-    <row r="55" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="80">
+    <row r="55" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="74">
         <v>23</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="80" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="57"/>
       <c r="D55" s="66"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
       <c r="G55" s="31"/>
       <c r="H55" s="17"/>
       <c r="K55" s="19"/>
@@ -5506,13 +5532,13 @@
       <c r="BS55" s="19"/>
       <c r="BT55" s="17"/>
     </row>
-    <row r="56" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="80"/>
-      <c r="B56" s="86"/>
+    <row r="56" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="74"/>
+      <c r="B56" s="81"/>
       <c r="C56" s="58"/>
       <c r="D56" s="67"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
       <c r="G56" s="32"/>
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
@@ -5580,17 +5606,17 @@
       <c r="BS56" s="22"/>
       <c r="BT56" s="20"/>
     </row>
-    <row r="57" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="80">
+    <row r="57" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="74">
         <v>24</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="75" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="70"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
       <c r="G57" s="29"/>
       <c r="H57" s="10"/>
       <c r="K57" s="12"/>
@@ -5626,13 +5652,13 @@
       <c r="BS57" s="12"/>
       <c r="BT57" s="10"/>
     </row>
-    <row r="58" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="80"/>
-      <c r="B58" s="92"/>
+    <row r="58" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="74"/>
+      <c r="B58" s="76"/>
       <c r="C58" s="56"/>
       <c r="D58" s="71"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="30"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
@@ -5700,17 +5726,17 @@
       <c r="BS58" s="15"/>
       <c r="BT58" s="13"/>
     </row>
-    <row r="59" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="80">
+    <row r="59" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="74">
         <v>25</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="80" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="66"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
       <c r="G59" s="31"/>
       <c r="H59" s="17"/>
       <c r="K59" s="19"/>
@@ -5746,13 +5772,13 @@
       <c r="BS59" s="19"/>
       <c r="BT59" s="17"/>
     </row>
-    <row r="60" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="80"/>
-      <c r="B60" s="86"/>
+    <row r="60" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="74"/>
+      <c r="B60" s="81"/>
       <c r="C60" s="58"/>
       <c r="D60" s="67"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
       <c r="G60" s="32"/>
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
@@ -5820,17 +5846,17 @@
       <c r="BS60" s="22"/>
       <c r="BT60" s="20"/>
     </row>
-    <row r="61" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="80">
+    <row r="61" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="74">
         <v>26</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="75" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="70"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
       <c r="G61" s="29"/>
       <c r="H61" s="10"/>
       <c r="K61" s="12"/>
@@ -5866,13 +5892,13 @@
       <c r="BS61" s="12"/>
       <c r="BT61" s="10"/>
     </row>
-    <row r="62" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="80"/>
-      <c r="B62" s="92"/>
+    <row r="62" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="74"/>
+      <c r="B62" s="76"/>
       <c r="C62" s="56"/>
       <c r="D62" s="71"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
       <c r="G62" s="30"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
@@ -5940,17 +5966,17 @@
       <c r="BS62" s="15"/>
       <c r="BT62" s="13"/>
     </row>
-    <row r="63" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="80">
+    <row r="63" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="74">
         <v>27</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="57"/>
       <c r="D63" s="66"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="31"/>
       <c r="H63" s="17"/>
       <c r="K63" s="19"/>
@@ -5986,13 +6012,13 @@
       <c r="BS63" s="19"/>
       <c r="BT63" s="17"/>
     </row>
-    <row r="64" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="80"/>
-      <c r="B64" s="86"/>
+    <row r="64" spans="1:72" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="74"/>
+      <c r="B64" s="81"/>
       <c r="C64" s="58"/>
       <c r="D64" s="67"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
       <c r="G64" s="32"/>
       <c r="H64" s="20"/>
       <c r="I64" s="21"/>
@@ -6060,17 +6086,17 @@
       <c r="BS64" s="22"/>
       <c r="BT64" s="20"/>
     </row>
-    <row r="65" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="80">
+    <row r="65" spans="1:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="74">
         <v>28</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="75" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="70"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="29"/>
       <c r="H65" s="10"/>
       <c r="K65" s="12"/>
@@ -6106,13 +6132,13 @@
       <c r="BS65" s="12"/>
       <c r="BT65" s="10"/>
     </row>
-    <row r="66" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="80"/>
-      <c r="B66" s="92"/>
+    <row r="66" spans="1:72" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="74"/>
+      <c r="B66" s="76"/>
       <c r="C66" s="56"/>
       <c r="D66" s="71"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
       <c r="G66" s="33"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
@@ -6180,7 +6206,7 @@
       <c r="BS66" s="15"/>
       <c r="BT66" s="13"/>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
@@ -6190,7 +6216,112 @@
       <c r="F67" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="129">
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:F22"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="E49:F50"/>
@@ -6215,108 +6346,6 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:BS8 H25:BS44 H11:BS16 H46:BS64 H45:AX45 BE45:BS45 AZ45:BC45">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
